--- a/QC工程表_H1_PQC_20210323.xlsx
+++ b/QC工程表_H1_PQC_20210323.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iec851339\mygit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="8604" yWindow="2856" windowWidth="4224" windowHeight="2736"/>
   </bookViews>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="504">
   <si>
     <t>記錄表單</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2023,6 +2028,10 @@
   </si>
   <si>
     <t>倉儲作業管理程序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1).BUZR極性位置正確</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3180,60 +3189,114 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3243,6 +3306,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3252,83 +3324,20 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -3384,6 +3393,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -9608,12 +9620,12 @@
       <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="167" t="s">
+      <c r="C2" s="188" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="169"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="190"/>
       <c r="G2" s="33" t="s">
         <v>13</v>
       </c>
@@ -9640,18 +9652,18 @@
       </c>
     </row>
     <row r="3" spans="1:15" s="3" customFormat="1" ht="27.6">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="148">
+      <c r="B3" s="153">
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="154"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
       <c r="G3" s="10" t="s">
         <v>136</v>
       </c>
@@ -9670,57 +9682,57 @@
       <c r="L3" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="M3" s="178" t="s">
+      <c r="M3" s="185" t="s">
         <v>138</v>
       </c>
-      <c r="N3" s="170" t="s">
+      <c r="N3" s="148" t="s">
         <v>137</v>
       </c>
       <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A4" s="147"/>
-      <c r="B4" s="149"/>
+      <c r="A4" s="151"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="157"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="170"/>
       <c r="G4" s="12"/>
       <c r="H4" s="13"/>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
       <c r="K4" s="24"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="171"/>
+      <c r="M4" s="186"/>
+      <c r="N4" s="149"/>
       <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="21.6" customHeight="1">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="148">
+      <c r="B5" s="153">
         <v>2</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="177" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="152"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="150" t="s">
+      <c r="D5" s="165"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="177" t="s">
         <v>139</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="174" t="s">
+      <c r="I5" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="174" t="s">
+      <c r="J5" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="174" t="s">
+      <c r="K5" s="173" t="s">
         <v>44</v>
       </c>
       <c r="L5" s="11" t="s">
@@ -9734,19 +9746,19 @@
       </c>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A6" s="158"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="177"/>
+      <c r="A6" s="152"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="181"/>
       <c r="H6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="176"/>
-      <c r="J6" s="176"/>
-      <c r="K6" s="176"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="174"/>
+      <c r="K6" s="174"/>
       <c r="L6" s="14" t="s">
         <v>224</v>
       </c>
@@ -9756,20 +9768,20 @@
       </c>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="148">
+      <c r="B7" s="153">
         <v>3</v>
       </c>
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="177" t="s">
         <v>265</v>
       </c>
-      <c r="D7" s="152"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="154"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="167"/>
       <c r="G7" s="10" t="s">
-        <v>117</v>
+        <v>503</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>19</v>
@@ -9794,12 +9806,12 @@
       </c>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A8" s="147"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="157"/>
+      <c r="A8" s="151"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="170"/>
       <c r="G8" s="12" t="s">
         <v>267</v>
       </c>
@@ -9820,12 +9832,12 @@
       </c>
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A9" s="147"/>
-      <c r="B9" s="149"/>
+      <c r="A9" s="151"/>
+      <c r="B9" s="154"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="157"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="170"/>
       <c r="G9" s="12" t="s">
         <v>266</v>
       </c>
@@ -9842,18 +9854,18 @@
       <c r="N9" s="26"/>
     </row>
     <row r="10" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A10" s="146" t="s">
+      <c r="A10" s="150" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="148">
+      <c r="B10" s="153">
         <v>4</v>
       </c>
-      <c r="C10" s="150" t="s">
+      <c r="C10" s="177" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="152"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="154"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="167"/>
       <c r="G10" s="10" t="s">
         <v>126</v>
       </c>
@@ -9880,12 +9892,12 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A11" s="147"/>
-      <c r="B11" s="149"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="157"/>
+      <c r="A11" s="151"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="170"/>
       <c r="G11" s="12" t="s">
         <v>79</v>
       </c>
@@ -9906,12 +9918,12 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A12" s="147"/>
-      <c r="B12" s="149"/>
+      <c r="A12" s="151"/>
+      <c r="B12" s="154"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="157"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="170"/>
       <c r="G12" s="12" t="s">
         <v>140</v>
       </c>
@@ -9926,18 +9938,18 @@
       <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:15" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A13" s="146" t="s">
+      <c r="A13" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="148">
+      <c r="B13" s="153">
         <v>5</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="152"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="154"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="167"/>
       <c r="G13" s="10" t="s">
         <v>24</v>
       </c>
@@ -9964,12 +9976,12 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A14" s="147"/>
-      <c r="B14" s="149"/>
+      <c r="A14" s="151"/>
+      <c r="B14" s="154"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="157"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="170"/>
       <c r="G14" s="12" t="s">
         <v>87</v>
       </c>
@@ -9990,12 +10002,12 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A15" s="147"/>
-      <c r="B15" s="149"/>
+      <c r="A15" s="151"/>
+      <c r="B15" s="154"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="157"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="170"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="74"/>
@@ -10008,10 +10020,10 @@
       <c r="N15" s="26"/>
     </row>
     <row r="16" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A16" s="146" t="s">
+      <c r="A16" s="150" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="148">
+      <c r="B16" s="153">
         <v>6</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -10046,8 +10058,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A17" s="147"/>
-      <c r="B17" s="149"/>
+      <c r="A17" s="151"/>
+      <c r="B17" s="154"/>
       <c r="C17" s="12"/>
       <c r="D17" s="71"/>
       <c r="E17" s="72"/>
@@ -10072,8 +10084,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A18" s="147"/>
-      <c r="B18" s="149"/>
+      <c r="A18" s="151"/>
+      <c r="B18" s="154"/>
       <c r="C18" s="12"/>
       <c r="D18" s="71"/>
       <c r="E18" s="72"/>
@@ -10092,8 +10104,8 @@
       <c r="N18" s="26"/>
     </row>
     <row r="19" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A19" s="147"/>
-      <c r="B19" s="149"/>
+      <c r="A19" s="151"/>
+      <c r="B19" s="154"/>
       <c r="C19" s="12"/>
       <c r="D19" s="71"/>
       <c r="E19" s="72"/>
@@ -10121,16 +10133,16 @@
       <c r="G20" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H20" s="150" t="s">
+      <c r="H20" s="177" t="s">
         <v>156</v>
       </c>
-      <c r="I20" s="174" t="s">
+      <c r="I20" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="174" t="s">
+      <c r="J20" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="174" t="s">
+      <c r="K20" s="173" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="103" t="s">
@@ -10144,25 +10156,25 @@
       </c>
     </row>
     <row r="21" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A21" s="163" t="s">
+      <c r="A21" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="B21" s="149">
+      <c r="B21" s="154">
         <v>7</v>
       </c>
       <c r="C21" s="106" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="155"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="157"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="170"/>
       <c r="G21" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="H21" s="151"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="175"/>
-      <c r="K21" s="175"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="178"/>
+      <c r="K21" s="178"/>
       <c r="L21" s="104" t="s">
         <v>226</v>
       </c>
@@ -10174,21 +10186,21 @@
       </c>
     </row>
     <row r="22" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A22" s="163"/>
-      <c r="B22" s="149"/>
+      <c r="A22" s="179"/>
+      <c r="B22" s="154"/>
       <c r="C22" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="D22" s="155"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="157"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="170"/>
       <c r="G22" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="H22" s="151"/>
-      <c r="I22" s="175"/>
-      <c r="J22" s="175"/>
-      <c r="K22" s="175"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="178"/>
+      <c r="K22" s="178"/>
       <c r="L22" s="14" t="s">
         <v>233</v>
       </c>
@@ -10196,199 +10208,199 @@
       <c r="N22" s="106"/>
     </row>
     <row r="23" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A23" s="163"/>
-      <c r="B23" s="149"/>
+      <c r="A23" s="179"/>
+      <c r="B23" s="154"/>
       <c r="C23" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="D23" s="155"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="157"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="170"/>
       <c r="G23" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="H23" s="151"/>
-      <c r="I23" s="175"/>
-      <c r="J23" s="175"/>
-      <c r="K23" s="175"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="178"/>
+      <c r="K23" s="178"/>
       <c r="L23" s="14"/>
       <c r="M23" s="106"/>
       <c r="N23" s="106"/>
     </row>
     <row r="24" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A24" s="163"/>
-      <c r="B24" s="149"/>
+      <c r="A24" s="179"/>
+      <c r="B24" s="154"/>
       <c r="C24" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="D24" s="155"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="157"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="170"/>
       <c r="G24" s="125" t="s">
         <v>282</v>
       </c>
-      <c r="H24" s="151"/>
-      <c r="I24" s="175"/>
-      <c r="J24" s="175"/>
-      <c r="K24" s="175"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="178"/>
+      <c r="K24" s="178"/>
       <c r="L24" s="14"/>
       <c r="M24" s="106"/>
       <c r="N24" s="106"/>
     </row>
     <row r="25" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A25" s="163"/>
-      <c r="B25" s="149"/>
+      <c r="A25" s="179"/>
+      <c r="B25" s="154"/>
       <c r="C25" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D25" s="155"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="157"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="170"/>
       <c r="G25" s="125" t="s">
         <v>283</v>
       </c>
-      <c r="H25" s="151"/>
-      <c r="I25" s="175"/>
-      <c r="J25" s="175"/>
-      <c r="K25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="178"/>
+      <c r="K25" s="178"/>
       <c r="L25" s="14"/>
       <c r="M25" s="106"/>
       <c r="N25" s="106"/>
     </row>
     <row r="26" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A26" s="163"/>
-      <c r="B26" s="149"/>
+      <c r="A26" s="179"/>
+      <c r="B26" s="154"/>
       <c r="C26" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D26" s="155"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="157"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="170"/>
       <c r="G26" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="151"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="175"/>
-      <c r="K26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="178"/>
+      <c r="K26" s="178"/>
       <c r="L26" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="M26" s="171"/>
+      <c r="M26" s="149"/>
       <c r="N26" s="26"/>
     </row>
     <row r="27" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A27" s="163"/>
-      <c r="B27" s="149"/>
+      <c r="A27" s="179"/>
+      <c r="B27" s="154"/>
       <c r="C27" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D27" s="155"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="157"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="170"/>
       <c r="G27" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="H27" s="151"/>
-      <c r="I27" s="175"/>
-      <c r="J27" s="175"/>
-      <c r="K27" s="175"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="178"/>
+      <c r="K27" s="178"/>
       <c r="L27" s="104" t="s">
         <v>227</v>
       </c>
-      <c r="M27" s="173"/>
+      <c r="M27" s="180"/>
       <c r="N27" s="26"/>
     </row>
     <row r="28" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A28" s="163"/>
-      <c r="B28" s="149"/>
+      <c r="A28" s="179"/>
+      <c r="B28" s="154"/>
       <c r="C28" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D28" s="155"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="157"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="170"/>
       <c r="G28" s="125" t="s">
         <v>296</v>
       </c>
-      <c r="H28" s="151"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="175"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="178"/>
+      <c r="K28" s="178"/>
       <c r="L28" s="106"/>
       <c r="M28" s="26"/>
       <c r="N28" s="26"/>
     </row>
     <row r="29" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A29" s="163"/>
-      <c r="B29" s="149"/>
+      <c r="A29" s="179"/>
+      <c r="B29" s="154"/>
       <c r="C29" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D29" s="155"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="157"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="170"/>
       <c r="G29" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="H29" s="151"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="178"/>
+      <c r="K29" s="178"/>
       <c r="L29" s="106"/>
-      <c r="M29" s="171"/>
-      <c r="N29" s="171"/>
+      <c r="M29" s="149"/>
+      <c r="N29" s="149"/>
     </row>
     <row r="30" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A30" s="163"/>
-      <c r="B30" s="149"/>
+      <c r="A30" s="179"/>
+      <c r="B30" s="154"/>
       <c r="C30" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D30" s="155"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="157"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="170"/>
       <c r="G30" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="H30" s="151"/>
-      <c r="I30" s="175"/>
-      <c r="J30" s="175"/>
-      <c r="K30" s="175"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="178"/>
+      <c r="K30" s="178"/>
       <c r="L30" s="104"/>
-      <c r="M30" s="171"/>
-      <c r="N30" s="173"/>
+      <c r="M30" s="149"/>
+      <c r="N30" s="180"/>
     </row>
     <row r="31" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A31" s="163"/>
-      <c r="B31" s="149"/>
+      <c r="A31" s="179"/>
+      <c r="B31" s="154"/>
       <c r="C31" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D31" s="155"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="157"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="175"/>
-      <c r="K31" s="175"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="169"/>
+      <c r="F31" s="170"/>
+      <c r="H31" s="175"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="178"/>
+      <c r="K31" s="178"/>
       <c r="L31" s="104"/>
       <c r="M31" s="142"/>
       <c r="N31" s="26"/>
     </row>
     <row r="32" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A32" s="146" t="s">
+      <c r="A32" s="150" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="148">
+      <c r="B32" s="153">
         <v>8</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="152"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="154"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="167"/>
       <c r="G32" s="10" t="s">
         <v>24</v>
       </c>
@@ -10415,12 +10427,12 @@
       </c>
     </row>
     <row r="33" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A33" s="147"/>
-      <c r="B33" s="149"/>
+      <c r="A33" s="151"/>
+      <c r="B33" s="154"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="157"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="170"/>
       <c r="G33" s="12" t="s">
         <v>158</v>
       </c>
@@ -10437,12 +10449,12 @@
       </c>
     </row>
     <row r="34" spans="1:14" s="3" customFormat="1" ht="27.6" customHeight="1" thickBot="1">
-      <c r="A34" s="147"/>
-      <c r="B34" s="149"/>
+      <c r="A34" s="151"/>
+      <c r="B34" s="154"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="157"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="169"/>
+      <c r="F34" s="170"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="24"/>
@@ -10453,18 +10465,18 @@
       <c r="N34" s="27"/>
     </row>
     <row r="35" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A35" s="146" t="s">
+      <c r="A35" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="148">
+      <c r="B35" s="153">
         <v>9</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="152"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="154"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="166"/>
+      <c r="F35" s="167"/>
       <c r="G35" s="10" t="s">
         <v>168</v>
       </c>
@@ -10491,12 +10503,12 @@
       </c>
     </row>
     <row r="36" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A36" s="147"/>
-      <c r="B36" s="149"/>
+      <c r="A36" s="151"/>
+      <c r="B36" s="154"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="157"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="169"/>
+      <c r="F36" s="170"/>
       <c r="G36" s="3" t="s">
         <v>167</v>
       </c>
@@ -10517,12 +10529,12 @@
       </c>
     </row>
     <row r="37" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A37" s="147"/>
-      <c r="B37" s="149"/>
+      <c r="A37" s="151"/>
+      <c r="B37" s="154"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="155"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="157"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="169"/>
+      <c r="F37" s="170"/>
       <c r="G37" s="12" t="s">
         <v>235</v>
       </c>
@@ -10537,10 +10549,10 @@
       <c r="N37" s="27"/>
     </row>
     <row r="38" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A38" s="146" t="s">
+      <c r="A38" s="150" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="148">
+      <c r="B38" s="153">
         <v>10</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -10575,8 +10587,8 @@
       </c>
     </row>
     <row r="39" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A39" s="147"/>
-      <c r="B39" s="149"/>
+      <c r="A39" s="151"/>
+      <c r="B39" s="154"/>
       <c r="C39" s="12"/>
       <c r="D39" s="94"/>
       <c r="E39" s="95"/>
@@ -10601,8 +10613,8 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1">
-      <c r="A40" s="158"/>
-      <c r="B40" s="159"/>
+      <c r="A40" s="152"/>
+      <c r="B40" s="155"/>
       <c r="C40" s="15"/>
       <c r="D40" s="97"/>
       <c r="E40" s="98"/>
@@ -10619,10 +10631,10 @@
       <c r="N40" s="27"/>
     </row>
     <row r="41" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A41" s="146" t="s">
+      <c r="A41" s="150" t="s">
         <v>165</v>
       </c>
-      <c r="B41" s="148">
+      <c r="B41" s="153">
         <v>11</v>
       </c>
       <c r="C41" s="10" t="s">
@@ -10657,8 +10669,8 @@
       </c>
     </row>
     <row r="42" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A42" s="147"/>
-      <c r="B42" s="149"/>
+      <c r="A42" s="151"/>
+      <c r="B42" s="154"/>
       <c r="C42" s="12"/>
       <c r="D42" s="94"/>
       <c r="E42" s="95"/>
@@ -10683,8 +10695,8 @@
       </c>
     </row>
     <row r="43" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1">
-      <c r="A43" s="158"/>
-      <c r="B43" s="159"/>
+      <c r="A43" s="152"/>
+      <c r="B43" s="155"/>
       <c r="C43" s="15"/>
       <c r="D43" s="97"/>
       <c r="E43" s="98"/>
@@ -10704,7 +10716,7 @@
     </row>
     <row r="44" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1">
       <c r="A44" s="111"/>
-      <c r="B44" s="148">
+      <c r="B44" s="153">
         <v>12</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -10716,16 +10728,16 @@
       <c r="G44" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="H44" s="150" t="s">
+      <c r="H44" s="177" t="s">
         <v>155</v>
       </c>
-      <c r="I44" s="148" t="s">
+      <c r="I44" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="J44" s="148" t="s">
+      <c r="J44" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="K44" s="148" t="s">
+      <c r="K44" s="153" t="s">
         <v>32</v>
       </c>
       <c r="L44" s="20" t="s">
@@ -10740,7 +10752,7 @@
     </row>
     <row r="45" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A45" s="112"/>
-      <c r="B45" s="149"/>
+      <c r="B45" s="154"/>
       <c r="C45" s="12" t="s">
         <v>190</v>
       </c>
@@ -10750,10 +10762,10 @@
       <c r="G45" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="H45" s="151"/>
-      <c r="I45" s="149"/>
-      <c r="J45" s="181"/>
-      <c r="K45" s="181"/>
+      <c r="H45" s="175"/>
+      <c r="I45" s="154"/>
+      <c r="J45" s="176"/>
+      <c r="K45" s="176"/>
       <c r="L45" s="21" t="s">
         <v>90</v>
       </c>
@@ -10766,7 +10778,7 @@
     </row>
     <row r="46" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A46" s="112"/>
-      <c r="B46" s="149"/>
+      <c r="B46" s="154"/>
       <c r="C46" s="3" t="s">
         <v>286</v>
       </c>
@@ -10779,9 +10791,9 @@
       <c r="H46" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I46" s="149"/>
-      <c r="J46" s="181"/>
-      <c r="K46" s="181"/>
+      <c r="I46" s="154"/>
+      <c r="J46" s="176"/>
+      <c r="K46" s="176"/>
       <c r="L46" s="21" t="s">
         <v>173</v>
       </c>
@@ -10790,7 +10802,7 @@
     </row>
     <row r="47" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A47" s="112"/>
-      <c r="B47" s="149"/>
+      <c r="B47" s="154"/>
       <c r="C47" s="3" t="s">
         <v>287</v>
       </c>
@@ -10803,9 +10815,9 @@
       <c r="H47" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="I47" s="149"/>
-      <c r="J47" s="181"/>
-      <c r="K47" s="181"/>
+      <c r="I47" s="154"/>
+      <c r="J47" s="176"/>
+      <c r="K47" s="176"/>
       <c r="L47" s="14" t="s">
         <v>229</v>
       </c>
@@ -10814,7 +10826,7 @@
     </row>
     <row r="48" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A48" s="112"/>
-      <c r="B48" s="149"/>
+      <c r="B48" s="154"/>
       <c r="C48" s="12" t="s">
         <v>288</v>
       </c>
@@ -10825,9 +10837,9 @@
         <v>298</v>
       </c>
       <c r="H48" s="106"/>
-      <c r="I48" s="149"/>
-      <c r="J48" s="181"/>
-      <c r="K48" s="181"/>
+      <c r="I48" s="154"/>
+      <c r="J48" s="176"/>
+      <c r="K48" s="176"/>
       <c r="L48" s="14" t="s">
         <v>230</v>
       </c>
@@ -10838,20 +10850,20 @@
       <c r="A49" s="119" t="s">
         <v>171</v>
       </c>
-      <c r="B49" s="149"/>
+      <c r="B49" s="154"/>
       <c r="C49" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D49" s="161"/>
-      <c r="E49" s="161"/>
-      <c r="F49" s="161"/>
+      <c r="D49" s="157"/>
+      <c r="E49" s="157"/>
+      <c r="F49" s="157"/>
       <c r="G49" s="12" t="s">
         <v>300</v>
       </c>
       <c r="H49" s="106"/>
-      <c r="I49" s="149"/>
-      <c r="J49" s="181"/>
-      <c r="K49" s="181"/>
+      <c r="I49" s="154"/>
+      <c r="J49" s="176"/>
+      <c r="K49" s="176"/>
       <c r="L49" s="14" t="s">
         <v>231</v>
       </c>
@@ -10859,21 +10871,21 @@
       <c r="N49" s="26"/>
     </row>
     <row r="50" spans="1:14" s="3" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A50" s="163"/>
-      <c r="B50" s="149"/>
+      <c r="A50" s="179"/>
+      <c r="B50" s="154"/>
       <c r="C50" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="D50" s="161"/>
-      <c r="E50" s="161"/>
-      <c r="F50" s="161"/>
+      <c r="D50" s="157"/>
+      <c r="E50" s="157"/>
+      <c r="F50" s="157"/>
       <c r="G50" s="12" t="s">
         <v>301</v>
       </c>
       <c r="H50" s="106"/>
-      <c r="I50" s="149"/>
-      <c r="J50" s="181"/>
-      <c r="K50" s="181"/>
+      <c r="I50" s="154"/>
+      <c r="J50" s="176"/>
+      <c r="K50" s="176"/>
       <c r="L50" s="106" t="s">
         <v>188</v>
       </c>
@@ -10881,100 +10893,100 @@
       <c r="N50" s="26"/>
     </row>
     <row r="51" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A51" s="163"/>
-      <c r="B51" s="149"/>
+      <c r="A51" s="179"/>
+      <c r="B51" s="154"/>
       <c r="C51" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="D51" s="161"/>
-      <c r="E51" s="161"/>
-      <c r="F51" s="161"/>
+      <c r="D51" s="157"/>
+      <c r="E51" s="157"/>
+      <c r="F51" s="157"/>
       <c r="G51" s="12" t="s">
         <v>302</v>
       </c>
       <c r="H51" s="106"/>
-      <c r="I51" s="149"/>
-      <c r="J51" s="181"/>
-      <c r="K51" s="181"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="176"/>
+      <c r="K51" s="176"/>
       <c r="L51" s="106"/>
-      <c r="M51" s="171"/>
+      <c r="M51" s="149"/>
       <c r="N51" s="26"/>
     </row>
     <row r="52" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A52" s="144"/>
-      <c r="B52" s="149"/>
+      <c r="B52" s="154"/>
       <c r="C52" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="D52" s="161"/>
-      <c r="E52" s="161"/>
-      <c r="F52" s="161"/>
+      <c r="D52" s="157"/>
+      <c r="E52" s="157"/>
+      <c r="F52" s="157"/>
       <c r="G52" s="12" t="s">
         <v>303</v>
       </c>
       <c r="H52" s="106"/>
-      <c r="I52" s="149"/>
-      <c r="J52" s="181"/>
-      <c r="K52" s="181"/>
+      <c r="I52" s="154"/>
+      <c r="J52" s="176"/>
+      <c r="K52" s="176"/>
       <c r="L52" s="106"/>
-      <c r="M52" s="171"/>
+      <c r="M52" s="149"/>
       <c r="N52" s="26"/>
     </row>
     <row r="53" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A53" s="144"/>
-      <c r="B53" s="149"/>
+      <c r="B53" s="154"/>
       <c r="C53" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="D53" s="161"/>
-      <c r="E53" s="161"/>
-      <c r="F53" s="161"/>
+      <c r="D53" s="157"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="157"/>
       <c r="G53" s="12" t="s">
         <v>304</v>
       </c>
       <c r="H53" s="106"/>
-      <c r="I53" s="149"/>
-      <c r="J53" s="181"/>
-      <c r="K53" s="181"/>
+      <c r="I53" s="154"/>
+      <c r="J53" s="176"/>
+      <c r="K53" s="176"/>
       <c r="L53" s="106"/>
-      <c r="M53" s="171"/>
+      <c r="M53" s="149"/>
       <c r="N53" s="26"/>
     </row>
     <row r="54" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A54" s="144"/>
-      <c r="B54" s="149"/>
+      <c r="B54" s="154"/>
       <c r="C54" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="D54" s="161"/>
-      <c r="E54" s="161"/>
-      <c r="F54" s="161"/>
+      <c r="D54" s="157"/>
+      <c r="E54" s="157"/>
+      <c r="F54" s="157"/>
       <c r="G54" s="12" t="s">
         <v>305</v>
       </c>
       <c r="H54" s="106"/>
-      <c r="I54" s="149"/>
-      <c r="J54" s="181"/>
-      <c r="K54" s="181"/>
+      <c r="I54" s="154"/>
+      <c r="J54" s="176"/>
+      <c r="K54" s="176"/>
       <c r="L54" s="106"/>
-      <c r="M54" s="171"/>
+      <c r="M54" s="149"/>
       <c r="N54" s="26"/>
     </row>
     <row r="55" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1" thickBot="1">
       <c r="A55" s="144"/>
-      <c r="B55" s="149"/>
+      <c r="B55" s="154"/>
       <c r="C55" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="D55" s="161"/>
-      <c r="E55" s="161"/>
-      <c r="F55" s="161"/>
+      <c r="D55" s="157"/>
+      <c r="E55" s="157"/>
+      <c r="F55" s="157"/>
       <c r="H55" s="106"/>
-      <c r="I55" s="149"/>
-      <c r="J55" s="181"/>
-      <c r="K55" s="181"/>
+      <c r="I55" s="154"/>
+      <c r="J55" s="176"/>
+      <c r="K55" s="176"/>
       <c r="L55" s="106"/>
-      <c r="M55" s="171"/>
+      <c r="M55" s="149"/>
       <c r="N55" s="26"/>
     </row>
     <row r="56" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1">
@@ -10989,16 +11001,16 @@
       <c r="G56" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="H56" s="150" t="s">
+      <c r="H56" s="177" t="s">
         <v>91</v>
       </c>
-      <c r="I56" s="174" t="s">
+      <c r="I56" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="J56" s="174" t="s">
+      <c r="J56" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="K56" s="174" t="s">
+      <c r="K56" s="173" t="s">
         <v>8</v>
       </c>
       <c r="L56" s="20" t="s">
@@ -11012,10 +11024,10 @@
       </c>
     </row>
     <row r="57" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A57" s="163" t="s">
+      <c r="A57" s="179" t="s">
         <v>241</v>
       </c>
-      <c r="B57" s="149">
+      <c r="B57" s="154">
         <v>13</v>
       </c>
       <c r="C57" s="12" t="s">
@@ -11027,10 +11039,10 @@
       <c r="G57" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="H57" s="151"/>
-      <c r="I57" s="175"/>
-      <c r="J57" s="175"/>
-      <c r="K57" s="175"/>
+      <c r="H57" s="175"/>
+      <c r="I57" s="178"/>
+      <c r="J57" s="178"/>
+      <c r="K57" s="178"/>
       <c r="L57" s="125" t="s">
         <v>198</v>
       </c>
@@ -11042,8 +11054,8 @@
       </c>
     </row>
     <row r="58" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A58" s="147"/>
-      <c r="B58" s="149"/>
+      <c r="A58" s="151"/>
+      <c r="B58" s="154"/>
       <c r="C58" s="3" t="s">
         <v>308</v>
       </c>
@@ -11056,18 +11068,18 @@
       <c r="H58" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I58" s="175"/>
-      <c r="J58" s="175"/>
-      <c r="K58" s="175"/>
+      <c r="I58" s="178"/>
+      <c r="J58" s="178"/>
+      <c r="K58" s="178"/>
       <c r="L58" s="21" t="s">
         <v>90</v>
       </c>
       <c r="M58" s="106"/>
-      <c r="N58" s="192"/>
+      <c r="N58" s="146"/>
     </row>
     <row r="59" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A59" s="147"/>
-      <c r="B59" s="149"/>
+      <c r="A59" s="151"/>
+      <c r="B59" s="154"/>
       <c r="C59" s="3" t="s">
         <v>306</v>
       </c>
@@ -11080,87 +11092,87 @@
       <c r="H59" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="I59" s="175"/>
-      <c r="J59" s="175"/>
-      <c r="K59" s="175"/>
+      <c r="I59" s="178"/>
+      <c r="J59" s="178"/>
+      <c r="K59" s="178"/>
       <c r="L59" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="M59" s="171"/>
+      <c r="M59" s="149"/>
       <c r="N59" s="26"/>
     </row>
     <row r="60" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A60" s="147"/>
-      <c r="B60" s="149"/>
+      <c r="A60" s="151"/>
+      <c r="B60" s="154"/>
       <c r="C60" s="12" t="s">
         <v>202</v>
       </c>
       <c r="D60" s="79"/>
       <c r="E60" s="80"/>
       <c r="F60" s="81"/>
-      <c r="G60" s="151" t="s">
+      <c r="G60" s="175" t="s">
         <v>311</v>
       </c>
       <c r="H60" s="125"/>
-      <c r="I60" s="175"/>
-      <c r="J60" s="175"/>
-      <c r="K60" s="175"/>
+      <c r="I60" s="178"/>
+      <c r="J60" s="178"/>
+      <c r="K60" s="178"/>
       <c r="L60" s="107" t="s">
         <v>194</v>
       </c>
-      <c r="M60" s="171"/>
+      <c r="M60" s="149"/>
       <c r="N60" s="26"/>
     </row>
     <row r="61" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A61" s="147"/>
-      <c r="B61" s="149"/>
+      <c r="A61" s="151"/>
+      <c r="B61" s="154"/>
       <c r="C61" s="12" t="s">
         <v>203</v>
       </c>
       <c r="D61" s="79"/>
       <c r="E61" s="80"/>
       <c r="F61" s="81"/>
-      <c r="G61" s="151"/>
+      <c r="G61" s="175"/>
       <c r="H61" s="12"/>
-      <c r="I61" s="175"/>
-      <c r="J61" s="175"/>
-      <c r="K61" s="175"/>
+      <c r="I61" s="178"/>
+      <c r="J61" s="178"/>
+      <c r="K61" s="178"/>
       <c r="L61" s="107" t="s">
         <v>199</v>
       </c>
-      <c r="M61" s="171"/>
+      <c r="M61" s="149"/>
       <c r="N61" s="26"/>
     </row>
     <row r="62" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A62" s="147"/>
-      <c r="B62" s="149"/>
+      <c r="A62" s="151"/>
+      <c r="B62" s="154"/>
       <c r="D62" s="79"/>
       <c r="E62" s="80"/>
       <c r="F62" s="81"/>
       <c r="G62" s="126"/>
       <c r="H62" s="15"/>
-      <c r="I62" s="176"/>
-      <c r="J62" s="176"/>
-      <c r="K62" s="176"/>
-      <c r="L62" s="193" t="s">
+      <c r="I62" s="174"/>
+      <c r="J62" s="174"/>
+      <c r="K62" s="174"/>
+      <c r="L62" s="147" t="s">
         <v>200</v>
       </c>
-      <c r="M62" s="172"/>
+      <c r="M62" s="187"/>
       <c r="N62" s="27"/>
     </row>
     <row r="63" spans="1:14" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A63" s="146" t="s">
+      <c r="A63" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="B63" s="148">
+      <c r="B63" s="153">
         <v>14</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="D63" s="152"/>
-      <c r="E63" s="153"/>
-      <c r="F63" s="154"/>
+      <c r="D63" s="165"/>
+      <c r="E63" s="166"/>
+      <c r="F63" s="167"/>
       <c r="G63" s="10" t="s">
         <v>18</v>
       </c>
@@ -11179,20 +11191,20 @@
       <c r="L63" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="M63" s="170" t="s">
+      <c r="M63" s="148" t="s">
         <v>244</v>
       </c>
-      <c r="N63" s="170" t="s">
+      <c r="N63" s="148" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="64" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A64" s="147"/>
-      <c r="B64" s="149"/>
+      <c r="A64" s="151"/>
+      <c r="B64" s="154"/>
       <c r="C64" s="12"/>
-      <c r="D64" s="155"/>
-      <c r="E64" s="156"/>
-      <c r="F64" s="157"/>
+      <c r="D64" s="168"/>
+      <c r="E64" s="169"/>
+      <c r="F64" s="170"/>
       <c r="G64" s="12" t="s">
         <v>101</v>
       </c>
@@ -11203,16 +11215,16 @@
       <c r="L64" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="M64" s="171"/>
-      <c r="N64" s="171"/>
+      <c r="M64" s="149"/>
+      <c r="N64" s="149"/>
     </row>
     <row r="65" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A65" s="147"/>
-      <c r="B65" s="149"/>
+      <c r="A65" s="151"/>
+      <c r="B65" s="154"/>
       <c r="C65" s="12"/>
-      <c r="D65" s="155"/>
-      <c r="E65" s="156"/>
-      <c r="F65" s="157"/>
+      <c r="D65" s="168"/>
+      <c r="E65" s="169"/>
+      <c r="F65" s="170"/>
       <c r="G65" s="12"/>
       <c r="H65" s="66"/>
       <c r="I65" s="56"/>
@@ -11221,16 +11233,16 @@
       <c r="L65" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="M65" s="171"/>
+      <c r="M65" s="149"/>
       <c r="N65" s="26"/>
     </row>
     <row r="66" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A66" s="158"/>
-      <c r="B66" s="159"/>
+      <c r="A66" s="152"/>
+      <c r="B66" s="155"/>
       <c r="C66" s="15"/>
-      <c r="D66" s="164"/>
-      <c r="E66" s="165"/>
-      <c r="F66" s="166"/>
+      <c r="D66" s="182"/>
+      <c r="E66" s="183"/>
+      <c r="F66" s="184"/>
       <c r="G66" s="15"/>
       <c r="H66" s="17" t="s">
         <v>29</v>
@@ -11239,14 +11251,14 @@
       <c r="J66" s="25"/>
       <c r="K66" s="25"/>
       <c r="L66" s="19"/>
-      <c r="M66" s="172"/>
+      <c r="M66" s="187"/>
       <c r="N66" s="27"/>
     </row>
     <row r="67" spans="1:14" s="3" customFormat="1" ht="19.2" customHeight="1">
       <c r="A67" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="B67" s="148">
+      <c r="B67" s="153">
         <v>15</v>
       </c>
       <c r="C67" s="12" t="s">
@@ -11282,7 +11294,7 @@
     </row>
     <row r="68" spans="1:14" s="3" customFormat="1" ht="19.2" customHeight="1">
       <c r="A68" s="59"/>
-      <c r="B68" s="149"/>
+      <c r="B68" s="154"/>
       <c r="C68" s="12"/>
       <c r="D68" s="63"/>
       <c r="E68" s="64"/>
@@ -11304,7 +11316,7 @@
     </row>
     <row r="69" spans="1:14" s="3" customFormat="1" ht="19.2" customHeight="1" thickBot="1">
       <c r="A69" s="59"/>
-      <c r="B69" s="159"/>
+      <c r="B69" s="155"/>
       <c r="C69" s="12"/>
       <c r="D69" s="63"/>
       <c r="E69" s="64"/>
@@ -11322,7 +11334,7 @@
       <c r="A70" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="B70" s="148">
+      <c r="B70" s="153">
         <v>16</v>
       </c>
       <c r="C70" s="10" t="s">
@@ -11358,12 +11370,12 @@
     </row>
     <row r="71" spans="1:14" s="3" customFormat="1" ht="13.8">
       <c r="A71" s="78"/>
-      <c r="B71" s="149"/>
+      <c r="B71" s="154"/>
       <c r="C71" s="12"/>
       <c r="D71" s="79"/>
       <c r="E71" s="80"/>
       <c r="F71" s="81"/>
-      <c r="G71" s="151" t="s">
+      <c r="G71" s="175" t="s">
         <v>217</v>
       </c>
       <c r="H71" s="66" t="s">
@@ -11380,12 +11392,12 @@
     </row>
     <row r="72" spans="1:14" s="3" customFormat="1" ht="13.8">
       <c r="A72" s="78"/>
-      <c r="B72" s="149"/>
+      <c r="B72" s="154"/>
       <c r="C72" s="12"/>
       <c r="D72" s="79"/>
       <c r="E72" s="80"/>
       <c r="F72" s="81"/>
-      <c r="G72" s="151"/>
+      <c r="G72" s="175"/>
       <c r="H72" s="66"/>
       <c r="I72" s="77"/>
       <c r="J72" s="77"/>
@@ -11396,7 +11408,7 @@
     </row>
     <row r="73" spans="1:14" s="3" customFormat="1" ht="21.6" customHeight="1" thickBot="1">
       <c r="A73" s="59"/>
-      <c r="B73" s="159"/>
+      <c r="B73" s="155"/>
       <c r="C73" s="12"/>
       <c r="D73" s="63"/>
       <c r="E73" s="64"/>
@@ -11416,7 +11428,7 @@
       <c r="A74" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="148">
+      <c r="B74" s="153">
         <v>17</v>
       </c>
       <c r="C74" s="10" t="s">
@@ -11452,7 +11464,7 @@
     </row>
     <row r="75" spans="1:14" s="3" customFormat="1" ht="22.2" customHeight="1" thickBot="1">
       <c r="A75" s="59"/>
-      <c r="B75" s="159"/>
+      <c r="B75" s="155"/>
       <c r="C75" s="12"/>
       <c r="D75" s="63"/>
       <c r="E75" s="64"/>
@@ -11471,18 +11483,18 @@
       </c>
     </row>
     <row r="76" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A76" s="146" t="s">
+      <c r="A76" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="B76" s="148">
+      <c r="B76" s="153">
         <v>18</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D76" s="160"/>
-      <c r="E76" s="160"/>
-      <c r="F76" s="160"/>
+      <c r="D76" s="156"/>
+      <c r="E76" s="156"/>
+      <c r="F76" s="156"/>
       <c r="G76" s="10" t="s">
         <v>222</v>
       </c>
@@ -11509,12 +11521,12 @@
       </c>
     </row>
     <row r="77" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A77" s="147"/>
-      <c r="B77" s="149"/>
+      <c r="A77" s="151"/>
+      <c r="B77" s="154"/>
       <c r="C77" s="12"/>
-      <c r="D77" s="161"/>
-      <c r="E77" s="161"/>
-      <c r="F77" s="161"/>
+      <c r="D77" s="157"/>
+      <c r="E77" s="157"/>
+      <c r="F77" s="157"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12" t="s">
         <v>9</v>
@@ -11533,12 +11545,12 @@
       </c>
     </row>
     <row r="78" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A78" s="158"/>
-      <c r="B78" s="159"/>
+      <c r="A78" s="152"/>
+      <c r="B78" s="155"/>
       <c r="C78" s="15"/>
-      <c r="D78" s="162"/>
-      <c r="E78" s="162"/>
-      <c r="F78" s="162"/>
+      <c r="D78" s="158"/>
+      <c r="E78" s="158"/>
+      <c r="F78" s="158"/>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
       <c r="I78" s="25"/>
@@ -11553,18 +11565,18 @@
       </c>
     </row>
     <row r="79" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A79" s="146" t="s">
+      <c r="A79" s="150" t="s">
         <v>247</v>
       </c>
-      <c r="B79" s="148">
+      <c r="B79" s="153">
         <v>19</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="D79" s="160"/>
-      <c r="E79" s="160"/>
-      <c r="F79" s="160"/>
+      <c r="D79" s="156"/>
+      <c r="E79" s="156"/>
+      <c r="F79" s="156"/>
       <c r="G79" s="12" t="s">
         <v>251</v>
       </c>
@@ -11591,12 +11603,12 @@
       </c>
     </row>
     <row r="80" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A80" s="147"/>
-      <c r="B80" s="149"/>
+      <c r="A80" s="151"/>
+      <c r="B80" s="154"/>
       <c r="C80" s="12"/>
-      <c r="D80" s="161"/>
-      <c r="E80" s="161"/>
-      <c r="F80" s="161"/>
+      <c r="D80" s="157"/>
+      <c r="E80" s="157"/>
+      <c r="F80" s="157"/>
       <c r="G80" s="12" t="s">
         <v>252</v>
       </c>
@@ -11617,12 +11629,12 @@
       </c>
     </row>
     <row r="81" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A81" s="158"/>
-      <c r="B81" s="159"/>
+      <c r="A81" s="152"/>
+      <c r="B81" s="155"/>
       <c r="C81" s="15"/>
-      <c r="D81" s="162"/>
-      <c r="E81" s="162"/>
-      <c r="F81" s="162"/>
+      <c r="D81" s="158"/>
+      <c r="E81" s="158"/>
+      <c r="F81" s="158"/>
       <c r="H81" s="15"/>
       <c r="I81" s="123"/>
       <c r="J81" s="123"/>
@@ -11636,18 +11648,18 @@
       </c>
     </row>
     <row r="82" spans="1:14" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A82" s="146" t="s">
+      <c r="A82" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="B82" s="148">
+      <c r="B82" s="153">
         <v>20</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="D82" s="152"/>
-      <c r="E82" s="153"/>
-      <c r="F82" s="154"/>
+      <c r="D82" s="165"/>
+      <c r="E82" s="166"/>
+      <c r="F82" s="167"/>
       <c r="G82" s="10" t="s">
         <v>261</v>
       </c>
@@ -11666,20 +11678,20 @@
       <c r="L82" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="M82" s="170" t="s">
+      <c r="M82" s="148" t="s">
         <v>244</v>
       </c>
-      <c r="N82" s="170" t="s">
+      <c r="N82" s="148" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A83" s="147"/>
-      <c r="B83" s="149"/>
+      <c r="A83" s="151"/>
+      <c r="B83" s="154"/>
       <c r="C83" s="12"/>
-      <c r="D83" s="155"/>
-      <c r="E83" s="156"/>
-      <c r="F83" s="157"/>
+      <c r="D83" s="168"/>
+      <c r="E83" s="169"/>
+      <c r="F83" s="170"/>
       <c r="G83" s="12" t="s">
         <v>262</v>
       </c>
@@ -11690,16 +11702,16 @@
       <c r="L83" s="125" t="s">
         <v>198</v>
       </c>
-      <c r="M83" s="171"/>
-      <c r="N83" s="171"/>
+      <c r="M83" s="149"/>
+      <c r="N83" s="149"/>
     </row>
     <row r="84" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A84" s="147"/>
-      <c r="B84" s="149"/>
+      <c r="A84" s="151"/>
+      <c r="B84" s="154"/>
       <c r="C84" s="12"/>
-      <c r="D84" s="155"/>
-      <c r="E84" s="156"/>
-      <c r="F84" s="157"/>
+      <c r="D84" s="168"/>
+      <c r="E84" s="169"/>
+      <c r="F84" s="170"/>
       <c r="G84" s="12" t="s">
         <v>263</v>
       </c>
@@ -11708,99 +11720,108 @@
       <c r="J84" s="121"/>
       <c r="K84" s="121"/>
       <c r="L84" s="21"/>
-      <c r="M84" s="171"/>
+      <c r="M84" s="149"/>
       <c r="N84" s="26"/>
     </row>
     <row r="85" spans="1:14" ht="16.2" customHeight="1">
-      <c r="A85" s="187" t="s">
+      <c r="A85" s="159" t="s">
         <v>253</v>
       </c>
-      <c r="B85" s="187">
+      <c r="B85" s="159">
         <v>21</v>
       </c>
-      <c r="C85" s="185" t="s">
+      <c r="C85" s="161" t="s">
         <v>254</v>
       </c>
-      <c r="D85" s="189"/>
-      <c r="E85" s="189"/>
-      <c r="F85" s="189"/>
-      <c r="G85" s="185" t="s">
+      <c r="D85" s="163"/>
+      <c r="E85" s="163"/>
+      <c r="F85" s="163"/>
+      <c r="G85" s="161" t="s">
         <v>255</v>
       </c>
-      <c r="H85" s="185" t="s">
+      <c r="H85" s="161" t="s">
         <v>256</v>
       </c>
-      <c r="I85" s="174" t="s">
+      <c r="I85" s="173" t="s">
         <v>76</v>
       </c>
-      <c r="J85" s="174" t="s">
+      <c r="J85" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="K85" s="174" t="s">
+      <c r="K85" s="173" t="s">
         <v>257</v>
       </c>
-      <c r="L85" s="183" t="s">
+      <c r="L85" s="171" t="s">
         <v>258</v>
       </c>
-      <c r="M85" s="185" t="s">
+      <c r="M85" s="161" t="s">
         <v>259</v>
       </c>
-      <c r="N85" s="185" t="s">
+      <c r="N85" s="161" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A86" s="188"/>
-      <c r="B86" s="188"/>
-      <c r="C86" s="186"/>
-      <c r="D86" s="190"/>
-      <c r="E86" s="190"/>
-      <c r="F86" s="190"/>
-      <c r="G86" s="186"/>
-      <c r="H86" s="186"/>
-      <c r="I86" s="176"/>
-      <c r="J86" s="176"/>
-      <c r="K86" s="176"/>
-      <c r="L86" s="184"/>
-      <c r="M86" s="186"/>
-      <c r="N86" s="186"/>
+      <c r="A86" s="160"/>
+      <c r="B86" s="160"/>
+      <c r="C86" s="162"/>
+      <c r="D86" s="164"/>
+      <c r="E86" s="164"/>
+      <c r="F86" s="164"/>
+      <c r="G86" s="162"/>
+      <c r="H86" s="162"/>
+      <c r="I86" s="174"/>
+      <c r="J86" s="174"/>
+      <c r="K86" s="174"/>
+      <c r="L86" s="172"/>
+      <c r="M86" s="162"/>
+      <c r="N86" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="M82:M84"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="D79:F81"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:F86"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="D82:F84"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="D49:F55"/>
-    <mergeCell ref="M51:M55"/>
-    <mergeCell ref="B44:B55"/>
-    <mergeCell ref="I44:I55"/>
-    <mergeCell ref="J44:J55"/>
-    <mergeCell ref="K44:K55"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I62"/>
-    <mergeCell ref="J56:J62"/>
+    <mergeCell ref="D13:F15"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="D76:F78"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="D63:F66"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:F4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:F9"/>
+    <mergeCell ref="M59:M62"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="D35:F37"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="I20:I31"/>
+    <mergeCell ref="J20:J31"/>
+    <mergeCell ref="K20:K31"/>
+    <mergeCell ref="H20:H31"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:F12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="B32:B34"/>
@@ -11817,51 +11838,42 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="I20:I31"/>
-    <mergeCell ref="J20:J31"/>
-    <mergeCell ref="K20:K31"/>
-    <mergeCell ref="H20:H31"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="D49:F55"/>
+    <mergeCell ref="M51:M55"/>
+    <mergeCell ref="B44:B55"/>
+    <mergeCell ref="I44:I55"/>
+    <mergeCell ref="J44:J55"/>
+    <mergeCell ref="K44:K55"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I62"/>
+    <mergeCell ref="J56:J62"/>
     <mergeCell ref="K56:K62"/>
     <mergeCell ref="M63:M66"/>
-    <mergeCell ref="M59:M62"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="D35:F37"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:F4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:F9"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="D76:F78"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="D63:F66"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:F12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:F15"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:F86"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="D82:F84"/>
+    <mergeCell ref="M82:M84"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="D79:F81"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -11915,12 +11927,12 @@
       <c r="B2" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="C2" s="167" t="s">
+      <c r="C2" s="188" t="s">
         <v>317</v>
       </c>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="169"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="190"/>
       <c r="G2" s="33" t="s">
         <v>318</v>
       </c>
@@ -11947,18 +11959,18 @@
       </c>
     </row>
     <row r="3" spans="1:15" s="3" customFormat="1" ht="27.6">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="150" t="s">
         <v>325</v>
       </c>
-      <c r="B3" s="148">
+      <c r="B3" s="153">
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="154"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
       <c r="G3" s="10" t="s">
         <v>327</v>
       </c>
@@ -11977,57 +11989,57 @@
       <c r="L3" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="M3" s="178" t="s">
+      <c r="M3" s="185" t="s">
         <v>330</v>
       </c>
-      <c r="N3" s="170" t="s">
+      <c r="N3" s="148" t="s">
         <v>331</v>
       </c>
       <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A4" s="147"/>
-      <c r="B4" s="149"/>
+      <c r="A4" s="151"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="157"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="170"/>
       <c r="G4" s="12"/>
       <c r="H4" s="13"/>
       <c r="I4" s="143"/>
       <c r="J4" s="143"/>
       <c r="K4" s="143"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="171"/>
+      <c r="M4" s="186"/>
+      <c r="N4" s="149"/>
       <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="21.6" customHeight="1">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="150" t="s">
         <v>332</v>
       </c>
-      <c r="B5" s="148">
+      <c r="B5" s="153">
         <v>2</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="177" t="s">
         <v>333</v>
       </c>
-      <c r="D5" s="152"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="150" t="s">
+      <c r="D5" s="165"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="177" t="s">
         <v>334</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="I5" s="174" t="s">
+      <c r="I5" s="173" t="s">
         <v>336</v>
       </c>
-      <c r="J5" s="174" t="s">
+      <c r="J5" s="173" t="s">
         <v>329</v>
       </c>
-      <c r="K5" s="174" t="s">
+      <c r="K5" s="173" t="s">
         <v>337</v>
       </c>
       <c r="L5" s="11" t="s">
@@ -12041,19 +12053,19 @@
       </c>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A6" s="158"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="177"/>
+      <c r="A6" s="152"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="181"/>
       <c r="H6" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="I6" s="176"/>
-      <c r="J6" s="176"/>
-      <c r="K6" s="176"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="174"/>
+      <c r="K6" s="174"/>
       <c r="L6" s="14" t="s">
         <v>341</v>
       </c>
@@ -12063,18 +12075,18 @@
       </c>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="150" t="s">
         <v>342</v>
       </c>
-      <c r="B7" s="148">
+      <c r="B7" s="153">
         <v>3</v>
       </c>
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="177" t="s">
         <v>343</v>
       </c>
-      <c r="D7" s="152"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="154"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="167"/>
       <c r="G7" s="10" t="s">
         <v>344</v>
       </c>
@@ -12101,12 +12113,12 @@
       </c>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A8" s="147"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="157"/>
+      <c r="A8" s="151"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="170"/>
       <c r="G8" s="12" t="s">
         <v>347</v>
       </c>
@@ -12127,12 +12139,12 @@
       </c>
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A9" s="147"/>
-      <c r="B9" s="149"/>
+      <c r="A9" s="151"/>
+      <c r="B9" s="154"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="157"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="170"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="143"/>
@@ -12147,18 +12159,18 @@
       <c r="N9" s="26"/>
     </row>
     <row r="10" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A10" s="146" t="s">
+      <c r="A10" s="150" t="s">
         <v>352</v>
       </c>
-      <c r="B10" s="148">
+      <c r="B10" s="153">
         <v>4</v>
       </c>
-      <c r="C10" s="150" t="s">
+      <c r="C10" s="177" t="s">
         <v>353</v>
       </c>
-      <c r="D10" s="152"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="154"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="167"/>
       <c r="G10" s="10" t="s">
         <v>354</v>
       </c>
@@ -12185,12 +12197,12 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A11" s="147"/>
-      <c r="B11" s="149"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="157"/>
+      <c r="A11" s="151"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="170"/>
       <c r="G11" s="12" t="s">
         <v>347</v>
       </c>
@@ -12211,12 +12223,12 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A12" s="147"/>
-      <c r="B12" s="149"/>
+      <c r="A12" s="151"/>
+      <c r="B12" s="154"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="157"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="170"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="143"/>
@@ -12231,18 +12243,18 @@
       <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A13" s="146" t="s">
+      <c r="A13" s="150" t="s">
         <v>355</v>
       </c>
-      <c r="B13" s="148">
+      <c r="B13" s="153">
         <v>5</v>
       </c>
-      <c r="C13" s="150" t="s">
+      <c r="C13" s="177" t="s">
         <v>356</v>
       </c>
-      <c r="D13" s="152"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="154"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="167"/>
       <c r="G13" s="10" t="s">
         <v>354</v>
       </c>
@@ -12269,12 +12281,12 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A14" s="147"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="157"/>
+      <c r="A14" s="151"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="170"/>
       <c r="G14" s="12" t="s">
         <v>347</v>
       </c>
@@ -12295,12 +12307,12 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A15" s="147"/>
-      <c r="B15" s="149"/>
+      <c r="A15" s="151"/>
+      <c r="B15" s="154"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="157"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="170"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="143"/>
@@ -12315,18 +12327,18 @@
       <c r="N15" s="26"/>
     </row>
     <row r="16" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A16" s="146" t="s">
+      <c r="A16" s="150" t="s">
         <v>357</v>
       </c>
-      <c r="B16" s="148">
+      <c r="B16" s="153">
         <v>6</v>
       </c>
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="177" t="s">
         <v>358</v>
       </c>
-      <c r="D16" s="152"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="154"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="167"/>
       <c r="G16" s="10" t="s">
         <v>354</v>
       </c>
@@ -12353,12 +12365,12 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A17" s="147"/>
-      <c r="B17" s="149"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="157"/>
+      <c r="A17" s="151"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="170"/>
       <c r="G17" s="12" t="s">
         <v>361</v>
       </c>
@@ -12379,12 +12391,12 @@
       </c>
     </row>
     <row r="18" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A18" s="147"/>
-      <c r="B18" s="149"/>
+      <c r="A18" s="151"/>
+      <c r="B18" s="154"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="157"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="170"/>
       <c r="G18" s="12" t="s">
         <v>364</v>
       </c>
@@ -12399,18 +12411,18 @@
       <c r="N18" s="26"/>
     </row>
     <row r="19" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A19" s="146" t="s">
+      <c r="A19" s="150" t="s">
         <v>366</v>
       </c>
-      <c r="B19" s="148">
+      <c r="B19" s="153">
         <v>7</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="D19" s="152"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="154"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="167"/>
       <c r="G19" s="10" t="s">
         <v>354</v>
       </c>
@@ -12437,12 +12449,12 @@
       </c>
     </row>
     <row r="20" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A20" s="147"/>
-      <c r="B20" s="149"/>
+      <c r="A20" s="151"/>
+      <c r="B20" s="154"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="157"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="170"/>
       <c r="G20" s="12" t="s">
         <v>87</v>
       </c>
@@ -12463,12 +12475,12 @@
       </c>
     </row>
     <row r="21" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A21" s="147"/>
-      <c r="B21" s="149"/>
+      <c r="A21" s="151"/>
+      <c r="B21" s="154"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="157"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="170"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="143"/>
@@ -12481,10 +12493,10 @@
       <c r="N21" s="26"/>
     </row>
     <row r="22" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A22" s="146" t="s">
+      <c r="A22" s="150" t="s">
         <v>369</v>
       </c>
-      <c r="B22" s="148">
+      <c r="B22" s="153">
         <v>8</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -12519,8 +12531,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A23" s="147"/>
-      <c r="B23" s="149"/>
+      <c r="A23" s="151"/>
+      <c r="B23" s="154"/>
       <c r="C23" s="12"/>
       <c r="D23" s="138"/>
       <c r="E23" s="139"/>
@@ -12545,8 +12557,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A24" s="147"/>
-      <c r="B24" s="149"/>
+      <c r="A24" s="151"/>
+      <c r="B24" s="154"/>
       <c r="C24" s="12"/>
       <c r="D24" s="138"/>
       <c r="E24" s="139"/>
@@ -12565,8 +12577,8 @@
       <c r="N24" s="26"/>
     </row>
     <row r="25" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A25" s="147"/>
-      <c r="B25" s="149"/>
+      <c r="A25" s="151"/>
+      <c r="B25" s="154"/>
       <c r="C25" s="12"/>
       <c r="D25" s="138"/>
       <c r="E25" s="139"/>
@@ -12594,16 +12606,16 @@
       <c r="G26" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="H26" s="150" t="s">
+      <c r="H26" s="177" t="s">
         <v>380</v>
       </c>
-      <c r="I26" s="174" t="s">
+      <c r="I26" s="173" t="s">
         <v>336</v>
       </c>
-      <c r="J26" s="174" t="s">
+      <c r="J26" s="173" t="s">
         <v>329</v>
       </c>
-      <c r="K26" s="174" t="s">
+      <c r="K26" s="173" t="s">
         <v>337</v>
       </c>
       <c r="L26" s="103" t="s">
@@ -12617,25 +12629,25 @@
       </c>
     </row>
     <row r="27" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A27" s="163" t="s">
+      <c r="A27" s="179" t="s">
         <v>382</v>
       </c>
-      <c r="B27" s="149">
+      <c r="B27" s="154">
         <v>9</v>
       </c>
       <c r="C27" s="106" t="s">
         <v>383</v>
       </c>
-      <c r="D27" s="155"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="157"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="170"/>
       <c r="G27" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="H27" s="151"/>
-      <c r="I27" s="175"/>
-      <c r="J27" s="175"/>
-      <c r="K27" s="175"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="178"/>
+      <c r="K27" s="178"/>
       <c r="L27" s="104" t="s">
         <v>385</v>
       </c>
@@ -12647,21 +12659,21 @@
       </c>
     </row>
     <row r="28" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A28" s="163"/>
-      <c r="B28" s="149"/>
+      <c r="A28" s="179"/>
+      <c r="B28" s="154"/>
       <c r="C28" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="D28" s="155"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="157"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="170"/>
       <c r="G28" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="H28" s="151"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="175"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="178"/>
+      <c r="K28" s="178"/>
       <c r="L28" s="14" t="s">
         <v>389</v>
       </c>
@@ -12669,160 +12681,160 @@
       <c r="N28" s="106"/>
     </row>
     <row r="29" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A29" s="163"/>
-      <c r="B29" s="149"/>
+      <c r="A29" s="179"/>
+      <c r="B29" s="154"/>
       <c r="C29" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="D29" s="155"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="157"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="170"/>
       <c r="G29" s="125" t="s">
         <v>391</v>
       </c>
-      <c r="H29" s="151"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="178"/>
+      <c r="K29" s="178"/>
       <c r="L29" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="M29" s="171"/>
+      <c r="M29" s="149"/>
       <c r="N29" s="26"/>
     </row>
     <row r="30" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A30" s="163"/>
-      <c r="B30" s="149"/>
+      <c r="A30" s="179"/>
+      <c r="B30" s="154"/>
       <c r="C30" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="D30" s="155"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="157"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="170"/>
       <c r="G30" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="H30" s="151"/>
-      <c r="I30" s="175"/>
-      <c r="J30" s="175"/>
-      <c r="K30" s="175"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="178"/>
+      <c r="K30" s="178"/>
       <c r="L30" s="104" t="s">
         <v>395</v>
       </c>
-      <c r="M30" s="173"/>
+      <c r="M30" s="180"/>
       <c r="N30" s="26"/>
     </row>
     <row r="31" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A31" s="163"/>
-      <c r="B31" s="149"/>
+      <c r="A31" s="179"/>
+      <c r="B31" s="154"/>
       <c r="C31" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="D31" s="155"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="157"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="169"/>
+      <c r="F31" s="170"/>
       <c r="G31" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="H31" s="151"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="175"/>
-      <c r="K31" s="175"/>
+      <c r="H31" s="175"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="178"/>
+      <c r="K31" s="178"/>
       <c r="L31" s="106"/>
       <c r="M31" s="26"/>
       <c r="N31" s="26"/>
     </row>
     <row r="32" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A32" s="163"/>
-      <c r="B32" s="149"/>
+      <c r="A32" s="179"/>
+      <c r="B32" s="154"/>
       <c r="C32" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="D32" s="155"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="157"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="170"/>
       <c r="G32" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="H32" s="151"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="175"/>
-      <c r="K32" s="175"/>
+      <c r="H32" s="175"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="178"/>
+      <c r="K32" s="178"/>
       <c r="L32" s="106"/>
-      <c r="M32" s="171"/>
-      <c r="N32" s="171"/>
+      <c r="M32" s="149"/>
+      <c r="N32" s="149"/>
     </row>
     <row r="33" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A33" s="163"/>
-      <c r="B33" s="149"/>
+      <c r="A33" s="179"/>
+      <c r="B33" s="154"/>
       <c r="C33" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="D33" s="155"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="157"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="170"/>
       <c r="G33" s="125" t="s">
         <v>401</v>
       </c>
-      <c r="H33" s="151"/>
-      <c r="I33" s="175"/>
-      <c r="J33" s="175"/>
-      <c r="K33" s="175"/>
+      <c r="H33" s="175"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="178"/>
+      <c r="K33" s="178"/>
       <c r="L33" s="104"/>
-      <c r="M33" s="171"/>
-      <c r="N33" s="173"/>
+      <c r="M33" s="149"/>
+      <c r="N33" s="180"/>
     </row>
     <row r="34" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A34" s="163"/>
-      <c r="B34" s="149"/>
+      <c r="A34" s="179"/>
+      <c r="B34" s="154"/>
       <c r="C34" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="D34" s="155"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="157"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="169"/>
+      <c r="F34" s="170"/>
       <c r="G34" s="125" t="s">
         <v>403</v>
       </c>
-      <c r="H34" s="151"/>
-      <c r="I34" s="175"/>
-      <c r="J34" s="175"/>
-      <c r="K34" s="175"/>
+      <c r="H34" s="175"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="178"/>
+      <c r="K34" s="178"/>
       <c r="L34" s="104"/>
-      <c r="M34" s="171"/>
+      <c r="M34" s="149"/>
       <c r="N34" s="26"/>
     </row>
     <row r="35" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A35" s="163"/>
-      <c r="B35" s="149"/>
+      <c r="A35" s="179"/>
+      <c r="B35" s="154"/>
       <c r="C35" s="126" t="s">
         <v>404</v>
       </c>
-      <c r="D35" s="164"/>
-      <c r="E35" s="165"/>
-      <c r="F35" s="166"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="184"/>
       <c r="G35" s="127"/>
-      <c r="H35" s="177"/>
-      <c r="I35" s="176"/>
-      <c r="J35" s="176"/>
-      <c r="K35" s="176"/>
+      <c r="H35" s="181"/>
+      <c r="I35" s="174"/>
+      <c r="J35" s="174"/>
+      <c r="K35" s="174"/>
       <c r="L35" s="105"/>
-      <c r="M35" s="180"/>
+      <c r="M35" s="193"/>
       <c r="N35" s="27"/>
     </row>
     <row r="36" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A36" s="146" t="s">
+      <c r="A36" s="150" t="s">
         <v>405</v>
       </c>
-      <c r="B36" s="148">
+      <c r="B36" s="153">
         <v>10</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="D36" s="152"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="154"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="166"/>
+      <c r="F36" s="167"/>
       <c r="G36" s="10" t="s">
         <v>354</v>
       </c>
@@ -12849,12 +12861,12 @@
       </c>
     </row>
     <row r="37" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A37" s="147"/>
-      <c r="B37" s="149"/>
+      <c r="A37" s="151"/>
+      <c r="B37" s="154"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="155"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="157"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="169"/>
+      <c r="F37" s="170"/>
       <c r="G37" s="12" t="s">
         <v>408</v>
       </c>
@@ -12871,12 +12883,12 @@
       </c>
     </row>
     <row r="38" spans="1:14" s="3" customFormat="1" ht="27.6" customHeight="1" thickBot="1">
-      <c r="A38" s="147"/>
-      <c r="B38" s="149"/>
+      <c r="A38" s="151"/>
+      <c r="B38" s="154"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="157"/>
+      <c r="D38" s="168"/>
+      <c r="E38" s="169"/>
+      <c r="F38" s="170"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="143"/>
@@ -12887,18 +12899,18 @@
       <c r="N38" s="27"/>
     </row>
     <row r="39" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A39" s="146" t="s">
+      <c r="A39" s="150" t="s">
         <v>409</v>
       </c>
-      <c r="B39" s="148">
+      <c r="B39" s="153">
         <v>11</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="D39" s="152"/>
-      <c r="E39" s="153"/>
-      <c r="F39" s="154"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="167"/>
       <c r="G39" s="10" t="s">
         <v>354</v>
       </c>
@@ -12925,12 +12937,12 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A40" s="147"/>
-      <c r="B40" s="149"/>
+      <c r="A40" s="151"/>
+      <c r="B40" s="154"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="155"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="157"/>
+      <c r="D40" s="168"/>
+      <c r="E40" s="169"/>
+      <c r="F40" s="170"/>
       <c r="G40" s="3" t="s">
         <v>412</v>
       </c>
@@ -12951,12 +12963,12 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A41" s="147"/>
-      <c r="B41" s="149"/>
+      <c r="A41" s="151"/>
+      <c r="B41" s="154"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="155"/>
-      <c r="E41" s="156"/>
-      <c r="F41" s="157"/>
+      <c r="D41" s="168"/>
+      <c r="E41" s="169"/>
+      <c r="F41" s="170"/>
       <c r="G41" s="12" t="s">
         <v>414</v>
       </c>
@@ -12971,10 +12983,10 @@
       <c r="N41" s="27"/>
     </row>
     <row r="42" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A42" s="146" t="s">
+      <c r="A42" s="150" t="s">
         <v>415</v>
       </c>
-      <c r="B42" s="148">
+      <c r="B42" s="153">
         <v>12</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -13009,8 +13021,8 @@
       </c>
     </row>
     <row r="43" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A43" s="147"/>
-      <c r="B43" s="149"/>
+      <c r="A43" s="151"/>
+      <c r="B43" s="154"/>
       <c r="C43" s="12"/>
       <c r="D43" s="94"/>
       <c r="E43" s="95"/>
@@ -13035,8 +13047,8 @@
       </c>
     </row>
     <row r="44" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1">
-      <c r="A44" s="158"/>
-      <c r="B44" s="159"/>
+      <c r="A44" s="152"/>
+      <c r="B44" s="155"/>
       <c r="C44" s="15"/>
       <c r="D44" s="97"/>
       <c r="E44" s="98"/>
@@ -13053,10 +13065,10 @@
       <c r="N44" s="27"/>
     </row>
     <row r="45" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A45" s="146" t="s">
+      <c r="A45" s="150" t="s">
         <v>420</v>
       </c>
-      <c r="B45" s="148">
+      <c r="B45" s="153">
         <v>13</v>
       </c>
       <c r="C45" s="10" t="s">
@@ -13091,8 +13103,8 @@
       </c>
     </row>
     <row r="46" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A46" s="147"/>
-      <c r="B46" s="149"/>
+      <c r="A46" s="151"/>
+      <c r="B46" s="154"/>
       <c r="C46" s="12"/>
       <c r="D46" s="94"/>
       <c r="E46" s="95"/>
@@ -13117,8 +13129,8 @@
       </c>
     </row>
     <row r="47" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1">
-      <c r="A47" s="158"/>
-      <c r="B47" s="159"/>
+      <c r="A47" s="152"/>
+      <c r="B47" s="155"/>
       <c r="C47" s="15"/>
       <c r="D47" s="97"/>
       <c r="E47" s="98"/>
@@ -13138,7 +13150,7 @@
     </row>
     <row r="48" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1">
       <c r="A48" s="131"/>
-      <c r="B48" s="148">
+      <c r="B48" s="153">
         <v>14</v>
       </c>
       <c r="C48" s="10" t="s">
@@ -13150,16 +13162,16 @@
       <c r="G48" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="H48" s="150" t="s">
+      <c r="H48" s="177" t="s">
         <v>424</v>
       </c>
-      <c r="I48" s="148" t="s">
+      <c r="I48" s="153" t="s">
         <v>336</v>
       </c>
-      <c r="J48" s="148" t="s">
+      <c r="J48" s="153" t="s">
         <v>329</v>
       </c>
-      <c r="K48" s="148" t="s">
+      <c r="K48" s="153" t="s">
         <v>337</v>
       </c>
       <c r="L48" s="20" t="s">
@@ -13174,7 +13186,7 @@
     </row>
     <row r="49" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A49" s="132"/>
-      <c r="B49" s="149"/>
+      <c r="B49" s="154"/>
       <c r="C49" s="12" t="s">
         <v>383</v>
       </c>
@@ -13184,10 +13196,10 @@
       <c r="G49" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="H49" s="151"/>
-      <c r="I49" s="149"/>
-      <c r="J49" s="181"/>
-      <c r="K49" s="181"/>
+      <c r="H49" s="175"/>
+      <c r="I49" s="154"/>
+      <c r="J49" s="176"/>
+      <c r="K49" s="176"/>
       <c r="L49" s="21" t="s">
         <v>426</v>
       </c>
@@ -13200,7 +13212,7 @@
     </row>
     <row r="50" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A50" s="132"/>
-      <c r="B50" s="149"/>
+      <c r="B50" s="154"/>
       <c r="C50" s="12" t="s">
         <v>427</v>
       </c>
@@ -13213,9 +13225,9 @@
       <c r="H50" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I50" s="149"/>
-      <c r="J50" s="181"/>
-      <c r="K50" s="181"/>
+      <c r="I50" s="154"/>
+      <c r="J50" s="176"/>
+      <c r="K50" s="176"/>
       <c r="L50" s="21" t="s">
         <v>429</v>
       </c>
@@ -13224,7 +13236,7 @@
     </row>
     <row r="51" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A51" s="132"/>
-      <c r="B51" s="149"/>
+      <c r="B51" s="154"/>
       <c r="C51" s="12" t="s">
         <v>430</v>
       </c>
@@ -13237,9 +13249,9 @@
       <c r="H51" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="I51" s="149"/>
-      <c r="J51" s="181"/>
-      <c r="K51" s="181"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="176"/>
+      <c r="K51" s="176"/>
       <c r="L51" s="14" t="s">
         <v>433</v>
       </c>
@@ -13248,7 +13260,7 @@
     </row>
     <row r="52" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A52" s="132"/>
-      <c r="B52" s="149"/>
+      <c r="B52" s="154"/>
       <c r="C52" s="12" t="s">
         <v>434</v>
       </c>
@@ -13259,9 +13271,9 @@
         <v>435</v>
       </c>
       <c r="H52" s="106"/>
-      <c r="I52" s="149"/>
-      <c r="J52" s="181"/>
-      <c r="K52" s="181"/>
+      <c r="I52" s="154"/>
+      <c r="J52" s="176"/>
+      <c r="K52" s="176"/>
       <c r="L52" s="14" t="s">
         <v>436</v>
       </c>
@@ -13272,20 +13284,20 @@
       <c r="A53" s="144" t="s">
         <v>437</v>
       </c>
-      <c r="B53" s="149"/>
+      <c r="B53" s="154"/>
       <c r="C53" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="D53" s="161"/>
-      <c r="E53" s="161"/>
-      <c r="F53" s="161"/>
+      <c r="D53" s="157"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="157"/>
       <c r="G53" s="12" t="s">
         <v>439</v>
       </c>
       <c r="H53" s="106"/>
-      <c r="I53" s="149"/>
-      <c r="J53" s="181"/>
-      <c r="K53" s="181"/>
+      <c r="I53" s="154"/>
+      <c r="J53" s="176"/>
+      <c r="K53" s="176"/>
       <c r="L53" s="14" t="s">
         <v>440</v>
       </c>
@@ -13293,21 +13305,21 @@
       <c r="N53" s="26"/>
     </row>
     <row r="54" spans="1:14" s="3" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A54" s="163"/>
-      <c r="B54" s="149"/>
+      <c r="A54" s="179"/>
+      <c r="B54" s="154"/>
       <c r="C54" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="D54" s="161"/>
-      <c r="E54" s="161"/>
-      <c r="F54" s="161"/>
+      <c r="D54" s="157"/>
+      <c r="E54" s="157"/>
+      <c r="F54" s="157"/>
       <c r="G54" s="12" t="s">
         <v>442</v>
       </c>
       <c r="H54" s="106"/>
-      <c r="I54" s="149"/>
-      <c r="J54" s="181"/>
-      <c r="K54" s="181"/>
+      <c r="I54" s="154"/>
+      <c r="J54" s="176"/>
+      <c r="K54" s="176"/>
       <c r="L54" s="106" t="s">
         <v>443</v>
       </c>
@@ -13315,41 +13327,41 @@
       <c r="N54" s="26"/>
     </row>
     <row r="55" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A55" s="163"/>
-      <c r="B55" s="149"/>
+      <c r="A55" s="179"/>
+      <c r="B55" s="154"/>
       <c r="C55" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="D55" s="161"/>
-      <c r="E55" s="161"/>
-      <c r="F55" s="161"/>
+      <c r="D55" s="157"/>
+      <c r="E55" s="157"/>
+      <c r="F55" s="157"/>
       <c r="G55" s="12" t="s">
         <v>445</v>
       </c>
       <c r="H55" s="106"/>
-      <c r="I55" s="149"/>
-      <c r="J55" s="181"/>
-      <c r="K55" s="181"/>
+      <c r="I55" s="154"/>
+      <c r="J55" s="176"/>
+      <c r="K55" s="176"/>
       <c r="L55" s="106"/>
-      <c r="M55" s="171"/>
+      <c r="M55" s="149"/>
       <c r="N55" s="26"/>
     </row>
     <row r="56" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1">
       <c r="A56" s="133"/>
-      <c r="B56" s="159"/>
+      <c r="B56" s="155"/>
       <c r="C56" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="D56" s="162"/>
-      <c r="E56" s="162"/>
-      <c r="F56" s="162"/>
+      <c r="D56" s="158"/>
+      <c r="E56" s="158"/>
+      <c r="F56" s="158"/>
       <c r="G56" s="128"/>
       <c r="H56" s="128"/>
-      <c r="I56" s="159"/>
-      <c r="J56" s="182"/>
-      <c r="K56" s="182"/>
+      <c r="I56" s="155"/>
+      <c r="J56" s="194"/>
+      <c r="K56" s="194"/>
       <c r="L56" s="128"/>
-      <c r="M56" s="180"/>
+      <c r="M56" s="193"/>
       <c r="N56" s="27"/>
     </row>
     <row r="57" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1">
@@ -13364,16 +13376,16 @@
       <c r="G57" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="H57" s="150" t="s">
+      <c r="H57" s="177" t="s">
         <v>424</v>
       </c>
-      <c r="I57" s="174" t="s">
+      <c r="I57" s="173" t="s">
         <v>336</v>
       </c>
-      <c r="J57" s="174" t="s">
+      <c r="J57" s="173" t="s">
         <v>329</v>
       </c>
-      <c r="K57" s="174" t="s">
+      <c r="K57" s="173" t="s">
         <v>337</v>
       </c>
       <c r="L57" s="102" t="s">
@@ -13387,10 +13399,10 @@
       </c>
     </row>
     <row r="58" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A58" s="163" t="s">
+      <c r="A58" s="179" t="s">
         <v>448</v>
       </c>
-      <c r="B58" s="149">
+      <c r="B58" s="154">
         <v>15</v>
       </c>
       <c r="C58" s="12" t="s">
@@ -13402,10 +13414,10 @@
       <c r="G58" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="H58" s="151"/>
-      <c r="I58" s="175"/>
-      <c r="J58" s="175"/>
-      <c r="K58" s="175"/>
+      <c r="H58" s="175"/>
+      <c r="I58" s="178"/>
+      <c r="J58" s="178"/>
+      <c r="K58" s="178"/>
       <c r="L58" s="3" t="s">
         <v>450</v>
       </c>
@@ -13417,8 +13429,8 @@
       </c>
     </row>
     <row r="59" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A59" s="147"/>
-      <c r="B59" s="149"/>
+      <c r="A59" s="151"/>
+      <c r="B59" s="154"/>
       <c r="C59" s="12" t="s">
         <v>451</v>
       </c>
@@ -13431,16 +13443,16 @@
       <c r="H59" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I59" s="175"/>
-      <c r="J59" s="175"/>
-      <c r="K59" s="175"/>
+      <c r="I59" s="178"/>
+      <c r="J59" s="178"/>
+      <c r="K59" s="178"/>
       <c r="L59" s="21" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="60" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A60" s="147"/>
-      <c r="B60" s="149"/>
+      <c r="A60" s="151"/>
+      <c r="B60" s="154"/>
       <c r="C60" s="3" t="s">
         <v>453</v>
       </c>
@@ -13453,101 +13465,101 @@
       <c r="H60" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="I60" s="175"/>
-      <c r="J60" s="175"/>
-      <c r="K60" s="175"/>
+      <c r="I60" s="178"/>
+      <c r="J60" s="178"/>
+      <c r="K60" s="178"/>
       <c r="L60" s="102" t="s">
         <v>456</v>
       </c>
-      <c r="M60" s="171"/>
+      <c r="M60" s="149"/>
       <c r="N60" s="26"/>
     </row>
     <row r="61" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A61" s="147"/>
-      <c r="B61" s="149"/>
+      <c r="A61" s="151"/>
+      <c r="B61" s="154"/>
       <c r="C61" s="12" t="s">
         <v>457</v>
       </c>
       <c r="D61" s="138"/>
       <c r="E61" s="139"/>
       <c r="F61" s="140"/>
-      <c r="G61" s="151" t="s">
+      <c r="G61" s="175" t="s">
         <v>458</v>
       </c>
-      <c r="I61" s="175"/>
-      <c r="J61" s="175"/>
-      <c r="K61" s="175"/>
+      <c r="I61" s="178"/>
+      <c r="J61" s="178"/>
+      <c r="K61" s="178"/>
       <c r="L61" s="107" t="s">
         <v>459</v>
       </c>
-      <c r="M61" s="171"/>
+      <c r="M61" s="149"/>
       <c r="N61" s="26"/>
     </row>
     <row r="62" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A62" s="147"/>
-      <c r="B62" s="149"/>
+      <c r="A62" s="151"/>
+      <c r="B62" s="154"/>
       <c r="C62" s="12" t="s">
         <v>460</v>
       </c>
       <c r="D62" s="138"/>
       <c r="E62" s="139"/>
       <c r="F62" s="140"/>
-      <c r="G62" s="151"/>
+      <c r="G62" s="175"/>
       <c r="H62" s="12"/>
-      <c r="I62" s="175"/>
-      <c r="J62" s="175"/>
-      <c r="K62" s="175"/>
+      <c r="I62" s="178"/>
+      <c r="J62" s="178"/>
+      <c r="K62" s="178"/>
       <c r="L62" s="107" t="s">
         <v>461</v>
       </c>
-      <c r="M62" s="171"/>
+      <c r="M62" s="149"/>
       <c r="N62" s="26"/>
     </row>
     <row r="63" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A63" s="147"/>
-      <c r="B63" s="149"/>
+      <c r="A63" s="151"/>
+      <c r="B63" s="154"/>
       <c r="C63" s="12"/>
       <c r="D63" s="138"/>
       <c r="E63" s="139"/>
       <c r="F63" s="140"/>
       <c r="H63" s="12"/>
-      <c r="I63" s="175"/>
-      <c r="J63" s="175"/>
-      <c r="K63" s="175"/>
+      <c r="I63" s="178"/>
+      <c r="J63" s="178"/>
+      <c r="K63" s="178"/>
       <c r="L63" s="107" t="s">
         <v>462</v>
       </c>
-      <c r="M63" s="171"/>
+      <c r="M63" s="149"/>
       <c r="N63" s="26"/>
     </row>
     <row r="64" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A64" s="147"/>
-      <c r="B64" s="149"/>
+      <c r="A64" s="151"/>
+      <c r="B64" s="154"/>
       <c r="C64" s="12"/>
       <c r="D64" s="138"/>
       <c r="E64" s="139"/>
       <c r="F64" s="140"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
-      <c r="I64" s="176"/>
-      <c r="J64" s="176"/>
-      <c r="K64" s="176"/>
-      <c r="M64" s="173"/>
+      <c r="I64" s="174"/>
+      <c r="J64" s="174"/>
+      <c r="K64" s="174"/>
+      <c r="M64" s="180"/>
       <c r="N64" s="26"/>
     </row>
     <row r="65" spans="1:14" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A65" s="146" t="s">
+      <c r="A65" s="150" t="s">
         <v>463</v>
       </c>
-      <c r="B65" s="148">
+      <c r="B65" s="153">
         <v>16</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="D65" s="152"/>
-      <c r="E65" s="153"/>
-      <c r="F65" s="154"/>
+      <c r="D65" s="165"/>
+      <c r="E65" s="166"/>
+      <c r="F65" s="167"/>
       <c r="G65" s="10" t="s">
         <v>465</v>
       </c>
@@ -13566,20 +13578,20 @@
       <c r="L65" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="M65" s="170" t="s">
+      <c r="M65" s="148" t="s">
         <v>468</v>
       </c>
-      <c r="N65" s="170" t="s">
+      <c r="N65" s="148" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="66" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A66" s="147"/>
-      <c r="B66" s="149"/>
+      <c r="A66" s="151"/>
+      <c r="B66" s="154"/>
       <c r="C66" s="12"/>
-      <c r="D66" s="155"/>
-      <c r="E66" s="156"/>
-      <c r="F66" s="157"/>
+      <c r="D66" s="168"/>
+      <c r="E66" s="169"/>
+      <c r="F66" s="170"/>
       <c r="G66" s="12" t="s">
         <v>470</v>
       </c>
@@ -13590,16 +13602,16 @@
       <c r="L66" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="M66" s="171"/>
-      <c r="N66" s="171"/>
+      <c r="M66" s="149"/>
+      <c r="N66" s="149"/>
     </row>
     <row r="67" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A67" s="147"/>
-      <c r="B67" s="149"/>
+      <c r="A67" s="151"/>
+      <c r="B67" s="154"/>
       <c r="C67" s="12"/>
-      <c r="D67" s="155"/>
-      <c r="E67" s="156"/>
-      <c r="F67" s="157"/>
+      <c r="D67" s="168"/>
+      <c r="E67" s="169"/>
+      <c r="F67" s="170"/>
       <c r="G67" s="12"/>
       <c r="H67" s="66"/>
       <c r="I67" s="143"/>
@@ -13608,16 +13620,16 @@
       <c r="L67" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="M67" s="171"/>
+      <c r="M67" s="149"/>
       <c r="N67" s="26"/>
     </row>
     <row r="68" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A68" s="158"/>
-      <c r="B68" s="159"/>
+      <c r="A68" s="152"/>
+      <c r="B68" s="155"/>
       <c r="C68" s="15"/>
-      <c r="D68" s="164"/>
-      <c r="E68" s="165"/>
-      <c r="F68" s="166"/>
+      <c r="D68" s="182"/>
+      <c r="E68" s="183"/>
+      <c r="F68" s="184"/>
       <c r="G68" s="15"/>
       <c r="H68" s="17" t="s">
         <v>351</v>
@@ -13626,14 +13638,14 @@
       <c r="J68" s="130"/>
       <c r="K68" s="130"/>
       <c r="L68" s="19"/>
-      <c r="M68" s="172"/>
+      <c r="M68" s="187"/>
       <c r="N68" s="27"/>
     </row>
     <row r="69" spans="1:14" s="3" customFormat="1" ht="19.2" customHeight="1">
       <c r="A69" s="132" t="s">
         <v>473</v>
       </c>
-      <c r="B69" s="148">
+      <c r="B69" s="153">
         <v>17</v>
       </c>
       <c r="C69" s="12" t="s">
@@ -13669,7 +13681,7 @@
     </row>
     <row r="70" spans="1:14" s="3" customFormat="1" ht="19.2" customHeight="1">
       <c r="A70" s="132"/>
-      <c r="B70" s="149"/>
+      <c r="B70" s="154"/>
       <c r="C70" s="12"/>
       <c r="D70" s="138"/>
       <c r="E70" s="139"/>
@@ -13691,7 +13703,7 @@
     </row>
     <row r="71" spans="1:14" s="3" customFormat="1" ht="19.2" customHeight="1" thickBot="1">
       <c r="A71" s="132"/>
-      <c r="B71" s="159"/>
+      <c r="B71" s="155"/>
       <c r="C71" s="12"/>
       <c r="D71" s="138"/>
       <c r="E71" s="139"/>
@@ -13709,7 +13721,7 @@
       <c r="A72" s="131" t="s">
         <v>477</v>
       </c>
-      <c r="B72" s="148">
+      <c r="B72" s="153">
         <v>18</v>
       </c>
       <c r="C72" s="10" t="s">
@@ -13745,12 +13757,12 @@
     </row>
     <row r="73" spans="1:14" s="3" customFormat="1" ht="13.8">
       <c r="A73" s="132"/>
-      <c r="B73" s="149"/>
+      <c r="B73" s="154"/>
       <c r="C73" s="12"/>
       <c r="D73" s="138"/>
       <c r="E73" s="139"/>
       <c r="F73" s="140"/>
-      <c r="G73" s="151" t="s">
+      <c r="G73" s="175" t="s">
         <v>480</v>
       </c>
       <c r="H73" s="66" t="s">
@@ -13767,12 +13779,12 @@
     </row>
     <row r="74" spans="1:14" s="3" customFormat="1" ht="13.8">
       <c r="A74" s="132"/>
-      <c r="B74" s="149"/>
+      <c r="B74" s="154"/>
       <c r="C74" s="12"/>
       <c r="D74" s="138"/>
       <c r="E74" s="139"/>
       <c r="F74" s="140"/>
-      <c r="G74" s="151"/>
+      <c r="G74" s="175"/>
       <c r="H74" s="66"/>
       <c r="I74" s="143"/>
       <c r="J74" s="143"/>
@@ -13783,7 +13795,7 @@
     </row>
     <row r="75" spans="1:14" s="3" customFormat="1" ht="21.6" customHeight="1" thickBot="1">
       <c r="A75" s="132"/>
-      <c r="B75" s="159"/>
+      <c r="B75" s="155"/>
       <c r="C75" s="12"/>
       <c r="D75" s="138"/>
       <c r="E75" s="139"/>
@@ -13803,7 +13815,7 @@
       <c r="A76" s="131" t="s">
         <v>483</v>
       </c>
-      <c r="B76" s="148">
+      <c r="B76" s="153">
         <v>19</v>
       </c>
       <c r="C76" s="10" t="s">
@@ -13839,7 +13851,7 @@
     </row>
     <row r="77" spans="1:14" s="3" customFormat="1" ht="22.2" customHeight="1" thickBot="1">
       <c r="A77" s="132"/>
-      <c r="B77" s="159"/>
+      <c r="B77" s="155"/>
       <c r="C77" s="12"/>
       <c r="D77" s="138"/>
       <c r="E77" s="139"/>
@@ -13858,18 +13870,18 @@
       </c>
     </row>
     <row r="78" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A78" s="146" t="s">
+      <c r="A78" s="150" t="s">
         <v>485</v>
       </c>
-      <c r="B78" s="148">
+      <c r="B78" s="153">
         <v>20</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="D78" s="160"/>
-      <c r="E78" s="160"/>
-      <c r="F78" s="160"/>
+      <c r="D78" s="156"/>
+      <c r="E78" s="156"/>
+      <c r="F78" s="156"/>
       <c r="G78" s="10" t="s">
         <v>487</v>
       </c>
@@ -13896,12 +13908,12 @@
       </c>
     </row>
     <row r="79" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A79" s="147"/>
-      <c r="B79" s="149"/>
+      <c r="A79" s="151"/>
+      <c r="B79" s="154"/>
       <c r="C79" s="12"/>
-      <c r="D79" s="161"/>
-      <c r="E79" s="161"/>
-      <c r="F79" s="161"/>
+      <c r="D79" s="157"/>
+      <c r="E79" s="157"/>
+      <c r="F79" s="157"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12" t="s">
         <v>340</v>
@@ -13920,12 +13932,12 @@
       </c>
     </row>
     <row r="80" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A80" s="158"/>
-      <c r="B80" s="159"/>
+      <c r="A80" s="152"/>
+      <c r="B80" s="155"/>
       <c r="C80" s="15"/>
-      <c r="D80" s="162"/>
-      <c r="E80" s="162"/>
-      <c r="F80" s="162"/>
+      <c r="D80" s="158"/>
+      <c r="E80" s="158"/>
+      <c r="F80" s="158"/>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
       <c r="I80" s="130"/>
@@ -13940,18 +13952,18 @@
       </c>
     </row>
     <row r="81" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A81" s="146" t="s">
+      <c r="A81" s="150" t="s">
         <v>489</v>
       </c>
-      <c r="B81" s="148">
+      <c r="B81" s="153">
         <v>21</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="D81" s="160"/>
-      <c r="E81" s="160"/>
-      <c r="F81" s="160"/>
+      <c r="D81" s="156"/>
+      <c r="E81" s="156"/>
+      <c r="F81" s="156"/>
       <c r="G81" s="12" t="s">
         <v>491</v>
       </c>
@@ -13978,12 +13990,12 @@
       </c>
     </row>
     <row r="82" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A82" s="147"/>
-      <c r="B82" s="149"/>
+      <c r="A82" s="151"/>
+      <c r="B82" s="154"/>
       <c r="C82" s="12"/>
-      <c r="D82" s="161"/>
-      <c r="E82" s="161"/>
-      <c r="F82" s="161"/>
+      <c r="D82" s="157"/>
+      <c r="E82" s="157"/>
+      <c r="F82" s="157"/>
       <c r="G82" s="12" t="s">
         <v>492</v>
       </c>
@@ -14004,12 +14016,12 @@
       </c>
     </row>
     <row r="83" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A83" s="158"/>
-      <c r="B83" s="159"/>
+      <c r="A83" s="152"/>
+      <c r="B83" s="155"/>
       <c r="C83" s="15"/>
-      <c r="D83" s="162"/>
-      <c r="E83" s="162"/>
-      <c r="F83" s="162"/>
+      <c r="D83" s="158"/>
+      <c r="E83" s="158"/>
+      <c r="F83" s="158"/>
       <c r="H83" s="15"/>
       <c r="I83" s="130"/>
       <c r="J83" s="130"/>
@@ -14023,18 +14035,18 @@
       </c>
     </row>
     <row r="84" spans="1:14" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A84" s="146" t="s">
+      <c r="A84" s="150" t="s">
         <v>463</v>
       </c>
-      <c r="B84" s="148">
+      <c r="B84" s="153">
         <v>22</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="D84" s="152"/>
-      <c r="E84" s="153"/>
-      <c r="F84" s="154"/>
+      <c r="D84" s="165"/>
+      <c r="E84" s="166"/>
+      <c r="F84" s="167"/>
       <c r="G84" s="10" t="s">
         <v>494</v>
       </c>
@@ -14053,20 +14065,20 @@
       <c r="L84" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="M84" s="170" t="s">
+      <c r="M84" s="148" t="s">
         <v>468</v>
       </c>
-      <c r="N84" s="170" t="s">
+      <c r="N84" s="148" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="85" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A85" s="147"/>
-      <c r="B85" s="149"/>
+      <c r="A85" s="151"/>
+      <c r="B85" s="154"/>
       <c r="C85" s="12"/>
-      <c r="D85" s="155"/>
-      <c r="E85" s="156"/>
-      <c r="F85" s="157"/>
+      <c r="D85" s="168"/>
+      <c r="E85" s="169"/>
+      <c r="F85" s="170"/>
       <c r="G85" s="12" t="s">
         <v>496</v>
       </c>
@@ -14077,16 +14089,16 @@
       <c r="L85" s="125" t="s">
         <v>450</v>
       </c>
-      <c r="M85" s="171"/>
-      <c r="N85" s="171"/>
+      <c r="M85" s="149"/>
+      <c r="N85" s="149"/>
     </row>
     <row r="86" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A86" s="147"/>
-      <c r="B86" s="149"/>
+      <c r="A86" s="151"/>
+      <c r="B86" s="154"/>
       <c r="C86" s="12"/>
-      <c r="D86" s="155"/>
-      <c r="E86" s="156"/>
-      <c r="F86" s="157"/>
+      <c r="D86" s="168"/>
+      <c r="E86" s="169"/>
+      <c r="F86" s="170"/>
       <c r="G86" s="12" t="s">
         <v>497</v>
       </c>
@@ -14095,91 +14107,121 @@
       <c r="J86" s="143"/>
       <c r="K86" s="143"/>
       <c r="L86" s="21"/>
-      <c r="M86" s="171"/>
+      <c r="M86" s="149"/>
       <c r="N86" s="26"/>
     </row>
     <row r="87" spans="1:14" ht="16.2" customHeight="1">
-      <c r="A87" s="187" t="s">
+      <c r="A87" s="159" t="s">
         <v>498</v>
       </c>
-      <c r="B87" s="187">
+      <c r="B87" s="159">
         <v>23</v>
       </c>
-      <c r="C87" s="185" t="s">
+      <c r="C87" s="161" t="s">
         <v>498</v>
       </c>
-      <c r="D87" s="194"/>
-      <c r="E87" s="194"/>
-      <c r="F87" s="194"/>
-      <c r="G87" s="185" t="s">
+      <c r="D87" s="191"/>
+      <c r="E87" s="191"/>
+      <c r="F87" s="191"/>
+      <c r="G87" s="161" t="s">
         <v>499</v>
       </c>
-      <c r="H87" s="185" t="s">
+      <c r="H87" s="161" t="s">
         <v>466</v>
       </c>
-      <c r="I87" s="174" t="s">
+      <c r="I87" s="173" t="s">
         <v>336</v>
       </c>
-      <c r="J87" s="174" t="s">
+      <c r="J87" s="173" t="s">
         <v>329</v>
       </c>
-      <c r="K87" s="174" t="s">
+      <c r="K87" s="173" t="s">
         <v>337</v>
       </c>
-      <c r="L87" s="183" t="s">
+      <c r="L87" s="171" t="s">
         <v>500</v>
       </c>
-      <c r="M87" s="185" t="s">
+      <c r="M87" s="161" t="s">
         <v>501</v>
       </c>
-      <c r="N87" s="185" t="s">
+      <c r="N87" s="161" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A88" s="188"/>
-      <c r="B88" s="188"/>
-      <c r="C88" s="186"/>
-      <c r="D88" s="195"/>
-      <c r="E88" s="195"/>
-      <c r="F88" s="195"/>
-      <c r="G88" s="186"/>
-      <c r="H88" s="186"/>
-      <c r="I88" s="176"/>
-      <c r="J88" s="176"/>
-      <c r="K88" s="176"/>
-      <c r="L88" s="184"/>
-      <c r="M88" s="186"/>
-      <c r="N88" s="186"/>
+      <c r="A88" s="160"/>
+      <c r="B88" s="160"/>
+      <c r="C88" s="162"/>
+      <c r="D88" s="192"/>
+      <c r="E88" s="192"/>
+      <c r="F88" s="192"/>
+      <c r="G88" s="162"/>
+      <c r="H88" s="162"/>
+      <c r="I88" s="174"/>
+      <c r="J88" s="174"/>
+      <c r="K88" s="174"/>
+      <c r="L88" s="172"/>
+      <c r="M88" s="162"/>
+      <c r="N88" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="M84:M86"/>
-    <mergeCell ref="N84:N85"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="D81:F83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="D84:F86"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="D78:F80"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:F4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:F9"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:F18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="D19:F21"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:F12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:F15"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="D36:F38"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="H26:H35"/>
+    <mergeCell ref="I26:I35"/>
+    <mergeCell ref="J26:J35"/>
+    <mergeCell ref="K26:K35"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="D27:F35"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="D39:F41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M32:M33"/>
     <mergeCell ref="A65:A68"/>
     <mergeCell ref="B65:B68"/>
     <mergeCell ref="D65:F68"/>
@@ -14202,62 +14244,32 @@
     <mergeCell ref="J48:J56"/>
     <mergeCell ref="K48:K56"/>
     <mergeCell ref="D53:F56"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="D39:F41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="D36:F38"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="H26:H35"/>
-    <mergeCell ref="I26:I35"/>
-    <mergeCell ref="J26:J35"/>
-    <mergeCell ref="K26:K35"/>
-    <mergeCell ref="A27:A35"/>
-    <mergeCell ref="B27:B35"/>
-    <mergeCell ref="D27:F35"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:F18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="D19:F21"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:F12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:F15"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:F9"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:F4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="D81:F83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="D84:F86"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="D78:F80"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="M84:M86"/>
+    <mergeCell ref="N84:N85"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -14286,16 +14298,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="148">
+      <c r="B1" s="153">
         <v>2</v>
       </c>
-      <c r="C1" s="150" t="s">
+      <c r="C1" s="177" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="150" t="s">
+      <c r="D1" s="177" t="s">
         <v>139</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -14303,22 +14315,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A2" s="158"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
       <c r="E2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="148">
+      <c r="B3" s="153">
         <v>3</v>
       </c>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="177" t="s">
         <v>125</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -14329,9 +14341,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A4" s="147"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="151"/>
+      <c r="A4" s="151"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="12" t="s">
         <v>28</v>
       </c>
@@ -14340,13 +14352,13 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="150" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="148">
+      <c r="B5" s="153">
         <v>4</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="177" t="s">
         <v>124</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -14357,9 +14369,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A6" s="147"/>
-      <c r="B6" s="149"/>
-      <c r="C6" s="151"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="12" t="s">
         <v>121</v>
       </c>
@@ -14368,13 +14380,13 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="148">
+      <c r="B7" s="153">
         <v>5</v>
       </c>
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="177" t="s">
         <v>123</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -14385,9 +14397,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A8" s="147"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="151"/>
+      <c r="A8" s="151"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="12" t="s">
         <v>28</v>
       </c>
@@ -14396,13 +14408,13 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="146" t="s">
+      <c r="A9" s="150" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="148">
+      <c r="B9" s="153">
         <v>6</v>
       </c>
-      <c r="C9" s="150" t="s">
+      <c r="C9" s="177" t="s">
         <v>122</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -14413,9 +14425,9 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="147"/>
-      <c r="B10" s="149"/>
-      <c r="C10" s="151"/>
+      <c r="A10" s="151"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="175"/>
       <c r="D10" s="12" t="s">
         <v>79</v>
       </c>
@@ -14424,8 +14436,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A11" s="147"/>
-      <c r="B11" s="149"/>
+      <c r="A11" s="151"/>
+      <c r="B11" s="154"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12" t="s">
         <v>140</v>
@@ -14433,10 +14445,10 @@
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="146" t="s">
+      <c r="A12" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="148">
+      <c r="B12" s="153">
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -14450,8 +14462,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A13" s="147"/>
-      <c r="B13" s="149"/>
+      <c r="A13" s="151"/>
+      <c r="B13" s="154"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12" t="s">
         <v>87</v>
@@ -14461,10 +14473,10 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="146" t="s">
+      <c r="A14" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="148">
+      <c r="B14" s="153">
         <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -14478,8 +14490,8 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="147"/>
-      <c r="B15" s="149"/>
+      <c r="A15" s="151"/>
+      <c r="B15" s="154"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12" t="s">
         <v>130</v>
@@ -14489,8 +14501,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A16" s="147"/>
-      <c r="B16" s="149"/>
+      <c r="A16" s="151"/>
+      <c r="B16" s="154"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12" t="s">
         <v>234</v>
@@ -14498,10 +14510,10 @@
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="191" t="s">
+      <c r="A17" s="195" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="148">
+      <c r="B17" s="153">
         <v>9</v>
       </c>
       <c r="C17" s="84" t="s">
@@ -14510,103 +14522,103 @@
       <c r="D17" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E17" s="150" t="s">
+      <c r="E17" s="177" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="163"/>
-      <c r="B18" s="149"/>
+      <c r="A18" s="179"/>
+      <c r="B18" s="154"/>
       <c r="C18" s="12" t="s">
         <v>131</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="151"/>
+      <c r="E18" s="175"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="163"/>
-      <c r="B19" s="149"/>
+      <c r="A19" s="179"/>
+      <c r="B19" s="154"/>
       <c r="C19" s="12" t="s">
         <v>77</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="151"/>
+      <c r="E19" s="175"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="163"/>
-      <c r="B20" s="149"/>
+      <c r="A20" s="179"/>
+      <c r="B20" s="154"/>
       <c r="C20" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="151"/>
+      <c r="E20" s="175"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="163"/>
-      <c r="B21" s="149"/>
+      <c r="A21" s="179"/>
+      <c r="B21" s="154"/>
       <c r="C21" s="12" t="s">
         <v>134</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="151"/>
+      <c r="E21" s="175"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="163"/>
-      <c r="B22" s="149"/>
+      <c r="A22" s="179"/>
+      <c r="B22" s="154"/>
       <c r="C22" s="12" t="s">
         <v>135</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="E22" s="151"/>
+      <c r="E22" s="175"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="163"/>
-      <c r="B23" s="149"/>
+      <c r="A23" s="179"/>
+      <c r="B23" s="154"/>
       <c r="C23" s="12" t="s">
         <v>148</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="E23" s="151"/>
+      <c r="E23" s="175"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="163"/>
-      <c r="B24" s="149"/>
+      <c r="A24" s="179"/>
+      <c r="B24" s="154"/>
       <c r="C24" s="3" t="s">
         <v>149</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E24" s="151"/>
+      <c r="E24" s="175"/>
     </row>
     <row r="25" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A25" s="163"/>
-      <c r="B25" s="149"/>
+      <c r="A25" s="179"/>
+      <c r="B25" s="154"/>
       <c r="C25" s="3" t="s">
         <v>150</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E25" s="151"/>
+      <c r="E25" s="175"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="146" t="s">
+      <c r="A26" s="150" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="148">
+      <c r="B26" s="153">
         <v>10</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -14620,8 +14632,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A27" s="147"/>
-      <c r="B27" s="149"/>
+      <c r="A27" s="151"/>
+      <c r="B27" s="154"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12" t="s">
         <v>158</v>
@@ -14631,10 +14643,10 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="148">
+      <c r="B28" s="153">
         <v>11</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -14648,8 +14660,8 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="147"/>
-      <c r="B29" s="149"/>
+      <c r="A29" s="151"/>
+      <c r="B29" s="154"/>
       <c r="C29" s="12"/>
       <c r="D29" s="3" t="s">
         <v>167</v>
@@ -14659,8 +14671,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A30" s="147"/>
-      <c r="B30" s="149"/>
+      <c r="A30" s="151"/>
+      <c r="B30" s="154"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12" t="s">
         <v>235</v>
@@ -14668,10 +14680,10 @@
       <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="146" t="s">
+      <c r="A31" s="150" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="148">
+      <c r="B31" s="153">
         <v>12</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -14685,8 +14697,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A32" s="147"/>
-      <c r="B32" s="149"/>
+      <c r="A32" s="151"/>
+      <c r="B32" s="154"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12" t="s">
         <v>163</v>
@@ -14696,10 +14708,10 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="146" t="s">
+      <c r="A33" s="150" t="s">
         <v>165</v>
       </c>
-      <c r="B33" s="148">
+      <c r="B33" s="153">
         <v>13</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -14713,8 +14725,8 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="147"/>
-      <c r="B34" s="149"/>
+      <c r="A34" s="151"/>
+      <c r="B34" s="154"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12" t="s">
         <v>170</v>
@@ -14724,8 +14736,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A35" s="158"/>
-      <c r="B35" s="159"/>
+      <c r="A35" s="152"/>
+      <c r="B35" s="155"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15" t="s">
         <v>236</v>
@@ -14734,7 +14746,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="86"/>
-      <c r="B36" s="148">
+      <c r="B36" s="153">
         <v>14</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -14743,24 +14755,24 @@
       <c r="D36" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E36" s="151" t="s">
+      <c r="E36" s="175" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="86"/>
-      <c r="B37" s="149"/>
+      <c r="B37" s="154"/>
       <c r="C37" s="12" t="s">
         <v>195</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="E37" s="151"/>
+      <c r="E37" s="175"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="86"/>
-      <c r="B38" s="149"/>
+      <c r="B38" s="154"/>
       <c r="C38" s="12" t="s">
         <v>175</v>
       </c>
@@ -14773,7 +14785,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="86"/>
-      <c r="B39" s="149"/>
+      <c r="B39" s="154"/>
       <c r="C39" s="12" t="s">
         <v>177</v>
       </c>
@@ -14788,7 +14800,7 @@
       <c r="A40" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="B40" s="149"/>
+      <c r="B40" s="154"/>
       <c r="C40" s="12" t="s">
         <v>178</v>
       </c>
@@ -14799,7 +14811,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="86"/>
-      <c r="B41" s="149"/>
+      <c r="B41" s="154"/>
       <c r="C41" s="12" t="s">
         <v>179</v>
       </c>
@@ -14810,7 +14822,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="86"/>
-      <c r="B42" s="149"/>
+      <c r="B42" s="154"/>
       <c r="C42" s="12" t="s">
         <v>180</v>
       </c>
@@ -14831,10 +14843,10 @@
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="146" t="s">
+      <c r="A44" s="150" t="s">
         <v>189</v>
       </c>
-      <c r="B44" s="148">
+      <c r="B44" s="153">
         <v>15</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -14843,24 +14855,24 @@
       <c r="D44" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E44" s="150" t="s">
+      <c r="E44" s="177" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="147"/>
-      <c r="B45" s="149"/>
+      <c r="A45" s="151"/>
+      <c r="B45" s="154"/>
       <c r="C45" s="12" t="s">
         <v>196</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="151"/>
+      <c r="E45" s="175"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="147"/>
-      <c r="B46" s="149"/>
+      <c r="A46" s="151"/>
+      <c r="B46" s="154"/>
       <c r="C46" s="3" t="s">
         <v>201</v>
       </c>
@@ -14872,8 +14884,8 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="147"/>
-      <c r="B47" s="149"/>
+      <c r="A47" s="151"/>
+      <c r="B47" s="154"/>
       <c r="C47" s="12" t="s">
         <v>202</v>
       </c>
@@ -14885,8 +14897,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A48" s="147"/>
-      <c r="B48" s="149"/>
+      <c r="A48" s="151"/>
+      <c r="B48" s="154"/>
       <c r="C48" s="12" t="s">
         <v>203</v>
       </c>
@@ -14899,7 +14911,7 @@
       <c r="A49" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="148">
+      <c r="B49" s="153">
         <v>17</v>
       </c>
       <c r="C49" s="10" t="s">
@@ -14914,7 +14926,7 @@
     </row>
     <row r="50" spans="1:5" ht="16.8" thickBot="1">
       <c r="A50" s="87"/>
-      <c r="B50" s="159"/>
+      <c r="B50" s="155"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15" t="s">
         <v>100</v>
@@ -14927,7 +14939,7 @@
       <c r="A51" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="148">
+      <c r="B51" s="153">
         <v>18</v>
       </c>
       <c r="C51" s="10" t="s">
@@ -14942,7 +14954,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="86"/>
-      <c r="B52" s="149"/>
+      <c r="B52" s="154"/>
       <c r="C52" s="12"/>
       <c r="D52" s="89" t="s">
         <v>217</v>
@@ -14953,7 +14965,7 @@
     </row>
     <row r="53" spans="1:5" ht="16.8" thickBot="1">
       <c r="A53" s="86"/>
-      <c r="B53" s="159"/>
+      <c r="B53" s="155"/>
       <c r="C53" s="12"/>
       <c r="D53" s="15" t="s">
         <v>218</v>
@@ -14964,7 +14976,7 @@
       <c r="A54" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="148">
+      <c r="B54" s="153">
         <v>19</v>
       </c>
       <c r="C54" s="10" t="s">
@@ -14979,7 +14991,7 @@
     </row>
     <row r="55" spans="1:5" ht="16.8" thickBot="1">
       <c r="A55" s="86"/>
-      <c r="B55" s="159"/>
+      <c r="B55" s="155"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="66" t="s">
@@ -14987,10 +14999,10 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="146" t="s">
+      <c r="A56" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="148">
+      <c r="B56" s="153">
         <v>20</v>
       </c>
       <c r="C56" s="10" t="s">
@@ -15004,8 +15016,8 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="147"/>
-      <c r="B57" s="149"/>
+      <c r="A57" s="151"/>
+      <c r="B57" s="154"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12" t="s">
         <v>220</v>
@@ -15015,8 +15027,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A58" s="158"/>
-      <c r="B58" s="159"/>
+      <c r="A58" s="152"/>
+      <c r="B58" s="155"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15" t="s">
         <v>221</v>
@@ -15046,6 +15058,40 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="E17:E25"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -15053,40 +15099,6 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E17:E25"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B53"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QC工程表_H1_PQC_20210323.xlsx
+++ b/QC工程表_H1_PQC_20210323.xlsx
@@ -2763,7 +2763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -3195,38 +3195,146 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3234,107 +3342,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3575,13 +3599,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>360461</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>110853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>502895</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>119270</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3618,13 +3642,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>359467</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>110853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>501901</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>119270</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3661,13 +3685,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>367087</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>95613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>509521</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3704,13 +3728,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>358141</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>110853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>501901</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3747,13 +3771,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>39424</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>239977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>499904</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>169867</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3763,7 +3787,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2348284" y="12828217"/>
+          <a:off x="2348284" y="13178737"/>
           <a:ext cx="1268200" cy="455670"/>
           <a:chOff x="1677725" y="1399427"/>
           <a:chExt cx="1303331" cy="364987"/>
@@ -3915,13 +3939,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>47706</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>151475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>508186</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3931,7 +3955,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2356566" y="9402155"/>
+          <a:off x="2356566" y="9752675"/>
           <a:ext cx="1268200" cy="480985"/>
           <a:chOff x="1677725" y="1380373"/>
           <a:chExt cx="1303331" cy="407672"/>
@@ -4082,13 +4106,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>353835</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>110853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>496269</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>119270</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4132,13 +4156,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>234552</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>119270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>240184</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>110853</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4182,13 +4206,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>240184</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>119270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>247804</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>95613</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4232,13 +4256,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>247804</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>255424</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>164193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4282,13 +4306,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>235856</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>183850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>245462</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>143253</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4332,13 +4356,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>235545</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>169867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>237180</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>63227</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4382,13 +4406,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>353834</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>92766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>496268</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>159026</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4425,13 +4449,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>360426</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>72580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>500237</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4468,13 +4492,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>68579</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>53341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238538</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4559,13 +4583,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238538</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>53341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>360426</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>59150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4609,13 +4633,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>224944</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>239832</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>110853</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4658,13 +4682,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>143253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>498580</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>22575</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4674,7 +4698,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2346960" y="11641833"/>
+          <a:off x="2346960" y="11992353"/>
           <a:ext cx="1268200" cy="435582"/>
           <a:chOff x="1677725" y="1399428"/>
           <a:chExt cx="1303331" cy="357146"/>
@@ -4825,13 +4849,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>235856</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>22575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>237180</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>239977</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4875,13 +4899,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>350189</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>63227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>501901</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4918,13 +4942,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>235545</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>235711</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>72753</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4968,13 +4992,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>72753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>494281</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5011,13 +5035,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>346379</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>129903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>498091</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5054,13 +5078,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>231735</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>235711</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>129903</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5104,13 +5128,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>237450</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>169545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>237450</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>127998</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5152,13 +5176,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>360461</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>110853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>502895</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>119270</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5195,13 +5219,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>110853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>496270</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5238,13 +5262,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>501239</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5287,7 +5311,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>236142</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>121123</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5330,13 +5354,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>241178</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>110853</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5379,13 +5403,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>241178</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5427,13 +5451,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>264038</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>110853</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5475,13 +5499,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>264038</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>133713</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5523,13 +5547,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>239832</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>243000</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>72580</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5573,13 +5597,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>232895</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>243000</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5623,13 +5647,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>374707</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>164193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>517141</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5666,13 +5690,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>245462</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>255424</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>173957</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5716,13 +5740,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>47044</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>170354</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>499904</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5732,7 +5756,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2355904" y="16804814"/>
+          <a:off x="2355904" y="17155334"/>
           <a:ext cx="1260580" cy="370666"/>
           <a:chOff x="1677725" y="1382020"/>
           <a:chExt cx="1295500" cy="396308"/>
@@ -5884,13 +5908,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>237180</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>2227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>240030</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5934,13 +5958,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>350189</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>110853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>501901</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5977,13 +6001,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>239521</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>245070</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>127998</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6026,13 +6050,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>235545</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>237180</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>186635</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6076,13 +6100,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9574,13 +9598,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7:C8"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -9620,12 +9644,12 @@
       <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="190"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="177"/>
       <c r="G2" s="33" t="s">
         <v>13</v>
       </c>
@@ -9652,18 +9676,18 @@
       </c>
     </row>
     <row r="3" spans="1:15" s="3" customFormat="1" ht="27.6">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="153">
+      <c r="B3" s="165">
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="165"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="167"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="158"/>
       <c r="G3" s="10" t="s">
         <v>136</v>
       </c>
@@ -9682,2198 +9706,2232 @@
       <c r="L3" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="M3" s="185" t="s">
+      <c r="M3" s="183" t="s">
         <v>138</v>
       </c>
-      <c r="N3" s="148" t="s">
+      <c r="N3" s="187" t="s">
         <v>137</v>
       </c>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A4" s="151"/>
-      <c r="B4" s="154"/>
+    <row r="4" spans="1:15" s="3" customFormat="1" ht="13.8">
+      <c r="A4" s="163"/>
+      <c r="B4" s="166"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="170"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="161"/>
       <c r="G4" s="12"/>
       <c r="H4" s="13"/>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
       <c r="K4" s="24"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="186"/>
-      <c r="N4" s="149"/>
+      <c r="M4" s="184"/>
+      <c r="N4" s="178"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="1:15" s="3" customFormat="1" ht="21.6" customHeight="1">
-      <c r="A5" s="150" t="s">
+    <row r="5" spans="1:15" s="3" customFormat="1" ht="13.8">
+      <c r="A5" s="149"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="155"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="125"/>
+    </row>
+    <row r="6" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
+      <c r="A6" s="149"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="148"/>
+      <c r="O6" s="125"/>
+    </row>
+    <row r="7" spans="1:15" s="3" customFormat="1" ht="21.6" customHeight="1">
+      <c r="A7" s="162" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="153">
+      <c r="B7" s="165">
         <v>2</v>
       </c>
-      <c r="C5" s="177" t="s">
+      <c r="C7" s="186" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="165"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="177" t="s">
+      <c r="D7" s="156"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="186" t="s">
         <v>139</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="173" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="173" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="173" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="M5" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="3" customFormat="1" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A6" s="152"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="184"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="174"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="174"/>
-      <c r="L6" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A7" s="150" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="153">
-        <v>3</v>
-      </c>
-      <c r="C7" s="177" t="s">
-        <v>265</v>
-      </c>
-      <c r="D7" s="165"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="10" t="s">
-        <v>503</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>8</v>
+      <c r="I7" s="181" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="181" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="181" t="s">
+        <v>44</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="M7" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" s="29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A8" s="151"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="12" t="s">
-        <v>267</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="M7" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="3" customFormat="1" ht="21.6" customHeight="1" thickBot="1">
+      <c r="A8" s="164"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="189"/>
       <c r="H8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="182"/>
+      <c r="K8" s="182"/>
       <c r="L8" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="3" customFormat="1" ht="13.8">
+      <c r="A9" s="162" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="165">
+        <v>3</v>
+      </c>
+      <c r="C9" s="186" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M9" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="3" customFormat="1" ht="13.8">
+      <c r="A10" s="163"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="47" t="s">
+      <c r="M10" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="N8" s="26" t="s">
+      <c r="N10" s="26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A9" s="151"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="12" t="s">
+    <row r="11" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
+      <c r="A11" s="163"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="14" t="s">
+      <c r="H11" s="12"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M11" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="26"/>
-    </row>
-    <row r="10" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A10" s="150" t="s">
+      <c r="N11" s="26"/>
+    </row>
+    <row r="12" spans="1:15" s="3" customFormat="1" ht="13.8">
+      <c r="A12" s="162" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="153">
+      <c r="B12" s="165">
         <v>4</v>
       </c>
-      <c r="C10" s="177" t="s">
+      <c r="C12" s="186" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="165"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="10" t="s">
+      <c r="D12" s="156"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="67" t="s">
+      <c r="I12" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="67" t="s">
+      <c r="J12" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="67" t="s">
+      <c r="K12" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L12" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="M10" s="46" t="s">
+      <c r="M12" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="29" t="s">
+      <c r="N12" s="29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A11" s="151"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="12" t="s">
+    <row r="13" spans="1:15" s="3" customFormat="1" ht="13.8">
+      <c r="A13" s="163"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="180"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="14" t="s">
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="M11" s="47" t="s">
+      <c r="M13" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="N11" s="26" t="s">
+      <c r="N13" s="26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A12" s="151"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="12" t="s">
+    <row r="14" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
+      <c r="A14" s="163"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="M12" s="47"/>
-      <c r="N12" s="26"/>
-    </row>
-    <row r="13" spans="1:15" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A13" s="150" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="153">
-        <v>5</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="165"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="N13" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A14" s="151"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>86</v>
-      </c>
+      <c r="H14" s="12"/>
       <c r="I14" s="74"/>
       <c r="J14" s="74"/>
       <c r="K14" s="74"/>
       <c r="L14" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="47"/>
+      <c r="N14" s="26"/>
+    </row>
+    <row r="15" spans="1:15" s="3" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A15" s="162" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="165">
+        <v>5</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="156"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="3" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A16" s="163"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="47" t="s">
+      <c r="M16" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="N14" s="26" t="s">
+      <c r="N16" s="26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A15" s="151"/>
-      <c r="B15" s="154"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="47"/>
-      <c r="N15" s="26"/>
-    </row>
-    <row r="16" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A16" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="153">
-        <v>6</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="84" t="s">
-        <v>141</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="L16" s="84" t="s">
-        <v>142</v>
-      </c>
-      <c r="M16" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="N16" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A17" s="151"/>
-      <c r="B17" s="154"/>
+    <row r="17" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
+      <c r="A17" s="163"/>
+      <c r="B17" s="166"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>86</v>
-      </c>
+      <c r="D17" s="159"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="74"/>
       <c r="J17" s="74"/>
       <c r="K17" s="74"/>
-      <c r="L17" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="M17" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="N17" s="26" t="s">
-        <v>72</v>
-      </c>
+      <c r="L17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="47"/>
+      <c r="N17" s="26"/>
     </row>
     <row r="18" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A18" s="151"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M18" s="48"/>
-      <c r="N18" s="26"/>
-    </row>
-    <row r="19" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A19" s="151"/>
-      <c r="B19" s="154"/>
+      <c r="A18" s="162" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="165">
+        <v>6</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="M18" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="N18" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="3" customFormat="1" ht="13.8">
+      <c r="A19" s="163"/>
+      <c r="B19" s="166"/>
       <c r="C19" s="12"/>
       <c r="D19" s="71"/>
       <c r="E19" s="72"/>
       <c r="F19" s="73"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="G19" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="I19" s="74"/>
       <c r="J19" s="74"/>
       <c r="K19" s="74"/>
       <c r="L19" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M19" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="3" customFormat="1" ht="13.8">
+      <c r="A20" s="163"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" s="48"/>
+      <c r="N20" s="26"/>
+    </row>
+    <row r="21" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
+      <c r="A21" s="163"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="M19" s="48"/>
-      <c r="N19" s="26"/>
-    </row>
-    <row r="20" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A20" s="111"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="10" t="s">
+      <c r="M21" s="48"/>
+      <c r="N21" s="26"/>
+    </row>
+    <row r="22" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A22" s="111"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D20" s="113"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="10" t="s">
+      <c r="D22" s="113"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H20" s="177" t="s">
+      <c r="H22" s="186" t="s">
         <v>156</v>
       </c>
-      <c r="I20" s="173" t="s">
+      <c r="I22" s="181" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="173" t="s">
+      <c r="J22" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="173" t="s">
+      <c r="K22" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="103" t="s">
+      <c r="L22" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="M20" s="108" t="s">
+      <c r="M22" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="N20" s="29" t="s">
+      <c r="N22" s="29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A21" s="179" t="s">
+    <row r="23" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A23" s="171" t="s">
         <v>268</v>
       </c>
-      <c r="B21" s="154">
+      <c r="B23" s="166">
         <v>7</v>
       </c>
-      <c r="C21" s="106" t="s">
+      <c r="C23" s="106" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="168"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="3" t="s">
+      <c r="D23" s="159"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="H21" s="175"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="178"/>
-      <c r="L21" s="104" t="s">
+      <c r="H23" s="180"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="185"/>
+      <c r="K23" s="185"/>
+      <c r="L23" s="104" t="s">
         <v>226</v>
       </c>
-      <c r="M21" s="109" t="s">
+      <c r="M23" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="N21" s="42" t="s">
+      <c r="N23" s="42" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A22" s="179"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="12" t="s">
+    <row r="24" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A24" s="171"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="D22" s="168"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="3" t="s">
+      <c r="D24" s="159"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="H22" s="175"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="178"/>
-      <c r="L22" s="14" t="s">
+      <c r="H24" s="180"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="185"/>
+      <c r="K24" s="185"/>
+      <c r="L24" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-    </row>
-    <row r="23" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A23" s="179"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="D23" s="168"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="H23" s="175"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-    </row>
-    <row r="24" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A24" s="179"/>
-      <c r="B24" s="154"/>
-      <c r="C24" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="D24" s="168"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="125" t="s">
-        <v>282</v>
-      </c>
-      <c r="H24" s="175"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="178"/>
-      <c r="L24" s="14"/>
       <c r="M24" s="106"/>
       <c r="N24" s="106"/>
     </row>
     <row r="25" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A25" s="179"/>
-      <c r="B25" s="154"/>
+      <c r="A25" s="171"/>
+      <c r="B25" s="166"/>
       <c r="C25" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="D25" s="168"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="125" t="s">
-        <v>283</v>
-      </c>
-      <c r="H25" s="175"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178"/>
+        <v>279</v>
+      </c>
+      <c r="D25" s="159"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="H25" s="180"/>
+      <c r="I25" s="185"/>
+      <c r="J25" s="185"/>
+      <c r="K25" s="185"/>
       <c r="L25" s="14"/>
       <c r="M25" s="106"/>
       <c r="N25" s="106"/>
     </row>
     <row r="26" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A26" s="179"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="3" t="s">
+      <c r="A26" s="171"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" s="159"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="125" t="s">
+        <v>282</v>
+      </c>
+      <c r="H26" s="180"/>
+      <c r="I26" s="185"/>
+      <c r="J26" s="185"/>
+      <c r="K26" s="185"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+    </row>
+    <row r="27" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A27" s="171"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D27" s="159"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="125" t="s">
+        <v>283</v>
+      </c>
+      <c r="H27" s="180"/>
+      <c r="I27" s="185"/>
+      <c r="J27" s="185"/>
+      <c r="K27" s="185"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="106"/>
+    </row>
+    <row r="28" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A28" s="171"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D26" s="168"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="12" t="s">
+      <c r="D28" s="159"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="161"/>
+      <c r="G28" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="175"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="178"/>
-      <c r="L26" s="14" t="s">
+      <c r="H28" s="180"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="185"/>
+      <c r="L28" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="M26" s="149"/>
-      <c r="N26" s="26"/>
-    </row>
-    <row r="27" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A27" s="179"/>
-      <c r="B27" s="154"/>
-      <c r="C27" s="3" t="s">
+      <c r="M28" s="178"/>
+      <c r="N28" s="26"/>
+    </row>
+    <row r="29" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A29" s="171"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D27" s="168"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="12" t="s">
+      <c r="D29" s="159"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="H27" s="175"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="178"/>
-      <c r="K27" s="178"/>
-      <c r="L27" s="104" t="s">
+      <c r="H29" s="180"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="185"/>
+      <c r="K29" s="185"/>
+      <c r="L29" s="104" t="s">
         <v>227</v>
       </c>
-      <c r="M27" s="180"/>
-      <c r="N27" s="26"/>
-    </row>
-    <row r="28" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A28" s="179"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="12" t="s">
+      <c r="M29" s="188"/>
+      <c r="N29" s="26"/>
+    </row>
+    <row r="30" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1">
+      <c r="A30" s="171"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D28" s="168"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="125" t="s">
+      <c r="D30" s="159"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="125" t="s">
         <v>296</v>
       </c>
-      <c r="H28" s="175"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="178"/>
-      <c r="K28" s="178"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-    </row>
-    <row r="29" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A29" s="179"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="12" t="s">
+      <c r="H30" s="180"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="185"/>
+      <c r="K30" s="185"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A31" s="171"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D29" s="168"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="12" t="s">
+      <c r="D31" s="159"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="H29" s="175"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="178"/>
-      <c r="K29" s="178"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="149"/>
-      <c r="N29" s="149"/>
-    </row>
-    <row r="30" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A30" s="179"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="12" t="s">
+      <c r="H31" s="180"/>
+      <c r="I31" s="185"/>
+      <c r="J31" s="185"/>
+      <c r="K31" s="185"/>
+      <c r="L31" s="106"/>
+      <c r="M31" s="178"/>
+      <c r="N31" s="178"/>
+    </row>
+    <row r="32" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A32" s="171"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D30" s="168"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="12" t="s">
+      <c r="D32" s="159"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="H30" s="175"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="178"/>
-      <c r="K30" s="178"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="149"/>
-      <c r="N30" s="180"/>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A31" s="179"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="12" t="s">
+      <c r="H32" s="180"/>
+      <c r="I32" s="185"/>
+      <c r="J32" s="185"/>
+      <c r="K32" s="185"/>
+      <c r="L32" s="104"/>
+      <c r="M32" s="178"/>
+      <c r="N32" s="188"/>
+    </row>
+    <row r="33" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1" thickBot="1">
+      <c r="A33" s="171"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D31" s="168"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="170"/>
-      <c r="H31" s="175"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="178"/>
-      <c r="K31" s="178"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="142"/>
-      <c r="N31" s="26"/>
-    </row>
-    <row r="32" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A32" s="150" t="s">
+      <c r="D33" s="159"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="161"/>
+      <c r="H33" s="180"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="185"/>
+      <c r="K33" s="185"/>
+      <c r="L33" s="104"/>
+      <c r="M33" s="142"/>
+      <c r="N33" s="26"/>
+    </row>
+    <row r="34" spans="1:14" s="3" customFormat="1" ht="13.8">
+      <c r="A34" s="162" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="153">
+      <c r="B34" s="165">
         <v>8</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="165"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="10" t="s">
+      <c r="D34" s="156"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I32" s="23" t="s">
+      <c r="I34" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J32" s="23" t="s">
+      <c r="J34" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K32" s="23" t="s">
+      <c r="K34" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="11" t="s">
+      <c r="L34" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="M32" s="46" t="s">
+      <c r="M34" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="N32" s="29" t="s">
+      <c r="N34" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A33" s="151"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="12" t="s">
+    <row r="35" spans="1:14" s="3" customFormat="1" ht="13.8">
+      <c r="A35" s="163"/>
+      <c r="B35" s="166"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H35" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="26" t="s">
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="3" customFormat="1" ht="27.6" customHeight="1" thickBot="1">
-      <c r="A34" s="151"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="168"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="27"/>
-    </row>
-    <row r="35" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A35" s="150" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" s="153">
-        <v>9</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="165"/>
-      <c r="E35" s="166"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="K35" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="M35" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="N35" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A36" s="151"/>
-      <c r="B36" s="154"/>
+    <row r="36" spans="1:14" s="3" customFormat="1" ht="27.6" customHeight="1" thickBot="1">
+      <c r="A36" s="163"/>
+      <c r="B36" s="166"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="168"/>
-      <c r="E36" s="169"/>
-      <c r="F36" s="170"/>
-      <c r="G36" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="D36" s="159"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
-      <c r="L36" s="14" t="s">
+      <c r="L36" s="12"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="27"/>
+    </row>
+    <row r="37" spans="1:14" s="3" customFormat="1" ht="13.8">
+      <c r="A37" s="162" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="165">
+        <v>9</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="156"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="158"/>
+      <c r="G37" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M37" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="N37" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="3" customFormat="1" ht="13.8">
+      <c r="A38" s="163"/>
+      <c r="B38" s="166"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="159"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M36" s="47" t="s">
+      <c r="M38" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="N36" s="26" t="s">
+      <c r="N38" s="26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A37" s="151"/>
-      <c r="B37" s="154"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="168"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="12" t="s">
+    <row r="39" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
+      <c r="A39" s="163"/>
+      <c r="B39" s="166"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="159"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="14" t="s">
+      <c r="H39" s="12"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="M37" s="28"/>
-      <c r="N37" s="27"/>
-    </row>
-    <row r="38" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A38" s="150" t="s">
+      <c r="M39" s="28"/>
+      <c r="N39" s="27"/>
+    </row>
+    <row r="40" spans="1:14" s="3" customFormat="1" ht="13.8">
+      <c r="A40" s="162" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="153">
+      <c r="B40" s="165">
         <v>10</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="91"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="10" t="s">
+      <c r="D40" s="91"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H40" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="76" t="s">
+      <c r="I40" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="J38" s="76" t="s">
+      <c r="J40" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K38" s="76" t="s">
+      <c r="K40" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="11" t="s">
+      <c r="L40" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="M38" s="49" t="s">
+      <c r="M40" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="N38" s="29" t="s">
+      <c r="N40" s="29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A39" s="151"/>
-      <c r="B39" s="154"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="12" t="s">
+    <row r="41" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A41" s="163"/>
+      <c r="B41" s="166"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="H41" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="14" t="s">
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="M39" s="47" t="s">
+      <c r="M41" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="N39" s="26" t="s">
+      <c r="N41" s="26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1">
-      <c r="A40" s="152"/>
-      <c r="B40" s="155"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="16" t="s">
+    <row r="42" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1">
+      <c r="A42" s="164"/>
+      <c r="B42" s="167"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="M40" s="100"/>
-      <c r="N40" s="27"/>
-    </row>
-    <row r="41" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A41" s="150" t="s">
+      <c r="M42" s="100"/>
+      <c r="N42" s="27"/>
+    </row>
+    <row r="43" spans="1:14" s="3" customFormat="1" ht="13.8">
+      <c r="A43" s="162" t="s">
         <v>165</v>
       </c>
-      <c r="B41" s="153">
+      <c r="B43" s="165">
         <v>11</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D41" s="91"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="101" t="s">
+      <c r="D43" s="91"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H43" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="76" t="s">
+      <c r="I43" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="J41" s="76" t="s">
+      <c r="J43" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K41" s="76" t="s">
+      <c r="K43" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="L41" s="11" t="s">
+      <c r="L43" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="M41" s="46" t="s">
+      <c r="M43" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="N41" s="29" t="s">
+      <c r="N43" s="29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A42" s="151"/>
-      <c r="B42" s="154"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="12" t="s">
+    <row r="44" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A44" s="163"/>
+      <c r="B44" s="166"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H44" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="14" t="s">
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="M42" s="47" t="s">
+      <c r="M44" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="N42" s="26" t="s">
+      <c r="N44" s="26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1">
-      <c r="A43" s="152"/>
-      <c r="B43" s="155"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="15" t="s">
+    <row r="45" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1">
+      <c r="A45" s="164"/>
+      <c r="B45" s="167"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="16" t="s">
+      <c r="H45" s="15"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="M43" s="82"/>
-      <c r="N43" s="27"/>
-    </row>
-    <row r="44" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A44" s="111"/>
-      <c r="B44" s="153">
+      <c r="M45" s="82"/>
+      <c r="N45" s="27"/>
+    </row>
+    <row r="46" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1">
+      <c r="A46" s="111"/>
+      <c r="B46" s="165">
         <v>12</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="D44" s="91"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="10" t="s">
+      <c r="D46" s="91"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="H44" s="177" t="s">
+      <c r="H46" s="186" t="s">
         <v>155</v>
       </c>
-      <c r="I44" s="153" t="s">
+      <c r="I46" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="J44" s="153" t="s">
+      <c r="J46" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="K44" s="153" t="s">
+      <c r="K46" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="L44" s="20" t="s">
+      <c r="L46" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="M44" s="108" t="s">
+      <c r="M46" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="N44" s="29" t="s">
+      <c r="N46" s="29" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A45" s="112"/>
-      <c r="B45" s="154"/>
-      <c r="C45" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="D45" s="94"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="H45" s="175"/>
-      <c r="I45" s="154"/>
-      <c r="J45" s="176"/>
-      <c r="K45" s="176"/>
-      <c r="L45" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="M45" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="N45" s="42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A46" s="112"/>
-      <c r="B46" s="154"/>
-      <c r="C46" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D46" s="94"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="I46" s="154"/>
-      <c r="J46" s="176"/>
-      <c r="K46" s="176"/>
-      <c r="L46" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="M46" s="106"/>
-      <c r="N46" s="106"/>
     </row>
     <row r="47" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A47" s="112"/>
-      <c r="B47" s="154"/>
-      <c r="C47" s="3" t="s">
-        <v>287</v>
+      <c r="B47" s="166"/>
+      <c r="C47" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="D47" s="94"/>
       <c r="E47" s="95"/>
       <c r="F47" s="96"/>
-      <c r="G47" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="I47" s="154"/>
-      <c r="J47" s="176"/>
-      <c r="K47" s="176"/>
-      <c r="L47" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="M47" s="48"/>
-      <c r="N47" s="26"/>
+      <c r="G47" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H47" s="180"/>
+      <c r="I47" s="166"/>
+      <c r="J47" s="190"/>
+      <c r="K47" s="190"/>
+      <c r="L47" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="M47" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="N47" s="42" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="48" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A48" s="112"/>
-      <c r="B48" s="154"/>
-      <c r="C48" s="12" t="s">
+      <c r="B48" s="166"/>
+      <c r="C48" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D48" s="94"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="166"/>
+      <c r="J48" s="190"/>
+      <c r="K48" s="190"/>
+      <c r="L48" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M48" s="106"/>
+      <c r="N48" s="106"/>
+    </row>
+    <row r="49" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A49" s="112"/>
+      <c r="B49" s="166"/>
+      <c r="C49" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D49" s="94"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I49" s="166"/>
+      <c r="J49" s="190"/>
+      <c r="K49" s="190"/>
+      <c r="L49" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="M49" s="48"/>
+      <c r="N49" s="26"/>
+    </row>
+    <row r="50" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A50" s="112"/>
+      <c r="B50" s="166"/>
+      <c r="C50" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="D48" s="116"/>
-      <c r="E48" s="117"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="3" t="s">
+      <c r="D50" s="116"/>
+      <c r="E50" s="117"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="H48" s="106"/>
-      <c r="I48" s="154"/>
-      <c r="J48" s="176"/>
-      <c r="K48" s="176"/>
-      <c r="L48" s="14" t="s">
+      <c r="H50" s="106"/>
+      <c r="I50" s="166"/>
+      <c r="J50" s="190"/>
+      <c r="K50" s="190"/>
+      <c r="L50" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="M48" s="48"/>
-      <c r="N48" s="26"/>
-    </row>
-    <row r="49" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A49" s="119" t="s">
+      <c r="M50" s="48"/>
+      <c r="N50" s="26"/>
+    </row>
+    <row r="51" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A51" s="119" t="s">
         <v>171</v>
       </c>
-      <c r="B49" s="154"/>
-      <c r="C49" s="3" t="s">
+      <c r="B51" s="166"/>
+      <c r="C51" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D49" s="157"/>
-      <c r="E49" s="157"/>
-      <c r="F49" s="157"/>
-      <c r="G49" s="12" t="s">
+      <c r="D51" s="169"/>
+      <c r="E51" s="169"/>
+      <c r="F51" s="169"/>
+      <c r="G51" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="H49" s="106"/>
-      <c r="I49" s="154"/>
-      <c r="J49" s="176"/>
-      <c r="K49" s="176"/>
-      <c r="L49" s="14" t="s">
+      <c r="H51" s="106"/>
+      <c r="I51" s="166"/>
+      <c r="J51" s="190"/>
+      <c r="K51" s="190"/>
+      <c r="L51" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="M49" s="106"/>
-      <c r="N49" s="26"/>
-    </row>
-    <row r="50" spans="1:14" s="3" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A50" s="179"/>
-      <c r="B50" s="154"/>
-      <c r="C50" s="12" t="s">
+      <c r="M51" s="106"/>
+      <c r="N51" s="26"/>
+    </row>
+    <row r="52" spans="1:14" s="3" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A52" s="171"/>
+      <c r="B52" s="166"/>
+      <c r="C52" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="D50" s="157"/>
-      <c r="E50" s="157"/>
-      <c r="F50" s="157"/>
-      <c r="G50" s="12" t="s">
+      <c r="D52" s="169"/>
+      <c r="E52" s="169"/>
+      <c r="F52" s="169"/>
+      <c r="G52" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="H50" s="106"/>
-      <c r="I50" s="154"/>
-      <c r="J50" s="176"/>
-      <c r="K50" s="176"/>
-      <c r="L50" s="106" t="s">
+      <c r="H52" s="106"/>
+      <c r="I52" s="166"/>
+      <c r="J52" s="190"/>
+      <c r="K52" s="190"/>
+      <c r="L52" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="M50" s="106"/>
-      <c r="N50" s="26"/>
-    </row>
-    <row r="51" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A51" s="179"/>
-      <c r="B51" s="154"/>
-      <c r="C51" s="12" t="s">
+      <c r="M52" s="106"/>
+      <c r="N52" s="26"/>
+    </row>
+    <row r="53" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A53" s="171"/>
+      <c r="B53" s="166"/>
+      <c r="C53" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="D51" s="157"/>
-      <c r="E51" s="157"/>
-      <c r="F51" s="157"/>
-      <c r="G51" s="12" t="s">
+      <c r="D53" s="169"/>
+      <c r="E53" s="169"/>
+      <c r="F53" s="169"/>
+      <c r="G53" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="H51" s="106"/>
-      <c r="I51" s="154"/>
-      <c r="J51" s="176"/>
-      <c r="K51" s="176"/>
-      <c r="L51" s="106"/>
-      <c r="M51" s="149"/>
-      <c r="N51" s="26"/>
-    </row>
-    <row r="52" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A52" s="144"/>
-      <c r="B52" s="154"/>
-      <c r="C52" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="D52" s="157"/>
-      <c r="E52" s="157"/>
-      <c r="F52" s="157"/>
-      <c r="G52" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="H52" s="106"/>
-      <c r="I52" s="154"/>
-      <c r="J52" s="176"/>
-      <c r="K52" s="176"/>
-      <c r="L52" s="106"/>
-      <c r="M52" s="149"/>
-      <c r="N52" s="26"/>
-    </row>
-    <row r="53" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A53" s="144"/>
-      <c r="B53" s="154"/>
-      <c r="C53" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="D53" s="157"/>
-      <c r="E53" s="157"/>
-      <c r="F53" s="157"/>
-      <c r="G53" s="12" t="s">
-        <v>304</v>
-      </c>
       <c r="H53" s="106"/>
-      <c r="I53" s="154"/>
-      <c r="J53" s="176"/>
-      <c r="K53" s="176"/>
+      <c r="I53" s="166"/>
+      <c r="J53" s="190"/>
+      <c r="K53" s="190"/>
       <c r="L53" s="106"/>
-      <c r="M53" s="149"/>
+      <c r="M53" s="178"/>
       <c r="N53" s="26"/>
     </row>
     <row r="54" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A54" s="144"/>
-      <c r="B54" s="154"/>
+      <c r="B54" s="166"/>
       <c r="C54" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D54" s="169"/>
+      <c r="E54" s="169"/>
+      <c r="F54" s="169"/>
+      <c r="G54" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="H54" s="106"/>
+      <c r="I54" s="166"/>
+      <c r="J54" s="190"/>
+      <c r="K54" s="190"/>
+      <c r="L54" s="106"/>
+      <c r="M54" s="178"/>
+      <c r="N54" s="26"/>
+    </row>
+    <row r="55" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A55" s="144"/>
+      <c r="B55" s="166"/>
+      <c r="C55" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D55" s="169"/>
+      <c r="E55" s="169"/>
+      <c r="F55" s="169"/>
+      <c r="G55" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H55" s="106"/>
+      <c r="I55" s="166"/>
+      <c r="J55" s="190"/>
+      <c r="K55" s="190"/>
+      <c r="L55" s="106"/>
+      <c r="M55" s="178"/>
+      <c r="N55" s="26"/>
+    </row>
+    <row r="56" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A56" s="144"/>
+      <c r="B56" s="166"/>
+      <c r="C56" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="D54" s="157"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="12" t="s">
+      <c r="D56" s="169"/>
+      <c r="E56" s="169"/>
+      <c r="F56" s="169"/>
+      <c r="G56" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="H54" s="106"/>
-      <c r="I54" s="154"/>
-      <c r="J54" s="176"/>
-      <c r="K54" s="176"/>
-      <c r="L54" s="106"/>
-      <c r="M54" s="149"/>
-      <c r="N54" s="26"/>
-    </row>
-    <row r="55" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A55" s="144"/>
-      <c r="B55" s="154"/>
-      <c r="C55" s="12" t="s">
+      <c r="H56" s="106"/>
+      <c r="I56" s="166"/>
+      <c r="J56" s="190"/>
+      <c r="K56" s="190"/>
+      <c r="L56" s="106"/>
+      <c r="M56" s="178"/>
+      <c r="N56" s="26"/>
+    </row>
+    <row r="57" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1" thickBot="1">
+      <c r="A57" s="144"/>
+      <c r="B57" s="166"/>
+      <c r="C57" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="D55" s="157"/>
-      <c r="E55" s="157"/>
-      <c r="F55" s="157"/>
-      <c r="H55" s="106"/>
-      <c r="I55" s="154"/>
-      <c r="J55" s="176"/>
-      <c r="K55" s="176"/>
-      <c r="L55" s="106"/>
-      <c r="M55" s="149"/>
-      <c r="N55" s="26"/>
-    </row>
-    <row r="56" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A56" s="111"/>
-      <c r="B56" s="110"/>
-      <c r="C56" s="10" t="s">
+      <c r="D57" s="169"/>
+      <c r="E57" s="169"/>
+      <c r="F57" s="169"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="166"/>
+      <c r="J57" s="190"/>
+      <c r="K57" s="190"/>
+      <c r="L57" s="106"/>
+      <c r="M57" s="178"/>
+      <c r="N57" s="26"/>
+    </row>
+    <row r="58" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1">
+      <c r="A58" s="111"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D56" s="113"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="115"/>
-      <c r="G56" s="10" t="s">
+      <c r="D58" s="113"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="H56" s="177" t="s">
+      <c r="H58" s="186" t="s">
         <v>91</v>
       </c>
-      <c r="I56" s="173" t="s">
+      <c r="I58" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="J56" s="173" t="s">
+      <c r="J58" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="K56" s="173" t="s">
+      <c r="K58" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="L56" s="20" t="s">
+      <c r="L58" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="M56" s="141" t="s">
+      <c r="M58" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="N56" s="29" t="s">
+      <c r="N58" s="29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A57" s="179" t="s">
+    <row r="59" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A59" s="171" t="s">
         <v>241</v>
       </c>
-      <c r="B57" s="154">
+      <c r="B59" s="166">
         <v>13</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="D57" s="116"/>
-      <c r="E57" s="117"/>
-      <c r="F57" s="118"/>
-      <c r="G57" s="9" t="s">
+      <c r="D59" s="116"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="118"/>
+      <c r="G59" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="H57" s="175"/>
-      <c r="I57" s="178"/>
-      <c r="J57" s="178"/>
-      <c r="K57" s="178"/>
-      <c r="L57" s="125" t="s">
+      <c r="H59" s="180"/>
+      <c r="I59" s="185"/>
+      <c r="J59" s="185"/>
+      <c r="K59" s="185"/>
+      <c r="L59" s="125" t="s">
         <v>198</v>
       </c>
-      <c r="M57" s="142" t="s">
+      <c r="M59" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="N57" s="42" t="s">
+      <c r="N59" s="42" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A58" s="151"/>
-      <c r="B58" s="154"/>
-      <c r="C58" s="3" t="s">
+    <row r="60" spans="1:14" s="3" customFormat="1" ht="13.8">
+      <c r="A60" s="163"/>
+      <c r="B60" s="166"/>
+      <c r="C60" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D58" s="51"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="9" t="s">
+      <c r="D60" s="51"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="H58" s="12" t="s">
+      <c r="H60" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I58" s="178"/>
-      <c r="J58" s="178"/>
-      <c r="K58" s="178"/>
-      <c r="L58" s="21" t="s">
+      <c r="I60" s="185"/>
+      <c r="J60" s="185"/>
+      <c r="K60" s="185"/>
+      <c r="L60" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="M58" s="106"/>
-      <c r="N58" s="146"/>
-    </row>
-    <row r="59" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A59" s="151"/>
-      <c r="B59" s="154"/>
-      <c r="C59" s="3" t="s">
+      <c r="M60" s="106"/>
+      <c r="N60" s="146"/>
+    </row>
+    <row r="61" spans="1:14" s="3" customFormat="1" ht="13.8">
+      <c r="A61" s="163"/>
+      <c r="B61" s="166"/>
+      <c r="C61" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D59" s="51"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="12" t="s">
+      <c r="D61" s="51"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="H59" s="12" t="s">
+      <c r="H61" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="I59" s="178"/>
-      <c r="J59" s="178"/>
-      <c r="K59" s="178"/>
-      <c r="L59" s="102" t="s">
+      <c r="I61" s="185"/>
+      <c r="J61" s="185"/>
+      <c r="K61" s="185"/>
+      <c r="L61" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="M59" s="149"/>
-      <c r="N59" s="26"/>
-    </row>
-    <row r="60" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A60" s="151"/>
-      <c r="B60" s="154"/>
-      <c r="C60" s="12" t="s">
+      <c r="M61" s="178"/>
+      <c r="N61" s="26"/>
+    </row>
+    <row r="62" spans="1:14" s="3" customFormat="1" ht="13.8">
+      <c r="A62" s="163"/>
+      <c r="B62" s="166"/>
+      <c r="C62" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D60" s="79"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="175" t="s">
-        <v>311</v>
-      </c>
-      <c r="H60" s="125"/>
-      <c r="I60" s="178"/>
-      <c r="J60" s="178"/>
-      <c r="K60" s="178"/>
-      <c r="L60" s="107" t="s">
-        <v>194</v>
-      </c>
-      <c r="M60" s="149"/>
-      <c r="N60" s="26"/>
-    </row>
-    <row r="61" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A61" s="151"/>
-      <c r="B61" s="154"/>
-      <c r="C61" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D61" s="79"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="175"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="178"/>
-      <c r="J61" s="178"/>
-      <c r="K61" s="178"/>
-      <c r="L61" s="107" t="s">
-        <v>199</v>
-      </c>
-      <c r="M61" s="149"/>
-      <c r="N61" s="26"/>
-    </row>
-    <row r="62" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A62" s="151"/>
-      <c r="B62" s="154"/>
       <c r="D62" s="79"/>
       <c r="E62" s="80"/>
       <c r="F62" s="81"/>
-      <c r="G62" s="126"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="174"/>
-      <c r="J62" s="174"/>
-      <c r="K62" s="174"/>
-      <c r="L62" s="147" t="s">
+      <c r="G62" s="180" t="s">
+        <v>311</v>
+      </c>
+      <c r="H62" s="125"/>
+      <c r="I62" s="185"/>
+      <c r="J62" s="185"/>
+      <c r="K62" s="185"/>
+      <c r="L62" s="107" t="s">
+        <v>194</v>
+      </c>
+      <c r="M62" s="178"/>
+      <c r="N62" s="26"/>
+    </row>
+    <row r="63" spans="1:14" s="3" customFormat="1" ht="13.8">
+      <c r="A63" s="163"/>
+      <c r="B63" s="166"/>
+      <c r="C63" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D63" s="79"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="180"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="185"/>
+      <c r="J63" s="185"/>
+      <c r="K63" s="185"/>
+      <c r="L63" s="107" t="s">
+        <v>199</v>
+      </c>
+      <c r="M63" s="178"/>
+      <c r="N63" s="26"/>
+    </row>
+    <row r="64" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
+      <c r="A64" s="163"/>
+      <c r="B64" s="166"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="126"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="182"/>
+      <c r="J64" s="182"/>
+      <c r="K64" s="182"/>
+      <c r="L64" s="147" t="s">
         <v>200</v>
       </c>
-      <c r="M62" s="187"/>
-      <c r="N62" s="27"/>
-    </row>
-    <row r="63" spans="1:14" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A63" s="150" t="s">
+      <c r="M64" s="179"/>
+      <c r="N64" s="27"/>
+    </row>
+    <row r="65" spans="1:14" s="3" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A65" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="B63" s="153">
+      <c r="B65" s="165">
         <v>14</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="D63" s="165"/>
-      <c r="E63" s="166"/>
-      <c r="F63" s="167"/>
-      <c r="G63" s="10" t="s">
+      <c r="D65" s="156"/>
+      <c r="E65" s="157"/>
+      <c r="F65" s="158"/>
+      <c r="G65" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H63" s="10" t="s">
+      <c r="H65" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="I63" s="23" t="s">
+      <c r="I65" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J63" s="23" t="s">
+      <c r="J65" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K63" s="23" t="s">
+      <c r="K65" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L63" s="20" t="s">
+      <c r="L65" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="M63" s="148" t="s">
+      <c r="M65" s="187" t="s">
         <v>244</v>
       </c>
-      <c r="N63" s="148" t="s">
+      <c r="N65" s="187" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A64" s="151"/>
-      <c r="B64" s="154"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="168"/>
-      <c r="E64" s="169"/>
-      <c r="F64" s="170"/>
-      <c r="G64" s="12" t="s">
+    <row r="66" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A66" s="163"/>
+      <c r="B66" s="166"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="159"/>
+      <c r="E66" s="160"/>
+      <c r="F66" s="161"/>
+      <c r="G66" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H64" s="12"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="21" t="s">
+      <c r="H66" s="12"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="M64" s="149"/>
-      <c r="N64" s="149"/>
-    </row>
-    <row r="65" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A65" s="151"/>
-      <c r="B65" s="154"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="168"/>
-      <c r="E65" s="169"/>
-      <c r="F65" s="170"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="66"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="56"/>
-      <c r="K65" s="56"/>
-      <c r="L65" s="21" t="s">
+      <c r="M66" s="178"/>
+      <c r="N66" s="178"/>
+    </row>
+    <row r="67" spans="1:14" s="3" customFormat="1" ht="13.8">
+      <c r="A67" s="163"/>
+      <c r="B67" s="166"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="159"/>
+      <c r="E67" s="160"/>
+      <c r="F67" s="161"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="M65" s="149"/>
-      <c r="N65" s="26"/>
-    </row>
-    <row r="66" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A66" s="152"/>
-      <c r="B66" s="155"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="182"/>
-      <c r="E66" s="183"/>
-      <c r="F66" s="184"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="17" t="s">
+      <c r="M67" s="178"/>
+      <c r="N67" s="26"/>
+    </row>
+    <row r="68" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
+      <c r="A68" s="164"/>
+      <c r="B68" s="167"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="172"/>
+      <c r="E68" s="173"/>
+      <c r="F68" s="174"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="187"/>
-      <c r="N66" s="27"/>
-    </row>
-    <row r="67" spans="1:14" s="3" customFormat="1" ht="19.2" customHeight="1">
-      <c r="A67" s="59" t="s">
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="179"/>
+      <c r="N68" s="27"/>
+    </row>
+    <row r="69" spans="1:14" s="3" customFormat="1" ht="19.2" customHeight="1">
+      <c r="A69" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="B67" s="153">
+      <c r="B69" s="165">
         <v>15</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C69" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D67" s="63"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="H67" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="I67" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="J67" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="K67" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="L67" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="M67" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="N67" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" s="3" customFormat="1" ht="19.2" customHeight="1">
-      <c r="A68" s="59"/>
-      <c r="B68" s="154"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H68" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="54"/>
-      <c r="N68" s="42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" s="3" customFormat="1" ht="19.2" customHeight="1" thickBot="1">
-      <c r="A69" s="59"/>
-      <c r="B69" s="155"/>
-      <c r="C69" s="12"/>
       <c r="D69" s="63"/>
       <c r="E69" s="64"/>
       <c r="F69" s="65"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="56"/>
-      <c r="K69" s="56"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="54"/>
-      <c r="N69" s="26"/>
-    </row>
-    <row r="70" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A70" s="58" t="s">
+      <c r="G69" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="H69" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="I69" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="J69" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="K69" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="M69" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="N69" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="3" customFormat="1" ht="19.2" customHeight="1">
+      <c r="A70" s="59"/>
+      <c r="B70" s="166"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H70" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="I70" s="56"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="54"/>
+      <c r="N70" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="3" customFormat="1" ht="19.2" customHeight="1" thickBot="1">
+      <c r="A71" s="59"/>
+      <c r="B71" s="167"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="56"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="54"/>
+      <c r="N71" s="26"/>
+    </row>
+    <row r="72" spans="1:14" s="3" customFormat="1" ht="13.8">
+      <c r="A72" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="B70" s="153">
+      <c r="B72" s="165">
         <v>16</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D70" s="60"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="10" t="s">
+      <c r="D72" s="60"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H70" s="10" t="s">
+      <c r="H72" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="I70" s="55" t="s">
+      <c r="I72" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="J70" s="55" t="s">
+      <c r="J72" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="K70" s="55" t="s">
+      <c r="K72" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="L70" s="11" t="s">
+      <c r="L72" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="M70" s="57" t="s">
+      <c r="M72" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="N70" s="29" t="s">
+      <c r="N72" s="29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A71" s="78"/>
-      <c r="B71" s="154"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="79"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="175" t="s">
+    <row r="73" spans="1:14" s="3" customFormat="1" ht="13.8">
+      <c r="A73" s="78"/>
+      <c r="B73" s="166"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="80"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="180" t="s">
         <v>217</v>
       </c>
-      <c r="H71" s="66" t="s">
+      <c r="H73" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="I71" s="77"/>
-      <c r="J71" s="77"/>
-      <c r="K71" s="77"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="75"/>
-      <c r="N71" s="26" t="s">
+      <c r="I73" s="77"/>
+      <c r="J73" s="77"/>
+      <c r="K73" s="77"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="75"/>
+      <c r="N73" s="26" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A72" s="78"/>
-      <c r="B72" s="154"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="80"/>
-      <c r="F72" s="81"/>
-      <c r="G72" s="175"/>
-      <c r="H72" s="66"/>
-      <c r="I72" s="77"/>
-      <c r="J72" s="77"/>
-      <c r="K72" s="77"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="75"/>
-      <c r="N72" s="26"/>
-    </row>
-    <row r="73" spans="1:14" s="3" customFormat="1" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A73" s="59"/>
-      <c r="B73" s="155"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="63"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="H73" s="66"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="56"/>
-      <c r="K73" s="56"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="54"/>
-      <c r="N73" s="42"/>
-    </row>
-    <row r="74" spans="1:14" s="3" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A74" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="B74" s="153">
-        <v>17</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="D74" s="60"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I74" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="J74" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="K74" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="L74" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="M74" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="N74" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" s="3" customFormat="1" ht="22.2" customHeight="1" thickBot="1">
+    <row r="74" spans="1:14" s="3" customFormat="1" ht="13.8">
+      <c r="A74" s="78"/>
+      <c r="B74" s="166"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="80"/>
+      <c r="F74" s="81"/>
+      <c r="G74" s="180"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="77"/>
+      <c r="J74" s="77"/>
+      <c r="K74" s="77"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="75"/>
+      <c r="N74" s="26"/>
+    </row>
+    <row r="75" spans="1:14" s="3" customFormat="1" ht="21.6" customHeight="1" thickBot="1">
       <c r="A75" s="59"/>
-      <c r="B75" s="155"/>
+      <c r="B75" s="167"/>
       <c r="C75" s="12"/>
       <c r="D75" s="63"/>
       <c r="E75" s="64"/>
       <c r="F75" s="65"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="66" t="s">
-        <v>103</v>
-      </c>
+      <c r="G75" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H75" s="66"/>
       <c r="I75" s="56"/>
       <c r="J75" s="56"/>
       <c r="K75" s="56"/>
       <c r="L75" s="14"/>
       <c r="M75" s="54"/>
-      <c r="N75" s="42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A76" s="150" t="s">
-        <v>110</v>
-      </c>
-      <c r="B76" s="153">
-        <v>18</v>
+      <c r="N75" s="42"/>
+    </row>
+    <row r="76" spans="1:14" s="3" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A76" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" s="165">
+        <v>17</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D76" s="156"/>
-      <c r="E76" s="156"/>
-      <c r="F76" s="156"/>
+        <v>246</v>
+      </c>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="62"/>
       <c r="G76" s="10" t="s">
-        <v>222</v>
+        <v>106</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I76" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="J76" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="I76" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="J76" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="K76" s="23" t="s">
+      <c r="K76" s="55" t="s">
         <v>8</v>
       </c>
       <c r="L76" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="M76" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="M76" s="57" t="s">
         <v>70</v>
       </c>
       <c r="N76" s="29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A77" s="151"/>
-      <c r="B77" s="154"/>
+    <row r="77" spans="1:14" s="3" customFormat="1" ht="22.2" customHeight="1" thickBot="1">
+      <c r="A77" s="59"/>
+      <c r="B77" s="167"/>
       <c r="C77" s="12"/>
-      <c r="D77" s="157"/>
-      <c r="E77" s="157"/>
-      <c r="F77" s="157"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="65"/>
       <c r="G77" s="12"/>
-      <c r="H77" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="M77" s="47" t="s">
-        <v>114</v>
-      </c>
+      <c r="H77" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="I77" s="56"/>
+      <c r="J77" s="56"/>
+      <c r="K77" s="56"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="54"/>
       <c r="N77" s="42" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A78" s="152"/>
-      <c r="B78" s="155"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="158"/>
-      <c r="E78" s="158"/>
-      <c r="F78" s="158"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="16" t="s">
+    <row r="78" spans="1:14" s="3" customFormat="1" ht="13.8">
+      <c r="A78" s="162" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" s="165">
+        <v>18</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D78" s="168"/>
+      <c r="E78" s="168"/>
+      <c r="F78" s="168"/>
+      <c r="G78" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="J78" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K78" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="M78" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="N78" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="3" customFormat="1" ht="13.8">
+      <c r="A79" s="163"/>
+      <c r="B79" s="166"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="169"/>
+      <c r="E79" s="169"/>
+      <c r="F79" s="169"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="M79" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="N79" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
+      <c r="A80" s="164"/>
+      <c r="B80" s="167"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="170"/>
+      <c r="E80" s="170"/>
+      <c r="F80" s="170"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="M78" s="45"/>
-      <c r="N78" s="27" t="s">
+      <c r="M80" s="45"/>
+      <c r="N80" s="27" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A79" s="150" t="s">
+    <row r="81" spans="1:14" s="3" customFormat="1" ht="13.8">
+      <c r="A81" s="162" t="s">
         <v>247</v>
       </c>
-      <c r="B79" s="153">
+      <c r="B81" s="165">
         <v>19</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="D79" s="156"/>
-      <c r="E79" s="156"/>
-      <c r="F79" s="156"/>
-      <c r="G79" s="12" t="s">
+      <c r="D81" s="168"/>
+      <c r="E81" s="168"/>
+      <c r="F81" s="168"/>
+      <c r="G81" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="H79" s="10" t="s">
+      <c r="H81" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I79" s="120" t="s">
+      <c r="I81" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="J79" s="120" t="s">
+      <c r="J81" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="K79" s="120" t="s">
+      <c r="K81" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="L79" s="11" t="s">
+      <c r="L81" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="M79" s="46" t="s">
+      <c r="M81" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="N79" s="29" t="s">
+      <c r="N81" s="29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A80" s="151"/>
-      <c r="B80" s="154"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="157"/>
-      <c r="E80" s="157"/>
-      <c r="F80" s="157"/>
-      <c r="G80" s="12" t="s">
+    <row r="82" spans="1:14" s="3" customFormat="1" ht="13.8">
+      <c r="A82" s="163"/>
+      <c r="B82" s="166"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="169"/>
+      <c r="E82" s="169"/>
+      <c r="F82" s="169"/>
+      <c r="G82" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="H80" s="12" t="s">
+      <c r="H82" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I80" s="121"/>
-      <c r="J80" s="121"/>
-      <c r="K80" s="121"/>
-      <c r="L80" s="14" t="s">
+      <c r="I82" s="121"/>
+      <c r="J82" s="121"/>
+      <c r="K82" s="121"/>
+      <c r="L82" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="M80" s="47" t="s">
+      <c r="M82" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="N80" s="42" t="s">
+      <c r="N82" s="42" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A81" s="152"/>
-      <c r="B81" s="155"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="158"/>
-      <c r="E81" s="158"/>
-      <c r="F81" s="158"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="123"/>
-      <c r="J81" s="123"/>
-      <c r="K81" s="123"/>
-      <c r="L81" s="16" t="s">
+    <row r="83" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
+      <c r="A83" s="164"/>
+      <c r="B83" s="167"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="170"/>
+      <c r="E83" s="170"/>
+      <c r="F83" s="170"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="123"/>
+      <c r="J83" s="123"/>
+      <c r="K83" s="123"/>
+      <c r="L83" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="M81" s="122"/>
-      <c r="N81" s="27" t="s">
+      <c r="M83" s="122"/>
+      <c r="N83" s="27" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="82" spans="1:14" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A82" s="150" t="s">
+    <row r="84" spans="1:14" s="3" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A84" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="B82" s="153">
+      <c r="B84" s="165">
         <v>20</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="D82" s="165"/>
-      <c r="E82" s="166"/>
-      <c r="F82" s="167"/>
-      <c r="G82" s="10" t="s">
+      <c r="D84" s="156"/>
+      <c r="E84" s="157"/>
+      <c r="F84" s="158"/>
+      <c r="G84" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="H82" s="10" t="s">
+      <c r="H84" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="I82" s="120" t="s">
+      <c r="I84" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="J82" s="120" t="s">
+      <c r="J84" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="K82" s="120" t="s">
+      <c r="K84" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="L82" s="20" t="s">
+      <c r="L84" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="M82" s="148" t="s">
+      <c r="M84" s="187" t="s">
         <v>244</v>
       </c>
-      <c r="N82" s="148" t="s">
+      <c r="N84" s="187" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A83" s="151"/>
-      <c r="B83" s="154"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="168"/>
-      <c r="E83" s="169"/>
-      <c r="F83" s="170"/>
-      <c r="G83" s="12" t="s">
+    <row r="85" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A85" s="163"/>
+      <c r="B85" s="166"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="159"/>
+      <c r="E85" s="160"/>
+      <c r="F85" s="161"/>
+      <c r="G85" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="H83" s="12"/>
-      <c r="I83" s="121"/>
-      <c r="J83" s="121"/>
-      <c r="K83" s="121"/>
-      <c r="L83" s="125" t="s">
+      <c r="H85" s="12"/>
+      <c r="I85" s="121"/>
+      <c r="J85" s="121"/>
+      <c r="K85" s="121"/>
+      <c r="L85" s="125" t="s">
         <v>198</v>
       </c>
-      <c r="M83" s="149"/>
-      <c r="N83" s="149"/>
-    </row>
-    <row r="84" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A84" s="151"/>
-      <c r="B84" s="154"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="168"/>
-      <c r="E84" s="169"/>
-      <c r="F84" s="170"/>
-      <c r="G84" s="12" t="s">
+      <c r="M85" s="178"/>
+      <c r="N85" s="178"/>
+    </row>
+    <row r="86" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
+      <c r="A86" s="163"/>
+      <c r="B86" s="166"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="159"/>
+      <c r="E86" s="160"/>
+      <c r="F86" s="161"/>
+      <c r="G86" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="H84" s="66"/>
-      <c r="I84" s="121"/>
-      <c r="J84" s="121"/>
-      <c r="K84" s="121"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="149"/>
-      <c r="N84" s="26"/>
-    </row>
-    <row r="85" spans="1:14" ht="16.2" customHeight="1">
-      <c r="A85" s="159" t="s">
+      <c r="H86" s="66"/>
+      <c r="I86" s="121"/>
+      <c r="J86" s="121"/>
+      <c r="K86" s="121"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="178"/>
+      <c r="N86" s="26"/>
+    </row>
+    <row r="87" spans="1:14" ht="16.2" customHeight="1">
+      <c r="A87" s="195" t="s">
         <v>253</v>
       </c>
-      <c r="B85" s="159">
+      <c r="B87" s="195">
         <v>21</v>
       </c>
-      <c r="C85" s="161" t="s">
+      <c r="C87" s="193" t="s">
         <v>254</v>
       </c>
-      <c r="D85" s="163"/>
-      <c r="E85" s="163"/>
-      <c r="F85" s="163"/>
-      <c r="G85" s="161" t="s">
+      <c r="D87" s="197"/>
+      <c r="E87" s="197"/>
+      <c r="F87" s="197"/>
+      <c r="G87" s="193" t="s">
         <v>255</v>
       </c>
-      <c r="H85" s="161" t="s">
+      <c r="H87" s="193" t="s">
         <v>256</v>
       </c>
-      <c r="I85" s="173" t="s">
+      <c r="I87" s="181" t="s">
         <v>76</v>
       </c>
-      <c r="J85" s="173" t="s">
+      <c r="J87" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="K85" s="173" t="s">
+      <c r="K87" s="181" t="s">
         <v>257</v>
       </c>
-      <c r="L85" s="171" t="s">
+      <c r="L87" s="191" t="s">
         <v>258</v>
       </c>
-      <c r="M85" s="161" t="s">
+      <c r="M87" s="193" t="s">
         <v>259</v>
       </c>
-      <c r="N85" s="161" t="s">
+      <c r="N87" s="193" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A86" s="160"/>
-      <c r="B86" s="160"/>
-      <c r="C86" s="162"/>
-      <c r="D86" s="164"/>
-      <c r="E86" s="164"/>
-      <c r="F86" s="164"/>
-      <c r="G86" s="162"/>
-      <c r="H86" s="162"/>
-      <c r="I86" s="174"/>
-      <c r="J86" s="174"/>
-      <c r="K86" s="174"/>
-      <c r="L86" s="172"/>
-      <c r="M86" s="162"/>
-      <c r="N86" s="162"/>
+    <row r="88" spans="1:14" ht="21.6" customHeight="1" thickBot="1">
+      <c r="A88" s="196"/>
+      <c r="B88" s="196"/>
+      <c r="C88" s="194"/>
+      <c r="D88" s="198"/>
+      <c r="E88" s="198"/>
+      <c r="F88" s="198"/>
+      <c r="G88" s="194"/>
+      <c r="H88" s="194"/>
+      <c r="I88" s="182"/>
+      <c r="J88" s="182"/>
+      <c r="K88" s="182"/>
+      <c r="L88" s="192"/>
+      <c r="M88" s="194"/>
+      <c r="N88" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="D13:F15"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="D76:F78"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="D63:F66"/>
+    <mergeCell ref="M84:M86"/>
+    <mergeCell ref="N84:N85"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="D81:F83"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:F88"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="D84:F86"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="D51:F57"/>
+    <mergeCell ref="M53:M57"/>
+    <mergeCell ref="B46:B57"/>
+    <mergeCell ref="I46:I57"/>
+    <mergeCell ref="J46:J57"/>
+    <mergeCell ref="K46:K57"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I64"/>
+    <mergeCell ref="J58:J64"/>
+    <mergeCell ref="K58:K64"/>
+    <mergeCell ref="M65:M68"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D34:F36"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A23:A33"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="B23:B33"/>
+    <mergeCell ref="D23:F33"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="I22:I33"/>
+    <mergeCell ref="J22:J33"/>
+    <mergeCell ref="K22:K33"/>
+    <mergeCell ref="H22:H33"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:F14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="M61:M64"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="D37:F39"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A52:A53"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:F4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:F9"/>
-    <mergeCell ref="M59:M62"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="D35:F37"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="I20:I31"/>
-    <mergeCell ref="J20:J31"/>
-    <mergeCell ref="K20:K31"/>
-    <mergeCell ref="H20:H31"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:F12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D32:F34"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A21:A31"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="B21:B31"/>
-    <mergeCell ref="D21:F31"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="D49:F55"/>
-    <mergeCell ref="M51:M55"/>
-    <mergeCell ref="B44:B55"/>
-    <mergeCell ref="I44:I55"/>
-    <mergeCell ref="J44:J55"/>
-    <mergeCell ref="K44:K55"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I62"/>
-    <mergeCell ref="J56:J62"/>
-    <mergeCell ref="K56:K62"/>
-    <mergeCell ref="M63:M66"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:F86"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="D82:F84"/>
-    <mergeCell ref="M82:M84"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="D79:F81"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D9:F11"/>
+    <mergeCell ref="D15:F17"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="D78:F80"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="D65:F68"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -11927,12 +11985,12 @@
       <c r="B2" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="175" t="s">
         <v>317</v>
       </c>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="190"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="177"/>
       <c r="G2" s="33" t="s">
         <v>318</v>
       </c>
@@ -11959,18 +12017,18 @@
       </c>
     </row>
     <row r="3" spans="1:15" s="3" customFormat="1" ht="27.6">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="162" t="s">
         <v>325</v>
       </c>
-      <c r="B3" s="153">
+      <c r="B3" s="165">
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D3" s="165"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="167"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="158"/>
       <c r="G3" s="10" t="s">
         <v>327</v>
       </c>
@@ -11989,57 +12047,57 @@
       <c r="L3" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="M3" s="185" t="s">
+      <c r="M3" s="183" t="s">
         <v>330</v>
       </c>
-      <c r="N3" s="148" t="s">
+      <c r="N3" s="187" t="s">
         <v>331</v>
       </c>
       <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A4" s="151"/>
-      <c r="B4" s="154"/>
+      <c r="A4" s="163"/>
+      <c r="B4" s="166"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="170"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="161"/>
       <c r="G4" s="12"/>
       <c r="H4" s="13"/>
       <c r="I4" s="143"/>
       <c r="J4" s="143"/>
       <c r="K4" s="143"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="186"/>
-      <c r="N4" s="149"/>
+      <c r="M4" s="184"/>
+      <c r="N4" s="178"/>
       <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="21.6" customHeight="1">
-      <c r="A5" s="150" t="s">
+      <c r="A5" s="162" t="s">
         <v>332</v>
       </c>
-      <c r="B5" s="153">
+      <c r="B5" s="165">
         <v>2</v>
       </c>
-      <c r="C5" s="177" t="s">
+      <c r="C5" s="186" t="s">
         <v>333</v>
       </c>
-      <c r="D5" s="165"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="177" t="s">
+      <c r="D5" s="156"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="186" t="s">
         <v>334</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="I5" s="173" t="s">
+      <c r="I5" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="J5" s="173" t="s">
+      <c r="J5" s="181" t="s">
         <v>329</v>
       </c>
-      <c r="K5" s="173" t="s">
+      <c r="K5" s="181" t="s">
         <v>337</v>
       </c>
       <c r="L5" s="11" t="s">
@@ -12053,19 +12111,19 @@
       </c>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A6" s="152"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="184"/>
-      <c r="G6" s="181"/>
+      <c r="A6" s="164"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="189"/>
       <c r="H6" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="I6" s="174"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="174"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="182"/>
       <c r="L6" s="14" t="s">
         <v>341</v>
       </c>
@@ -12075,18 +12133,18 @@
       </c>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A7" s="150" t="s">
+      <c r="A7" s="162" t="s">
         <v>342</v>
       </c>
-      <c r="B7" s="153">
+      <c r="B7" s="165">
         <v>3</v>
       </c>
-      <c r="C7" s="177" t="s">
+      <c r="C7" s="186" t="s">
         <v>343</v>
       </c>
-      <c r="D7" s="165"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="167"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="158"/>
       <c r="G7" s="10" t="s">
         <v>344</v>
       </c>
@@ -12113,12 +12171,12 @@
       </c>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A8" s="151"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="170"/>
+      <c r="A8" s="163"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="180"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="161"/>
       <c r="G8" s="12" t="s">
         <v>347</v>
       </c>
@@ -12139,12 +12197,12 @@
       </c>
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A9" s="151"/>
-      <c r="B9" s="154"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="166"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="170"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="161"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="143"/>
@@ -12159,18 +12217,18 @@
       <c r="N9" s="26"/>
     </row>
     <row r="10" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A10" s="150" t="s">
+      <c r="A10" s="162" t="s">
         <v>352</v>
       </c>
-      <c r="B10" s="153">
+      <c r="B10" s="165">
         <v>4</v>
       </c>
-      <c r="C10" s="177" t="s">
+      <c r="C10" s="186" t="s">
         <v>353</v>
       </c>
-      <c r="D10" s="165"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="167"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="158"/>
       <c r="G10" s="10" t="s">
         <v>354</v>
       </c>
@@ -12197,12 +12255,12 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A11" s="151"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="170"/>
+      <c r="A11" s="163"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="161"/>
       <c r="G11" s="12" t="s">
         <v>347</v>
       </c>
@@ -12223,12 +12281,12 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A12" s="151"/>
-      <c r="B12" s="154"/>
+      <c r="A12" s="163"/>
+      <c r="B12" s="166"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="170"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="161"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="143"/>
@@ -12243,18 +12301,18 @@
       <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A13" s="150" t="s">
+      <c r="A13" s="162" t="s">
         <v>355</v>
       </c>
-      <c r="B13" s="153">
+      <c r="B13" s="165">
         <v>5</v>
       </c>
-      <c r="C13" s="177" t="s">
+      <c r="C13" s="186" t="s">
         <v>356</v>
       </c>
-      <c r="D13" s="165"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="167"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="158"/>
       <c r="G13" s="10" t="s">
         <v>354</v>
       </c>
@@ -12281,12 +12339,12 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A14" s="151"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="170"/>
+      <c r="A14" s="163"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="180"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="161"/>
       <c r="G14" s="12" t="s">
         <v>347</v>
       </c>
@@ -12307,12 +12365,12 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A15" s="151"/>
-      <c r="B15" s="154"/>
+      <c r="A15" s="163"/>
+      <c r="B15" s="166"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="170"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="161"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="143"/>
@@ -12327,18 +12385,18 @@
       <c r="N15" s="26"/>
     </row>
     <row r="16" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A16" s="150" t="s">
+      <c r="A16" s="162" t="s">
         <v>357</v>
       </c>
-      <c r="B16" s="153">
+      <c r="B16" s="165">
         <v>6</v>
       </c>
-      <c r="C16" s="177" t="s">
+      <c r="C16" s="186" t="s">
         <v>358</v>
       </c>
-      <c r="D16" s="165"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="167"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="158"/>
       <c r="G16" s="10" t="s">
         <v>354</v>
       </c>
@@ -12365,12 +12423,12 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A17" s="151"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="168"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="170"/>
+      <c r="A17" s="163"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="180"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="161"/>
       <c r="G17" s="12" t="s">
         <v>361</v>
       </c>
@@ -12391,12 +12449,12 @@
       </c>
     </row>
     <row r="18" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A18" s="151"/>
-      <c r="B18" s="154"/>
+      <c r="A18" s="163"/>
+      <c r="B18" s="166"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="168"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="170"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="161"/>
       <c r="G18" s="12" t="s">
         <v>364</v>
       </c>
@@ -12411,18 +12469,18 @@
       <c r="N18" s="26"/>
     </row>
     <row r="19" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A19" s="150" t="s">
+      <c r="A19" s="162" t="s">
         <v>366</v>
       </c>
-      <c r="B19" s="153">
+      <c r="B19" s="165">
         <v>7</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="D19" s="165"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="167"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="158"/>
       <c r="G19" s="10" t="s">
         <v>354</v>
       </c>
@@ -12449,12 +12507,12 @@
       </c>
     </row>
     <row r="20" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A20" s="151"/>
-      <c r="B20" s="154"/>
+      <c r="A20" s="163"/>
+      <c r="B20" s="166"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="170"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="161"/>
       <c r="G20" s="12" t="s">
         <v>87</v>
       </c>
@@ -12475,12 +12533,12 @@
       </c>
     </row>
     <row r="21" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A21" s="151"/>
-      <c r="B21" s="154"/>
+      <c r="A21" s="163"/>
+      <c r="B21" s="166"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="168"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="170"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="161"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="143"/>
@@ -12493,10 +12551,10 @@
       <c r="N21" s="26"/>
     </row>
     <row r="22" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A22" s="150" t="s">
+      <c r="A22" s="162" t="s">
         <v>369</v>
       </c>
-      <c r="B22" s="153">
+      <c r="B22" s="165">
         <v>8</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -12531,8 +12589,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A23" s="151"/>
-      <c r="B23" s="154"/>
+      <c r="A23" s="163"/>
+      <c r="B23" s="166"/>
       <c r="C23" s="12"/>
       <c r="D23" s="138"/>
       <c r="E23" s="139"/>
@@ -12557,8 +12615,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A24" s="151"/>
-      <c r="B24" s="154"/>
+      <c r="A24" s="163"/>
+      <c r="B24" s="166"/>
       <c r="C24" s="12"/>
       <c r="D24" s="138"/>
       <c r="E24" s="139"/>
@@ -12577,8 +12635,8 @@
       <c r="N24" s="26"/>
     </row>
     <row r="25" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A25" s="151"/>
-      <c r="B25" s="154"/>
+      <c r="A25" s="163"/>
+      <c r="B25" s="166"/>
       <c r="C25" s="12"/>
       <c r="D25" s="138"/>
       <c r="E25" s="139"/>
@@ -12606,16 +12664,16 @@
       <c r="G26" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="H26" s="177" t="s">
+      <c r="H26" s="186" t="s">
         <v>380</v>
       </c>
-      <c r="I26" s="173" t="s">
+      <c r="I26" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="J26" s="173" t="s">
+      <c r="J26" s="181" t="s">
         <v>329</v>
       </c>
-      <c r="K26" s="173" t="s">
+      <c r="K26" s="181" t="s">
         <v>337</v>
       </c>
       <c r="L26" s="103" t="s">
@@ -12629,25 +12687,25 @@
       </c>
     </row>
     <row r="27" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A27" s="179" t="s">
+      <c r="A27" s="171" t="s">
         <v>382</v>
       </c>
-      <c r="B27" s="154">
+      <c r="B27" s="166">
         <v>9</v>
       </c>
       <c r="C27" s="106" t="s">
         <v>383</v>
       </c>
-      <c r="D27" s="168"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="170"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="161"/>
       <c r="G27" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="H27" s="175"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="178"/>
-      <c r="K27" s="178"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="185"/>
+      <c r="J27" s="185"/>
+      <c r="K27" s="185"/>
       <c r="L27" s="104" t="s">
         <v>385</v>
       </c>
@@ -12659,21 +12717,21 @@
       </c>
     </row>
     <row r="28" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A28" s="179"/>
-      <c r="B28" s="154"/>
+      <c r="A28" s="171"/>
+      <c r="B28" s="166"/>
       <c r="C28" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="D28" s="168"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="170"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="161"/>
       <c r="G28" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="H28" s="175"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="178"/>
-      <c r="K28" s="178"/>
+      <c r="H28" s="180"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="185"/>
       <c r="L28" s="14" t="s">
         <v>389</v>
       </c>
@@ -12681,160 +12739,160 @@
       <c r="N28" s="106"/>
     </row>
     <row r="29" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A29" s="179"/>
-      <c r="B29" s="154"/>
+      <c r="A29" s="171"/>
+      <c r="B29" s="166"/>
       <c r="C29" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="D29" s="168"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="170"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="161"/>
       <c r="G29" s="125" t="s">
         <v>391</v>
       </c>
-      <c r="H29" s="175"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="178"/>
-      <c r="K29" s="178"/>
+      <c r="H29" s="180"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="185"/>
+      <c r="K29" s="185"/>
       <c r="L29" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="M29" s="149"/>
+      <c r="M29" s="178"/>
       <c r="N29" s="26"/>
     </row>
     <row r="30" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A30" s="179"/>
-      <c r="B30" s="154"/>
+      <c r="A30" s="171"/>
+      <c r="B30" s="166"/>
       <c r="C30" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="D30" s="168"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="170"/>
+      <c r="D30" s="159"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="161"/>
       <c r="G30" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="H30" s="175"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="178"/>
-      <c r="K30" s="178"/>
+      <c r="H30" s="180"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="185"/>
+      <c r="K30" s="185"/>
       <c r="L30" s="104" t="s">
         <v>395</v>
       </c>
-      <c r="M30" s="180"/>
+      <c r="M30" s="188"/>
       <c r="N30" s="26"/>
     </row>
     <row r="31" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A31" s="179"/>
-      <c r="B31" s="154"/>
+      <c r="A31" s="171"/>
+      <c r="B31" s="166"/>
       <c r="C31" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="D31" s="168"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="170"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="161"/>
       <c r="G31" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="H31" s="175"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="178"/>
-      <c r="K31" s="178"/>
+      <c r="H31" s="180"/>
+      <c r="I31" s="185"/>
+      <c r="J31" s="185"/>
+      <c r="K31" s="185"/>
       <c r="L31" s="106"/>
       <c r="M31" s="26"/>
       <c r="N31" s="26"/>
     </row>
     <row r="32" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A32" s="179"/>
-      <c r="B32" s="154"/>
+      <c r="A32" s="171"/>
+      <c r="B32" s="166"/>
       <c r="C32" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="D32" s="168"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="170"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="161"/>
       <c r="G32" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="H32" s="175"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="178"/>
-      <c r="K32" s="178"/>
+      <c r="H32" s="180"/>
+      <c r="I32" s="185"/>
+      <c r="J32" s="185"/>
+      <c r="K32" s="185"/>
       <c r="L32" s="106"/>
-      <c r="M32" s="149"/>
-      <c r="N32" s="149"/>
+      <c r="M32" s="178"/>
+      <c r="N32" s="178"/>
     </row>
     <row r="33" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A33" s="179"/>
-      <c r="B33" s="154"/>
+      <c r="A33" s="171"/>
+      <c r="B33" s="166"/>
       <c r="C33" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="D33" s="168"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="170"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="161"/>
       <c r="G33" s="125" t="s">
         <v>401</v>
       </c>
-      <c r="H33" s="175"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="178"/>
-      <c r="K33" s="178"/>
+      <c r="H33" s="180"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="185"/>
+      <c r="K33" s="185"/>
       <c r="L33" s="104"/>
-      <c r="M33" s="149"/>
-      <c r="N33" s="180"/>
+      <c r="M33" s="178"/>
+      <c r="N33" s="188"/>
     </row>
     <row r="34" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A34" s="179"/>
-      <c r="B34" s="154"/>
+      <c r="A34" s="171"/>
+      <c r="B34" s="166"/>
       <c r="C34" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="D34" s="168"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="170"/>
+      <c r="D34" s="159"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="161"/>
       <c r="G34" s="125" t="s">
         <v>403</v>
       </c>
-      <c r="H34" s="175"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="178"/>
-      <c r="K34" s="178"/>
+      <c r="H34" s="180"/>
+      <c r="I34" s="185"/>
+      <c r="J34" s="185"/>
+      <c r="K34" s="185"/>
       <c r="L34" s="104"/>
-      <c r="M34" s="149"/>
+      <c r="M34" s="178"/>
       <c r="N34" s="26"/>
     </row>
     <row r="35" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A35" s="179"/>
-      <c r="B35" s="154"/>
+      <c r="A35" s="171"/>
+      <c r="B35" s="166"/>
       <c r="C35" s="126" t="s">
         <v>404</v>
       </c>
-      <c r="D35" s="182"/>
-      <c r="E35" s="183"/>
-      <c r="F35" s="184"/>
+      <c r="D35" s="172"/>
+      <c r="E35" s="173"/>
+      <c r="F35" s="174"/>
       <c r="G35" s="127"/>
-      <c r="H35" s="181"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="174"/>
-      <c r="K35" s="174"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="182"/>
+      <c r="J35" s="182"/>
+      <c r="K35" s="182"/>
       <c r="L35" s="105"/>
-      <c r="M35" s="193"/>
+      <c r="M35" s="199"/>
       <c r="N35" s="27"/>
     </row>
     <row r="36" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A36" s="150" t="s">
+      <c r="A36" s="162" t="s">
         <v>405</v>
       </c>
-      <c r="B36" s="153">
+      <c r="B36" s="165">
         <v>10</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="D36" s="165"/>
-      <c r="E36" s="166"/>
-      <c r="F36" s="167"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="158"/>
       <c r="G36" s="10" t="s">
         <v>354</v>
       </c>
@@ -12861,12 +12919,12 @@
       </c>
     </row>
     <row r="37" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A37" s="151"/>
-      <c r="B37" s="154"/>
+      <c r="A37" s="163"/>
+      <c r="B37" s="166"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="168"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="170"/>
+      <c r="D37" s="159"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="161"/>
       <c r="G37" s="12" t="s">
         <v>408</v>
       </c>
@@ -12883,12 +12941,12 @@
       </c>
     </row>
     <row r="38" spans="1:14" s="3" customFormat="1" ht="27.6" customHeight="1" thickBot="1">
-      <c r="A38" s="151"/>
-      <c r="B38" s="154"/>
+      <c r="A38" s="163"/>
+      <c r="B38" s="166"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="168"/>
-      <c r="E38" s="169"/>
-      <c r="F38" s="170"/>
+      <c r="D38" s="159"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="161"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="143"/>
@@ -12899,18 +12957,18 @@
       <c r="N38" s="27"/>
     </row>
     <row r="39" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A39" s="150" t="s">
+      <c r="A39" s="162" t="s">
         <v>409</v>
       </c>
-      <c r="B39" s="153">
+      <c r="B39" s="165">
         <v>11</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="D39" s="165"/>
-      <c r="E39" s="166"/>
-      <c r="F39" s="167"/>
+      <c r="D39" s="156"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="158"/>
       <c r="G39" s="10" t="s">
         <v>354</v>
       </c>
@@ -12937,12 +12995,12 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A40" s="151"/>
-      <c r="B40" s="154"/>
+      <c r="A40" s="163"/>
+      <c r="B40" s="166"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="168"/>
-      <c r="E40" s="169"/>
-      <c r="F40" s="170"/>
+      <c r="D40" s="159"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="161"/>
       <c r="G40" s="3" t="s">
         <v>412</v>
       </c>
@@ -12963,12 +13021,12 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A41" s="151"/>
-      <c r="B41" s="154"/>
+      <c r="A41" s="163"/>
+      <c r="B41" s="166"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="168"/>
-      <c r="E41" s="169"/>
-      <c r="F41" s="170"/>
+      <c r="D41" s="159"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="161"/>
       <c r="G41" s="12" t="s">
         <v>414</v>
       </c>
@@ -12983,10 +13041,10 @@
       <c r="N41" s="27"/>
     </row>
     <row r="42" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A42" s="150" t="s">
+      <c r="A42" s="162" t="s">
         <v>415</v>
       </c>
-      <c r="B42" s="153">
+      <c r="B42" s="165">
         <v>12</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -13021,8 +13079,8 @@
       </c>
     </row>
     <row r="43" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A43" s="151"/>
-      <c r="B43" s="154"/>
+      <c r="A43" s="163"/>
+      <c r="B43" s="166"/>
       <c r="C43" s="12"/>
       <c r="D43" s="94"/>
       <c r="E43" s="95"/>
@@ -13047,8 +13105,8 @@
       </c>
     </row>
     <row r="44" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1">
-      <c r="A44" s="152"/>
-      <c r="B44" s="155"/>
+      <c r="A44" s="164"/>
+      <c r="B44" s="167"/>
       <c r="C44" s="15"/>
       <c r="D44" s="97"/>
       <c r="E44" s="98"/>
@@ -13065,10 +13123,10 @@
       <c r="N44" s="27"/>
     </row>
     <row r="45" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A45" s="150" t="s">
+      <c r="A45" s="162" t="s">
         <v>420</v>
       </c>
-      <c r="B45" s="153">
+      <c r="B45" s="165">
         <v>13</v>
       </c>
       <c r="C45" s="10" t="s">
@@ -13103,8 +13161,8 @@
       </c>
     </row>
     <row r="46" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A46" s="151"/>
-      <c r="B46" s="154"/>
+      <c r="A46" s="163"/>
+      <c r="B46" s="166"/>
       <c r="C46" s="12"/>
       <c r="D46" s="94"/>
       <c r="E46" s="95"/>
@@ -13129,8 +13187,8 @@
       </c>
     </row>
     <row r="47" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1">
-      <c r="A47" s="152"/>
-      <c r="B47" s="155"/>
+      <c r="A47" s="164"/>
+      <c r="B47" s="167"/>
       <c r="C47" s="15"/>
       <c r="D47" s="97"/>
       <c r="E47" s="98"/>
@@ -13150,7 +13208,7 @@
     </row>
     <row r="48" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1">
       <c r="A48" s="131"/>
-      <c r="B48" s="153">
+      <c r="B48" s="165">
         <v>14</v>
       </c>
       <c r="C48" s="10" t="s">
@@ -13162,16 +13220,16 @@
       <c r="G48" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="H48" s="177" t="s">
+      <c r="H48" s="186" t="s">
         <v>424</v>
       </c>
-      <c r="I48" s="153" t="s">
+      <c r="I48" s="165" t="s">
         <v>336</v>
       </c>
-      <c r="J48" s="153" t="s">
+      <c r="J48" s="165" t="s">
         <v>329</v>
       </c>
-      <c r="K48" s="153" t="s">
+      <c r="K48" s="165" t="s">
         <v>337</v>
       </c>
       <c r="L48" s="20" t="s">
@@ -13186,7 +13244,7 @@
     </row>
     <row r="49" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A49" s="132"/>
-      <c r="B49" s="154"/>
+      <c r="B49" s="166"/>
       <c r="C49" s="12" t="s">
         <v>383</v>
       </c>
@@ -13196,10 +13254,10 @@
       <c r="G49" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="H49" s="175"/>
-      <c r="I49" s="154"/>
-      <c r="J49" s="176"/>
-      <c r="K49" s="176"/>
+      <c r="H49" s="180"/>
+      <c r="I49" s="166"/>
+      <c r="J49" s="190"/>
+      <c r="K49" s="190"/>
       <c r="L49" s="21" t="s">
         <v>426</v>
       </c>
@@ -13212,7 +13270,7 @@
     </row>
     <row r="50" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A50" s="132"/>
-      <c r="B50" s="154"/>
+      <c r="B50" s="166"/>
       <c r="C50" s="12" t="s">
         <v>427</v>
       </c>
@@ -13225,9 +13283,9 @@
       <c r="H50" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I50" s="154"/>
-      <c r="J50" s="176"/>
-      <c r="K50" s="176"/>
+      <c r="I50" s="166"/>
+      <c r="J50" s="190"/>
+      <c r="K50" s="190"/>
       <c r="L50" s="21" t="s">
         <v>429</v>
       </c>
@@ -13236,7 +13294,7 @@
     </row>
     <row r="51" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A51" s="132"/>
-      <c r="B51" s="154"/>
+      <c r="B51" s="166"/>
       <c r="C51" s="12" t="s">
         <v>430</v>
       </c>
@@ -13249,9 +13307,9 @@
       <c r="H51" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="I51" s="154"/>
-      <c r="J51" s="176"/>
-      <c r="K51" s="176"/>
+      <c r="I51" s="166"/>
+      <c r="J51" s="190"/>
+      <c r="K51" s="190"/>
       <c r="L51" s="14" t="s">
         <v>433</v>
       </c>
@@ -13260,7 +13318,7 @@
     </row>
     <row r="52" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A52" s="132"/>
-      <c r="B52" s="154"/>
+      <c r="B52" s="166"/>
       <c r="C52" s="12" t="s">
         <v>434</v>
       </c>
@@ -13271,9 +13329,9 @@
         <v>435</v>
       </c>
       <c r="H52" s="106"/>
-      <c r="I52" s="154"/>
-      <c r="J52" s="176"/>
-      <c r="K52" s="176"/>
+      <c r="I52" s="166"/>
+      <c r="J52" s="190"/>
+      <c r="K52" s="190"/>
       <c r="L52" s="14" t="s">
         <v>436</v>
       </c>
@@ -13284,20 +13342,20 @@
       <c r="A53" s="144" t="s">
         <v>437</v>
       </c>
-      <c r="B53" s="154"/>
+      <c r="B53" s="166"/>
       <c r="C53" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="D53" s="157"/>
-      <c r="E53" s="157"/>
-      <c r="F53" s="157"/>
+      <c r="D53" s="169"/>
+      <c r="E53" s="169"/>
+      <c r="F53" s="169"/>
       <c r="G53" s="12" t="s">
         <v>439</v>
       </c>
       <c r="H53" s="106"/>
-      <c r="I53" s="154"/>
-      <c r="J53" s="176"/>
-      <c r="K53" s="176"/>
+      <c r="I53" s="166"/>
+      <c r="J53" s="190"/>
+      <c r="K53" s="190"/>
       <c r="L53" s="14" t="s">
         <v>440</v>
       </c>
@@ -13305,21 +13363,21 @@
       <c r="N53" s="26"/>
     </row>
     <row r="54" spans="1:14" s="3" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A54" s="179"/>
-      <c r="B54" s="154"/>
+      <c r="A54" s="171"/>
+      <c r="B54" s="166"/>
       <c r="C54" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="D54" s="157"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="157"/>
+      <c r="D54" s="169"/>
+      <c r="E54" s="169"/>
+      <c r="F54" s="169"/>
       <c r="G54" s="12" t="s">
         <v>442</v>
       </c>
       <c r="H54" s="106"/>
-      <c r="I54" s="154"/>
-      <c r="J54" s="176"/>
-      <c r="K54" s="176"/>
+      <c r="I54" s="166"/>
+      <c r="J54" s="190"/>
+      <c r="K54" s="190"/>
       <c r="L54" s="106" t="s">
         <v>443</v>
       </c>
@@ -13327,41 +13385,41 @@
       <c r="N54" s="26"/>
     </row>
     <row r="55" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A55" s="179"/>
-      <c r="B55" s="154"/>
+      <c r="A55" s="171"/>
+      <c r="B55" s="166"/>
       <c r="C55" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="D55" s="157"/>
-      <c r="E55" s="157"/>
-      <c r="F55" s="157"/>
+      <c r="D55" s="169"/>
+      <c r="E55" s="169"/>
+      <c r="F55" s="169"/>
       <c r="G55" s="12" t="s">
         <v>445</v>
       </c>
       <c r="H55" s="106"/>
-      <c r="I55" s="154"/>
-      <c r="J55" s="176"/>
-      <c r="K55" s="176"/>
+      <c r="I55" s="166"/>
+      <c r="J55" s="190"/>
+      <c r="K55" s="190"/>
       <c r="L55" s="106"/>
-      <c r="M55" s="149"/>
+      <c r="M55" s="178"/>
       <c r="N55" s="26"/>
     </row>
     <row r="56" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1">
       <c r="A56" s="133"/>
-      <c r="B56" s="155"/>
+      <c r="B56" s="167"/>
       <c r="C56" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="D56" s="158"/>
-      <c r="E56" s="158"/>
-      <c r="F56" s="158"/>
+      <c r="D56" s="170"/>
+      <c r="E56" s="170"/>
+      <c r="F56" s="170"/>
       <c r="G56" s="128"/>
       <c r="H56" s="128"/>
-      <c r="I56" s="155"/>
-      <c r="J56" s="194"/>
-      <c r="K56" s="194"/>
+      <c r="I56" s="167"/>
+      <c r="J56" s="200"/>
+      <c r="K56" s="200"/>
       <c r="L56" s="128"/>
-      <c r="M56" s="193"/>
+      <c r="M56" s="199"/>
       <c r="N56" s="27"/>
     </row>
     <row r="57" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1">
@@ -13376,16 +13434,16 @@
       <c r="G57" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="H57" s="177" t="s">
+      <c r="H57" s="186" t="s">
         <v>424</v>
       </c>
-      <c r="I57" s="173" t="s">
+      <c r="I57" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="J57" s="173" t="s">
+      <c r="J57" s="181" t="s">
         <v>329</v>
       </c>
-      <c r="K57" s="173" t="s">
+      <c r="K57" s="181" t="s">
         <v>337</v>
       </c>
       <c r="L57" s="102" t="s">
@@ -13399,10 +13457,10 @@
       </c>
     </row>
     <row r="58" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A58" s="179" t="s">
+      <c r="A58" s="171" t="s">
         <v>448</v>
       </c>
-      <c r="B58" s="154">
+      <c r="B58" s="166">
         <v>15</v>
       </c>
       <c r="C58" s="12" t="s">
@@ -13414,10 +13472,10 @@
       <c r="G58" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="H58" s="175"/>
-      <c r="I58" s="178"/>
-      <c r="J58" s="178"/>
-      <c r="K58" s="178"/>
+      <c r="H58" s="180"/>
+      <c r="I58" s="185"/>
+      <c r="J58" s="185"/>
+      <c r="K58" s="185"/>
       <c r="L58" s="3" t="s">
         <v>450</v>
       </c>
@@ -13429,8 +13487,8 @@
       </c>
     </row>
     <row r="59" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A59" s="151"/>
-      <c r="B59" s="154"/>
+      <c r="A59" s="163"/>
+      <c r="B59" s="166"/>
       <c r="C59" s="12" t="s">
         <v>451</v>
       </c>
@@ -13443,16 +13501,16 @@
       <c r="H59" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I59" s="178"/>
-      <c r="J59" s="178"/>
-      <c r="K59" s="178"/>
+      <c r="I59" s="185"/>
+      <c r="J59" s="185"/>
+      <c r="K59" s="185"/>
       <c r="L59" s="21" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="60" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A60" s="151"/>
-      <c r="B60" s="154"/>
+      <c r="A60" s="163"/>
+      <c r="B60" s="166"/>
       <c r="C60" s="3" t="s">
         <v>453</v>
       </c>
@@ -13465,101 +13523,101 @@
       <c r="H60" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="I60" s="178"/>
-      <c r="J60" s="178"/>
-      <c r="K60" s="178"/>
+      <c r="I60" s="185"/>
+      <c r="J60" s="185"/>
+      <c r="K60" s="185"/>
       <c r="L60" s="102" t="s">
         <v>456</v>
       </c>
-      <c r="M60" s="149"/>
+      <c r="M60" s="178"/>
       <c r="N60" s="26"/>
     </row>
     <row r="61" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A61" s="151"/>
-      <c r="B61" s="154"/>
+      <c r="A61" s="163"/>
+      <c r="B61" s="166"/>
       <c r="C61" s="12" t="s">
         <v>457</v>
       </c>
       <c r="D61" s="138"/>
       <c r="E61" s="139"/>
       <c r="F61" s="140"/>
-      <c r="G61" s="175" t="s">
+      <c r="G61" s="180" t="s">
         <v>458</v>
       </c>
-      <c r="I61" s="178"/>
-      <c r="J61" s="178"/>
-      <c r="K61" s="178"/>
+      <c r="I61" s="185"/>
+      <c r="J61" s="185"/>
+      <c r="K61" s="185"/>
       <c r="L61" s="107" t="s">
         <v>459</v>
       </c>
-      <c r="M61" s="149"/>
+      <c r="M61" s="178"/>
       <c r="N61" s="26"/>
     </row>
     <row r="62" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A62" s="151"/>
-      <c r="B62" s="154"/>
+      <c r="A62" s="163"/>
+      <c r="B62" s="166"/>
       <c r="C62" s="12" t="s">
         <v>460</v>
       </c>
       <c r="D62" s="138"/>
       <c r="E62" s="139"/>
       <c r="F62" s="140"/>
-      <c r="G62" s="175"/>
+      <c r="G62" s="180"/>
       <c r="H62" s="12"/>
-      <c r="I62" s="178"/>
-      <c r="J62" s="178"/>
-      <c r="K62" s="178"/>
+      <c r="I62" s="185"/>
+      <c r="J62" s="185"/>
+      <c r="K62" s="185"/>
       <c r="L62" s="107" t="s">
         <v>461</v>
       </c>
-      <c r="M62" s="149"/>
+      <c r="M62" s="178"/>
       <c r="N62" s="26"/>
     </row>
     <row r="63" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A63" s="151"/>
-      <c r="B63" s="154"/>
+      <c r="A63" s="163"/>
+      <c r="B63" s="166"/>
       <c r="C63" s="12"/>
       <c r="D63" s="138"/>
       <c r="E63" s="139"/>
       <c r="F63" s="140"/>
       <c r="H63" s="12"/>
-      <c r="I63" s="178"/>
-      <c r="J63" s="178"/>
-      <c r="K63" s="178"/>
+      <c r="I63" s="185"/>
+      <c r="J63" s="185"/>
+      <c r="K63" s="185"/>
       <c r="L63" s="107" t="s">
         <v>462</v>
       </c>
-      <c r="M63" s="149"/>
+      <c r="M63" s="178"/>
       <c r="N63" s="26"/>
     </row>
     <row r="64" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A64" s="151"/>
-      <c r="B64" s="154"/>
+      <c r="A64" s="163"/>
+      <c r="B64" s="166"/>
       <c r="C64" s="12"/>
       <c r="D64" s="138"/>
       <c r="E64" s="139"/>
       <c r="F64" s="140"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
-      <c r="I64" s="174"/>
-      <c r="J64" s="174"/>
-      <c r="K64" s="174"/>
-      <c r="M64" s="180"/>
+      <c r="I64" s="182"/>
+      <c r="J64" s="182"/>
+      <c r="K64" s="182"/>
+      <c r="M64" s="188"/>
       <c r="N64" s="26"/>
     </row>
     <row r="65" spans="1:14" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A65" s="150" t="s">
+      <c r="A65" s="162" t="s">
         <v>463</v>
       </c>
-      <c r="B65" s="153">
+      <c r="B65" s="165">
         <v>16</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="D65" s="165"/>
-      <c r="E65" s="166"/>
-      <c r="F65" s="167"/>
+      <c r="D65" s="156"/>
+      <c r="E65" s="157"/>
+      <c r="F65" s="158"/>
       <c r="G65" s="10" t="s">
         <v>465</v>
       </c>
@@ -13578,20 +13636,20 @@
       <c r="L65" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="M65" s="148" t="s">
+      <c r="M65" s="187" t="s">
         <v>468</v>
       </c>
-      <c r="N65" s="148" t="s">
+      <c r="N65" s="187" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="66" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A66" s="151"/>
-      <c r="B66" s="154"/>
+      <c r="A66" s="163"/>
+      <c r="B66" s="166"/>
       <c r="C66" s="12"/>
-      <c r="D66" s="168"/>
-      <c r="E66" s="169"/>
-      <c r="F66" s="170"/>
+      <c r="D66" s="159"/>
+      <c r="E66" s="160"/>
+      <c r="F66" s="161"/>
       <c r="G66" s="12" t="s">
         <v>470</v>
       </c>
@@ -13602,16 +13660,16 @@
       <c r="L66" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="M66" s="149"/>
-      <c r="N66" s="149"/>
+      <c r="M66" s="178"/>
+      <c r="N66" s="178"/>
     </row>
     <row r="67" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A67" s="151"/>
-      <c r="B67" s="154"/>
+      <c r="A67" s="163"/>
+      <c r="B67" s="166"/>
       <c r="C67" s="12"/>
-      <c r="D67" s="168"/>
-      <c r="E67" s="169"/>
-      <c r="F67" s="170"/>
+      <c r="D67" s="159"/>
+      <c r="E67" s="160"/>
+      <c r="F67" s="161"/>
       <c r="G67" s="12"/>
       <c r="H67" s="66"/>
       <c r="I67" s="143"/>
@@ -13620,16 +13678,16 @@
       <c r="L67" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="M67" s="149"/>
+      <c r="M67" s="178"/>
       <c r="N67" s="26"/>
     </row>
     <row r="68" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A68" s="152"/>
-      <c r="B68" s="155"/>
+      <c r="A68" s="164"/>
+      <c r="B68" s="167"/>
       <c r="C68" s="15"/>
-      <c r="D68" s="182"/>
-      <c r="E68" s="183"/>
-      <c r="F68" s="184"/>
+      <c r="D68" s="172"/>
+      <c r="E68" s="173"/>
+      <c r="F68" s="174"/>
       <c r="G68" s="15"/>
       <c r="H68" s="17" t="s">
         <v>351</v>
@@ -13638,14 +13696,14 @@
       <c r="J68" s="130"/>
       <c r="K68" s="130"/>
       <c r="L68" s="19"/>
-      <c r="M68" s="187"/>
+      <c r="M68" s="179"/>
       <c r="N68" s="27"/>
     </row>
     <row r="69" spans="1:14" s="3" customFormat="1" ht="19.2" customHeight="1">
       <c r="A69" s="132" t="s">
         <v>473</v>
       </c>
-      <c r="B69" s="153">
+      <c r="B69" s="165">
         <v>17</v>
       </c>
       <c r="C69" s="12" t="s">
@@ -13681,7 +13739,7 @@
     </row>
     <row r="70" spans="1:14" s="3" customFormat="1" ht="19.2" customHeight="1">
       <c r="A70" s="132"/>
-      <c r="B70" s="154"/>
+      <c r="B70" s="166"/>
       <c r="C70" s="12"/>
       <c r="D70" s="138"/>
       <c r="E70" s="139"/>
@@ -13703,7 +13761,7 @@
     </row>
     <row r="71" spans="1:14" s="3" customFormat="1" ht="19.2" customHeight="1" thickBot="1">
       <c r="A71" s="132"/>
-      <c r="B71" s="155"/>
+      <c r="B71" s="167"/>
       <c r="C71" s="12"/>
       <c r="D71" s="138"/>
       <c r="E71" s="139"/>
@@ -13721,7 +13779,7 @@
       <c r="A72" s="131" t="s">
         <v>477</v>
       </c>
-      <c r="B72" s="153">
+      <c r="B72" s="165">
         <v>18</v>
       </c>
       <c r="C72" s="10" t="s">
@@ -13757,12 +13815,12 @@
     </row>
     <row r="73" spans="1:14" s="3" customFormat="1" ht="13.8">
       <c r="A73" s="132"/>
-      <c r="B73" s="154"/>
+      <c r="B73" s="166"/>
       <c r="C73" s="12"/>
       <c r="D73" s="138"/>
       <c r="E73" s="139"/>
       <c r="F73" s="140"/>
-      <c r="G73" s="175" t="s">
+      <c r="G73" s="180" t="s">
         <v>480</v>
       </c>
       <c r="H73" s="66" t="s">
@@ -13779,12 +13837,12 @@
     </row>
     <row r="74" spans="1:14" s="3" customFormat="1" ht="13.8">
       <c r="A74" s="132"/>
-      <c r="B74" s="154"/>
+      <c r="B74" s="166"/>
       <c r="C74" s="12"/>
       <c r="D74" s="138"/>
       <c r="E74" s="139"/>
       <c r="F74" s="140"/>
-      <c r="G74" s="175"/>
+      <c r="G74" s="180"/>
       <c r="H74" s="66"/>
       <c r="I74" s="143"/>
       <c r="J74" s="143"/>
@@ -13795,7 +13853,7 @@
     </row>
     <row r="75" spans="1:14" s="3" customFormat="1" ht="21.6" customHeight="1" thickBot="1">
       <c r="A75" s="132"/>
-      <c r="B75" s="155"/>
+      <c r="B75" s="167"/>
       <c r="C75" s="12"/>
       <c r="D75" s="138"/>
       <c r="E75" s="139"/>
@@ -13815,7 +13873,7 @@
       <c r="A76" s="131" t="s">
         <v>483</v>
       </c>
-      <c r="B76" s="153">
+      <c r="B76" s="165">
         <v>19</v>
       </c>
       <c r="C76" s="10" t="s">
@@ -13851,7 +13909,7 @@
     </row>
     <row r="77" spans="1:14" s="3" customFormat="1" ht="22.2" customHeight="1" thickBot="1">
       <c r="A77" s="132"/>
-      <c r="B77" s="155"/>
+      <c r="B77" s="167"/>
       <c r="C77" s="12"/>
       <c r="D77" s="138"/>
       <c r="E77" s="139"/>
@@ -13870,18 +13928,18 @@
       </c>
     </row>
     <row r="78" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A78" s="150" t="s">
+      <c r="A78" s="162" t="s">
         <v>485</v>
       </c>
-      <c r="B78" s="153">
+      <c r="B78" s="165">
         <v>20</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="D78" s="156"/>
-      <c r="E78" s="156"/>
-      <c r="F78" s="156"/>
+      <c r="D78" s="168"/>
+      <c r="E78" s="168"/>
+      <c r="F78" s="168"/>
       <c r="G78" s="10" t="s">
         <v>487</v>
       </c>
@@ -13908,12 +13966,12 @@
       </c>
     </row>
     <row r="79" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A79" s="151"/>
-      <c r="B79" s="154"/>
+      <c r="A79" s="163"/>
+      <c r="B79" s="166"/>
       <c r="C79" s="12"/>
-      <c r="D79" s="157"/>
-      <c r="E79" s="157"/>
-      <c r="F79" s="157"/>
+      <c r="D79" s="169"/>
+      <c r="E79" s="169"/>
+      <c r="F79" s="169"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12" t="s">
         <v>340</v>
@@ -13932,12 +13990,12 @@
       </c>
     </row>
     <row r="80" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A80" s="152"/>
-      <c r="B80" s="155"/>
+      <c r="A80" s="164"/>
+      <c r="B80" s="167"/>
       <c r="C80" s="15"/>
-      <c r="D80" s="158"/>
-      <c r="E80" s="158"/>
-      <c r="F80" s="158"/>
+      <c r="D80" s="170"/>
+      <c r="E80" s="170"/>
+      <c r="F80" s="170"/>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
       <c r="I80" s="130"/>
@@ -13952,18 +14010,18 @@
       </c>
     </row>
     <row r="81" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A81" s="150" t="s">
+      <c r="A81" s="162" t="s">
         <v>489</v>
       </c>
-      <c r="B81" s="153">
+      <c r="B81" s="165">
         <v>21</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="D81" s="156"/>
-      <c r="E81" s="156"/>
-      <c r="F81" s="156"/>
+      <c r="D81" s="168"/>
+      <c r="E81" s="168"/>
+      <c r="F81" s="168"/>
       <c r="G81" s="12" t="s">
         <v>491</v>
       </c>
@@ -13990,12 +14048,12 @@
       </c>
     </row>
     <row r="82" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A82" s="151"/>
-      <c r="B82" s="154"/>
+      <c r="A82" s="163"/>
+      <c r="B82" s="166"/>
       <c r="C82" s="12"/>
-      <c r="D82" s="157"/>
-      <c r="E82" s="157"/>
-      <c r="F82" s="157"/>
+      <c r="D82" s="169"/>
+      <c r="E82" s="169"/>
+      <c r="F82" s="169"/>
       <c r="G82" s="12" t="s">
         <v>492</v>
       </c>
@@ -14016,12 +14074,12 @@
       </c>
     </row>
     <row r="83" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A83" s="152"/>
-      <c r="B83" s="155"/>
+      <c r="A83" s="164"/>
+      <c r="B83" s="167"/>
       <c r="C83" s="15"/>
-      <c r="D83" s="158"/>
-      <c r="E83" s="158"/>
-      <c r="F83" s="158"/>
+      <c r="D83" s="170"/>
+      <c r="E83" s="170"/>
+      <c r="F83" s="170"/>
       <c r="H83" s="15"/>
       <c r="I83" s="130"/>
       <c r="J83" s="130"/>
@@ -14035,18 +14093,18 @@
       </c>
     </row>
     <row r="84" spans="1:14" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A84" s="150" t="s">
+      <c r="A84" s="162" t="s">
         <v>463</v>
       </c>
-      <c r="B84" s="153">
+      <c r="B84" s="165">
         <v>22</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="D84" s="165"/>
-      <c r="E84" s="166"/>
-      <c r="F84" s="167"/>
+      <c r="D84" s="156"/>
+      <c r="E84" s="157"/>
+      <c r="F84" s="158"/>
       <c r="G84" s="10" t="s">
         <v>494</v>
       </c>
@@ -14065,20 +14123,20 @@
       <c r="L84" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="M84" s="148" t="s">
+      <c r="M84" s="187" t="s">
         <v>468</v>
       </c>
-      <c r="N84" s="148" t="s">
+      <c r="N84" s="187" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="85" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A85" s="151"/>
-      <c r="B85" s="154"/>
+      <c r="A85" s="163"/>
+      <c r="B85" s="166"/>
       <c r="C85" s="12"/>
-      <c r="D85" s="168"/>
-      <c r="E85" s="169"/>
-      <c r="F85" s="170"/>
+      <c r="D85" s="159"/>
+      <c r="E85" s="160"/>
+      <c r="F85" s="161"/>
       <c r="G85" s="12" t="s">
         <v>496</v>
       </c>
@@ -14089,16 +14147,16 @@
       <c r="L85" s="125" t="s">
         <v>450</v>
       </c>
-      <c r="M85" s="149"/>
-      <c r="N85" s="149"/>
+      <c r="M85" s="178"/>
+      <c r="N85" s="178"/>
     </row>
     <row r="86" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A86" s="151"/>
-      <c r="B86" s="154"/>
+      <c r="A86" s="163"/>
+      <c r="B86" s="166"/>
       <c r="C86" s="12"/>
-      <c r="D86" s="168"/>
-      <c r="E86" s="169"/>
-      <c r="F86" s="170"/>
+      <c r="D86" s="159"/>
+      <c r="E86" s="160"/>
+      <c r="F86" s="161"/>
       <c r="G86" s="12" t="s">
         <v>497</v>
       </c>
@@ -14107,121 +14165,91 @@
       <c r="J86" s="143"/>
       <c r="K86" s="143"/>
       <c r="L86" s="21"/>
-      <c r="M86" s="149"/>
+      <c r="M86" s="178"/>
       <c r="N86" s="26"/>
     </row>
     <row r="87" spans="1:14" ht="16.2" customHeight="1">
-      <c r="A87" s="159" t="s">
+      <c r="A87" s="195" t="s">
         <v>498</v>
       </c>
-      <c r="B87" s="159">
+      <c r="B87" s="195">
         <v>23</v>
       </c>
-      <c r="C87" s="161" t="s">
+      <c r="C87" s="193" t="s">
         <v>498</v>
       </c>
-      <c r="D87" s="191"/>
-      <c r="E87" s="191"/>
-      <c r="F87" s="191"/>
-      <c r="G87" s="161" t="s">
+      <c r="D87" s="201"/>
+      <c r="E87" s="201"/>
+      <c r="F87" s="201"/>
+      <c r="G87" s="193" t="s">
         <v>499</v>
       </c>
-      <c r="H87" s="161" t="s">
+      <c r="H87" s="193" t="s">
         <v>466</v>
       </c>
-      <c r="I87" s="173" t="s">
+      <c r="I87" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="J87" s="173" t="s">
+      <c r="J87" s="181" t="s">
         <v>329</v>
       </c>
-      <c r="K87" s="173" t="s">
+      <c r="K87" s="181" t="s">
         <v>337</v>
       </c>
-      <c r="L87" s="171" t="s">
+      <c r="L87" s="191" t="s">
         <v>500</v>
       </c>
-      <c r="M87" s="161" t="s">
+      <c r="M87" s="193" t="s">
         <v>501</v>
       </c>
-      <c r="N87" s="161" t="s">
+      <c r="N87" s="193" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A88" s="160"/>
-      <c r="B88" s="160"/>
-      <c r="C88" s="162"/>
-      <c r="D88" s="192"/>
-      <c r="E88" s="192"/>
-      <c r="F88" s="192"/>
-      <c r="G88" s="162"/>
-      <c r="H88" s="162"/>
-      <c r="I88" s="174"/>
-      <c r="J88" s="174"/>
-      <c r="K88" s="174"/>
-      <c r="L88" s="172"/>
-      <c r="M88" s="162"/>
-      <c r="N88" s="162"/>
+      <c r="A88" s="196"/>
+      <c r="B88" s="196"/>
+      <c r="C88" s="194"/>
+      <c r="D88" s="202"/>
+      <c r="E88" s="202"/>
+      <c r="F88" s="202"/>
+      <c r="G88" s="194"/>
+      <c r="H88" s="194"/>
+      <c r="I88" s="182"/>
+      <c r="J88" s="182"/>
+      <c r="K88" s="182"/>
+      <c r="L88" s="192"/>
+      <c r="M88" s="194"/>
+      <c r="N88" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:F4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:F9"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:F18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="D19:F21"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:F12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:F15"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="D36:F38"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="H26:H35"/>
-    <mergeCell ref="I26:I35"/>
-    <mergeCell ref="J26:J35"/>
-    <mergeCell ref="K26:K35"/>
-    <mergeCell ref="A27:A35"/>
-    <mergeCell ref="B27:B35"/>
-    <mergeCell ref="D27:F35"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="D39:F41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="M84:M86"/>
+    <mergeCell ref="N84:N85"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="D81:F83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="D84:F86"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="D78:F80"/>
     <mergeCell ref="A65:A68"/>
     <mergeCell ref="B65:B68"/>
     <mergeCell ref="D65:F68"/>
@@ -14244,32 +14272,62 @@
     <mergeCell ref="J48:J56"/>
     <mergeCell ref="K48:K56"/>
     <mergeCell ref="D53:F56"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="D81:F83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="D84:F86"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="D78:F80"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="M84:M86"/>
-    <mergeCell ref="N84:N85"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="D39:F41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="D36:F38"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="H26:H35"/>
+    <mergeCell ref="I26:I35"/>
+    <mergeCell ref="J26:J35"/>
+    <mergeCell ref="K26:K35"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="D27:F35"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:F18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="D19:F21"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:F12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:F15"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:F4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:F9"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I5:I6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -14298,16 +14356,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="162" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="153">
+      <c r="B1" s="165">
         <v>2</v>
       </c>
-      <c r="C1" s="177" t="s">
+      <c r="C1" s="186" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="177" t="s">
+      <c r="D1" s="186" t="s">
         <v>139</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -14315,22 +14373,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A2" s="152"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
       <c r="E2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="162" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="153">
+      <c r="B3" s="165">
         <v>3</v>
       </c>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="186" t="s">
         <v>125</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -14341,9 +14399,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A4" s="151"/>
-      <c r="B4" s="154"/>
-      <c r="C4" s="175"/>
+      <c r="A4" s="163"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="180"/>
       <c r="D4" s="12" t="s">
         <v>28</v>
       </c>
@@ -14352,13 +14410,13 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="150" t="s">
+      <c r="A5" s="162" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="153">
+      <c r="B5" s="165">
         <v>4</v>
       </c>
-      <c r="C5" s="177" t="s">
+      <c r="C5" s="186" t="s">
         <v>124</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -14369,9 +14427,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A6" s="151"/>
-      <c r="B6" s="154"/>
-      <c r="C6" s="175"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="180"/>
       <c r="D6" s="12" t="s">
         <v>121</v>
       </c>
@@ -14380,13 +14438,13 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="150" t="s">
+      <c r="A7" s="162" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="153">
+      <c r="B7" s="165">
         <v>5</v>
       </c>
-      <c r="C7" s="177" t="s">
+      <c r="C7" s="186" t="s">
         <v>123</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -14397,9 +14455,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A8" s="151"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="175"/>
+      <c r="A8" s="163"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="180"/>
       <c r="D8" s="12" t="s">
         <v>28</v>
       </c>
@@ -14408,13 +14466,13 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="150" t="s">
+      <c r="A9" s="162" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="153">
+      <c r="B9" s="165">
         <v>6</v>
       </c>
-      <c r="C9" s="177" t="s">
+      <c r="C9" s="186" t="s">
         <v>122</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -14425,9 +14483,9 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="151"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="175"/>
+      <c r="A10" s="163"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="180"/>
       <c r="D10" s="12" t="s">
         <v>79</v>
       </c>
@@ -14436,8 +14494,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A11" s="151"/>
-      <c r="B11" s="154"/>
+      <c r="A11" s="163"/>
+      <c r="B11" s="166"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12" t="s">
         <v>140</v>
@@ -14445,10 +14503,10 @@
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="150" t="s">
+      <c r="A12" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="153">
+      <c r="B12" s="165">
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -14462,8 +14520,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A13" s="151"/>
-      <c r="B13" s="154"/>
+      <c r="A13" s="163"/>
+      <c r="B13" s="166"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12" t="s">
         <v>87</v>
@@ -14473,10 +14531,10 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="150" t="s">
+      <c r="A14" s="162" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="153">
+      <c r="B14" s="165">
         <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -14490,8 +14548,8 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="151"/>
-      <c r="B15" s="154"/>
+      <c r="A15" s="163"/>
+      <c r="B15" s="166"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12" t="s">
         <v>130</v>
@@ -14501,8 +14559,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A16" s="151"/>
-      <c r="B16" s="154"/>
+      <c r="A16" s="163"/>
+      <c r="B16" s="166"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12" t="s">
         <v>234</v>
@@ -14510,10 +14568,10 @@
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="195" t="s">
+      <c r="A17" s="203" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="153">
+      <c r="B17" s="165">
         <v>9</v>
       </c>
       <c r="C17" s="84" t="s">
@@ -14522,103 +14580,103 @@
       <c r="D17" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E17" s="177" t="s">
+      <c r="E17" s="186" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="179"/>
-      <c r="B18" s="154"/>
+      <c r="A18" s="171"/>
+      <c r="B18" s="166"/>
       <c r="C18" s="12" t="s">
         <v>131</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="175"/>
+      <c r="E18" s="180"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="179"/>
-      <c r="B19" s="154"/>
+      <c r="A19" s="171"/>
+      <c r="B19" s="166"/>
       <c r="C19" s="12" t="s">
         <v>77</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="175"/>
+      <c r="E19" s="180"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="179"/>
-      <c r="B20" s="154"/>
+      <c r="A20" s="171"/>
+      <c r="B20" s="166"/>
       <c r="C20" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="175"/>
+      <c r="E20" s="180"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="179"/>
-      <c r="B21" s="154"/>
+      <c r="A21" s="171"/>
+      <c r="B21" s="166"/>
       <c r="C21" s="12" t="s">
         <v>134</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="175"/>
+      <c r="E21" s="180"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="179"/>
-      <c r="B22" s="154"/>
+      <c r="A22" s="171"/>
+      <c r="B22" s="166"/>
       <c r="C22" s="12" t="s">
         <v>135</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="E22" s="175"/>
+      <c r="E22" s="180"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="179"/>
-      <c r="B23" s="154"/>
+      <c r="A23" s="171"/>
+      <c r="B23" s="166"/>
       <c r="C23" s="12" t="s">
         <v>148</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="E23" s="175"/>
+      <c r="E23" s="180"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="179"/>
-      <c r="B24" s="154"/>
+      <c r="A24" s="171"/>
+      <c r="B24" s="166"/>
       <c r="C24" s="3" t="s">
         <v>149</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E24" s="175"/>
+      <c r="E24" s="180"/>
     </row>
     <row r="25" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A25" s="179"/>
-      <c r="B25" s="154"/>
+      <c r="A25" s="171"/>
+      <c r="B25" s="166"/>
       <c r="C25" s="3" t="s">
         <v>150</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E25" s="175"/>
+      <c r="E25" s="180"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="150" t="s">
+      <c r="A26" s="162" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="153">
+      <c r="B26" s="165">
         <v>10</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -14632,8 +14690,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A27" s="151"/>
-      <c r="B27" s="154"/>
+      <c r="A27" s="163"/>
+      <c r="B27" s="166"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12" t="s">
         <v>158</v>
@@ -14643,10 +14701,10 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="150" t="s">
+      <c r="A28" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="153">
+      <c r="B28" s="165">
         <v>11</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -14660,8 +14718,8 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="151"/>
-      <c r="B29" s="154"/>
+      <c r="A29" s="163"/>
+      <c r="B29" s="166"/>
       <c r="C29" s="12"/>
       <c r="D29" s="3" t="s">
         <v>167</v>
@@ -14671,8 +14729,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A30" s="151"/>
-      <c r="B30" s="154"/>
+      <c r="A30" s="163"/>
+      <c r="B30" s="166"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12" t="s">
         <v>235</v>
@@ -14680,10 +14738,10 @@
       <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="150" t="s">
+      <c r="A31" s="162" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="153">
+      <c r="B31" s="165">
         <v>12</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -14697,8 +14755,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A32" s="151"/>
-      <c r="B32" s="154"/>
+      <c r="A32" s="163"/>
+      <c r="B32" s="166"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12" t="s">
         <v>163</v>
@@ -14708,10 +14766,10 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="150" t="s">
+      <c r="A33" s="162" t="s">
         <v>165</v>
       </c>
-      <c r="B33" s="153">
+      <c r="B33" s="165">
         <v>13</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -14725,8 +14783,8 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="151"/>
-      <c r="B34" s="154"/>
+      <c r="A34" s="163"/>
+      <c r="B34" s="166"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12" t="s">
         <v>170</v>
@@ -14736,8 +14794,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A35" s="152"/>
-      <c r="B35" s="155"/>
+      <c r="A35" s="164"/>
+      <c r="B35" s="167"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15" t="s">
         <v>236</v>
@@ -14746,7 +14804,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="86"/>
-      <c r="B36" s="153">
+      <c r="B36" s="165">
         <v>14</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -14755,24 +14813,24 @@
       <c r="D36" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E36" s="175" t="s">
+      <c r="E36" s="180" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="86"/>
-      <c r="B37" s="154"/>
+      <c r="B37" s="166"/>
       <c r="C37" s="12" t="s">
         <v>195</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="E37" s="175"/>
+      <c r="E37" s="180"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="86"/>
-      <c r="B38" s="154"/>
+      <c r="B38" s="166"/>
       <c r="C38" s="12" t="s">
         <v>175</v>
       </c>
@@ -14785,7 +14843,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="86"/>
-      <c r="B39" s="154"/>
+      <c r="B39" s="166"/>
       <c r="C39" s="12" t="s">
         <v>177</v>
       </c>
@@ -14800,7 +14858,7 @@
       <c r="A40" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="B40" s="154"/>
+      <c r="B40" s="166"/>
       <c r="C40" s="12" t="s">
         <v>178</v>
       </c>
@@ -14811,7 +14869,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="86"/>
-      <c r="B41" s="154"/>
+      <c r="B41" s="166"/>
       <c r="C41" s="12" t="s">
         <v>179</v>
       </c>
@@ -14822,7 +14880,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="86"/>
-      <c r="B42" s="154"/>
+      <c r="B42" s="166"/>
       <c r="C42" s="12" t="s">
         <v>180</v>
       </c>
@@ -14843,10 +14901,10 @@
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="150" t="s">
+      <c r="A44" s="162" t="s">
         <v>189</v>
       </c>
-      <c r="B44" s="153">
+      <c r="B44" s="165">
         <v>15</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -14855,24 +14913,24 @@
       <c r="D44" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E44" s="177" t="s">
+      <c r="E44" s="186" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="151"/>
-      <c r="B45" s="154"/>
+      <c r="A45" s="163"/>
+      <c r="B45" s="166"/>
       <c r="C45" s="12" t="s">
         <v>196</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="175"/>
+      <c r="E45" s="180"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="151"/>
-      <c r="B46" s="154"/>
+      <c r="A46" s="163"/>
+      <c r="B46" s="166"/>
       <c r="C46" s="3" t="s">
         <v>201</v>
       </c>
@@ -14884,8 +14942,8 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="151"/>
-      <c r="B47" s="154"/>
+      <c r="A47" s="163"/>
+      <c r="B47" s="166"/>
       <c r="C47" s="12" t="s">
         <v>202</v>
       </c>
@@ -14897,8 +14955,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A48" s="151"/>
-      <c r="B48" s="154"/>
+      <c r="A48" s="163"/>
+      <c r="B48" s="166"/>
       <c r="C48" s="12" t="s">
         <v>203</v>
       </c>
@@ -14911,7 +14969,7 @@
       <c r="A49" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="153">
+      <c r="B49" s="165">
         <v>17</v>
       </c>
       <c r="C49" s="10" t="s">
@@ -14926,7 +14984,7 @@
     </row>
     <row r="50" spans="1:5" ht="16.8" thickBot="1">
       <c r="A50" s="87"/>
-      <c r="B50" s="155"/>
+      <c r="B50" s="167"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15" t="s">
         <v>100</v>
@@ -14939,7 +14997,7 @@
       <c r="A51" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="153">
+      <c r="B51" s="165">
         <v>18</v>
       </c>
       <c r="C51" s="10" t="s">
@@ -14954,7 +15012,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="86"/>
-      <c r="B52" s="154"/>
+      <c r="B52" s="166"/>
       <c r="C52" s="12"/>
       <c r="D52" s="89" t="s">
         <v>217</v>
@@ -14965,7 +15023,7 @@
     </row>
     <row r="53" spans="1:5" ht="16.8" thickBot="1">
       <c r="A53" s="86"/>
-      <c r="B53" s="155"/>
+      <c r="B53" s="167"/>
       <c r="C53" s="12"/>
       <c r="D53" s="15" t="s">
         <v>218</v>
@@ -14976,7 +15034,7 @@
       <c r="A54" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="153">
+      <c r="B54" s="165">
         <v>19</v>
       </c>
       <c r="C54" s="10" t="s">
@@ -14991,7 +15049,7 @@
     </row>
     <row r="55" spans="1:5" ht="16.8" thickBot="1">
       <c r="A55" s="86"/>
-      <c r="B55" s="155"/>
+      <c r="B55" s="167"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="66" t="s">
@@ -14999,10 +15057,10 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="150" t="s">
+      <c r="A56" s="162" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="153">
+      <c r="B56" s="165">
         <v>20</v>
       </c>
       <c r="C56" s="10" t="s">
@@ -15016,8 +15074,8 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="151"/>
-      <c r="B57" s="154"/>
+      <c r="A57" s="163"/>
+      <c r="B57" s="166"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12" t="s">
         <v>220</v>
@@ -15027,8 +15085,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A58" s="152"/>
-      <c r="B58" s="155"/>
+      <c r="A58" s="164"/>
+      <c r="B58" s="167"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15" t="s">
         <v>221</v>
@@ -15058,40 +15116,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="E17:E25"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -15099,6 +15123,40 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E17:E25"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B53"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
